--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48885020-C4CE-48F3-81D6-9EF5B962190B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C2419-40C9-4DEE-987B-8582F370C1A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>account(账号):string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password(密码):string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reqId(string):为空,用户账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +79,18 @@
   </si>
   <si>
     <t>isSuccess(bool):是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>athority(string):权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account(string):账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password(string):密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -522,11 +526,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -534,50 +538,52 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C2419-40C9-4DEE-987B-8582F370C1A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F16DB-11FA-4BC9-A1B7-EB10CC6E976C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,23 +74,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>athority(string):权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isSuccess(bool):是否成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>athority(string):权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account(string):账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>password(string):密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority(string):权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +480,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,7 +538,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -557,11 +553,11 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,10 +566,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C2419-40C9-4DEE-987B-8582F370C1A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E112A-EF69-4858-86A2-F93416A43CB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,43 +54,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reqId(string):为空,用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reqParam(object):请求参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reqId(string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resData(object)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name(string):显示的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>athority(string):权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isSuccess(bool):是否成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>athority(string):权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account(string):账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>password(string):密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(int):类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_name(string):队伍名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account(string):账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询赛程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termList(string[]):赛程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeList(string[]):成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name(string):项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_a(string):年龄分组:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_g(string):性别分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛程表是什么数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动员名称-代表队-成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader():领队信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor():队医信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach():教练员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge():裁判信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,20 +266,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,22 +584,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -509,81 +617,287 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
+  <mergeCells count="35">
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E112A-EF69-4858-86A2-F93416A43CB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95072A1F-8017-437A-A064-9B1D8B30C71D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type(int):类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,30 @@
   </si>
   <si>
     <t>有序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority(string):类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqId(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqId(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message(string):</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,20 +309,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -598,7 +627,7 @@
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="3"/>
@@ -621,283 +650,365 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="6" t="s">
+      <c r="G8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="I23" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="D13:D16"/>
+  <mergeCells count="41">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF243D24-120F-4D3D-A8F1-80804E9CCEE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E69B6-E135-415D-BA83-F8A69F1B6703}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询赛程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name(string):项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,7 +239,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询赛程-2</t>
+    <t>ddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询项目成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResultByItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqId(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqParam(object):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_id(stirng):为空时表示查询该小组所有成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqPageInfo(object):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqId(string);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(object):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name(string):项目名称//如果为空则代表该项无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_id(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_name(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_id(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pri_result(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final_result(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(对象数组）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSuccess:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize(int):页面容量默认为10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curPage(int):当前页码数，默认为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册ddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询赛程ddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询运动员成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResultByAthlete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_name(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pri_rank(string):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final_rank(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询代表队成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResultByTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_rank(string):代表队名次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名ddt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,95 +582,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,22 +952,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="25.33203125" style="19" customWidth="1"/>
-    <col min="5" max="6" width="34" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="31" style="19" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31" style="11" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" style="11" customWidth="1"/>
     <col min="10" max="10" width="23" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="3"/>
@@ -871,168 +996,173 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="G3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="20"/>
+      <c r="G4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="11"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="22"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="27"/>
-      <c r="J12" s="3"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1063,626 +1193,1129 @@
       <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7" t="s">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="G25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="4"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="13"/>
+      <c r="G36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="13"/>
+      <c r="G37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="G49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="G50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="5"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="6"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="6"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="29"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="K58" s="35"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="K59" s="35"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="6"/>
+      <c r="K60" s="35"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="K61" s="35"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="K62" s="35"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="6"/>
+      <c r="K63" s="35"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="K64" s="35"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="K65" s="35"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="K68" s="35"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="5"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="6"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="6"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:32" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="E80" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="7" t="s">
+      <c r="H82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="6" t="s">
+      <c r="E86" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="30"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>25</v>
+      <c r="G86" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D23:D45"/>
-    <mergeCell ref="C23:C45"/>
-    <mergeCell ref="A23:A45"/>
-    <mergeCell ref="B23:B45"/>
+  <mergeCells count="49">
+    <mergeCell ref="H40:H47"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="K58:K68"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="K23:K33"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D56:D78"/>
+    <mergeCell ref="C58:C80"/>
+    <mergeCell ref="A58:A80"/>
+    <mergeCell ref="B58:B80"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E69B6-E135-415D-BA83-F8A69F1B6703}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349B4D0B-6E2D-4E0F-B2FC-29124983D336}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="696" windowWidth="17280" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -621,6 +622,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,15 +655,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,17 +667,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,16 +997,16 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1019,10 +1020,10 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1034,15 +1035,15 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1051,39 +1052,39 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="10"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1101,14 +1102,14 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1120,16 +1121,16 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1137,14 +1138,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1154,15 +1155,15 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="18"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1193,14 +1194,14 @@
       <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1212,13 +1213,13 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1226,13 +1227,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1240,10 +1241,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13"/>
@@ -1255,13 +1256,13 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1275,19 +1276,19 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="38" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="36" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1296,86 +1297,86 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="34"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="34"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="38" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="34"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="34"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
@@ -1384,9 +1385,9 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="G25" s="4" t="s">
         <v>75</v>
       </c>
@@ -1395,7 +1396,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="13"/>
@@ -1407,13 +1408,13 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1427,19 +1428,19 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="36" t="s">
         <v>74</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -1448,97 +1449,97 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="38" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="34"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="4"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="34"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="34"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="34"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13"/>
       <c r="G36" s="4" t="s">
         <v>76</v>
@@ -1548,9 +1549,9 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="13"/>
       <c r="G37" s="4" t="s">
         <v>75</v>
@@ -1560,7 +1561,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
@@ -1572,13 +1573,13 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -1592,19 +1593,19 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="36" t="s">
         <v>74</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -1613,97 +1614,97 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="38" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="1" t="s">
         <v>89</v>
       </c>
@@ -1711,9 +1712,9 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
       <c r="G49" s="4" t="s">
         <v>76</v>
       </c>
@@ -1722,9 +1723,9 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="G50" s="4" t="s">
         <v>75</v>
       </c>
@@ -1733,7 +1734,7 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="2"/>
       <c r="C51" s="17"/>
       <c r="D51" s="13"/>
@@ -1745,12 +1746,10 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="2"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -1762,7 +1761,7 @@
       <c r="A53" s="19"/>
       <c r="B53" s="3"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="29"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1770,58 +1769,58 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="34" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="30"/>
+      <c r="D54" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="K54" s="35"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="29"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="9"/>
       <c r="I55" s="6"/>
-      <c r="K55" s="35"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="A56" s="35"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="30"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
-      <c r="K56" s="35"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="29"/>
+      <c r="D57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="J57" s="3"/>
@@ -1849,14 +1848,16 @@
       <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22" t="s">
+      <c r="B58" s="27"/>
+      <c r="C58" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="29"/>
+      <c r="D58" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="E58" s="6" t="s">
         <v>30</v>
       </c>
@@ -1868,13 +1869,13 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="K58" s="35"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
         <v>36</v>
@@ -1884,13 +1885,13 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="K59" s="35"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
         <v>37</v>
@@ -1902,13 +1903,13 @@
         <v>27</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="K60" s="35"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="29"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="6" t="s">
         <v>31</v>
       </c>
@@ -1918,13 +1919,13 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="K61" s="35"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="29"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="3"/>
       <c r="F62" s="6" t="s">
         <v>36</v>
@@ -1932,13 +1933,13 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="K62" s="35"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="29"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="3"/>
       <c r="F63" s="6" t="s">
         <v>37</v>
@@ -1946,13 +1947,13 @@
       <c r="G63" s="3"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
-      <c r="K63" s="35"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="29"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="6" t="s">
         <v>32</v>
       </c>
@@ -1962,13 +1963,13 @@
       <c r="G64" s="3"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="K64" s="35"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="29"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
         <v>36</v>
@@ -1976,13 +1977,13 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="K65" s="35"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="29"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
         <v>37</v>
@@ -1990,13 +1991,13 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="K66" s="35"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="29"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
         <v>38</v>
@@ -2004,13 +2005,13 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="K67" s="35"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="29"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="6" t="s">
         <v>33</v>
       </c>
@@ -2020,13 +2021,13 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="K68" s="35"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="29"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
         <v>36</v>
@@ -2036,10 +2037,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="29"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
         <v>37</v>
@@ -2049,10 +2050,10 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="29"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="6" t="s">
         <v>34</v>
       </c>
@@ -2064,10 +2065,10 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="29"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>36</v>
@@ -2077,10 +2078,10 @@
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="29"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>41</v>
@@ -2090,10 +2091,10 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="29"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
         <v>38</v>
@@ -2103,10 +2104,10 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="29"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
         <v>42</v>
@@ -2116,10 +2117,10 @@
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="29"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
         <v>37</v>
@@ -2129,10 +2130,10 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="29"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
         <v>38</v>
@@ -2142,10 +2143,10 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="30"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
         <v>39</v>
@@ -2155,10 +2156,10 @@
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
         <v>40</v>
@@ -2168,12 +2169,10 @@
       <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A80" s="32"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="7" t="s">
         <v>25</v>
       </c>
@@ -2186,7 +2185,7 @@
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="23"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="18"/>
@@ -2194,14 +2193,16 @@
       <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22" t="s">
+      <c r="B82" s="27"/>
+      <c r="C82" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="24"/>
+      <c r="D82" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="E82" s="5" t="s">
         <v>48</v>
       </c>
@@ -2215,10 +2216,10 @@
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="18"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="6" t="s">
         <v>50</v>
       </c>
@@ -2228,12 +2229,10 @@
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="A84" s="32"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="7" t="s">
         <v>49</v>
       </c>
@@ -2246,6 +2245,7 @@
       <c r="A85" s="20"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="18"/>
@@ -2257,6 +2257,9 @@
       </c>
       <c r="C86" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>54</v>
@@ -2298,24 +2301,24 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D56:D78"/>
-    <mergeCell ref="C58:C80"/>
-    <mergeCell ref="A58:A80"/>
-    <mergeCell ref="B58:B80"/>
-    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D58:D80"/>
+    <mergeCell ref="C58:C80"/>
+    <mergeCell ref="A58:A80"/>
+    <mergeCell ref="B58:B80"/>
+    <mergeCell ref="D82:D84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349B4D0B-6E2D-4E0F-B2FC-29124983D336}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0185AAE5-60FC-440D-A0C1-415E0B83CA56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="696" windowWidth="17280" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -204,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安排赛程-前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>athleteList(object):运动员列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,6 +376,10 @@
   </si>
   <si>
     <t>报名ddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取运动员列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,6 +627,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -637,16 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,22 +666,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -997,7 +996,7 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -1006,7 +1005,7 @@
       <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1020,10 +1019,10 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1035,10 +1034,10 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1051,7 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="9"/>
@@ -1065,7 +1064,7 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="9"/>
@@ -1078,7 +1077,7 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="10"/>
@@ -1102,14 +1101,14 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>79</v>
+      <c r="A9" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1121,16 +1120,16 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="38"/>
+      <c r="J9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1138,14 +1137,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1155,15 +1154,15 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="18"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1194,18 +1193,18 @@
       <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>80</v>
+      <c r="A13" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="16" t="s">
@@ -1213,13 +1212,13 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="38"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1227,13 +1226,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="38"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1240,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -1256,140 +1255,140 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="C17" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="4" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="4" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="4" t="s">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="4" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="4" t="s">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="4" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="G25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1408,153 +1407,153 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="C27" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="4"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="4"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="4" t="s">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="4" t="s">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="13"/>
       <c r="G36" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="13"/>
       <c r="G37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1573,161 +1572,161 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>83</v>
+      <c r="C39" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="4" t="s">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="4" t="s">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="G49" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="G50" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -1769,52 +1768,52 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="K54" s="38"/>
+      <c r="K54" s="30"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="9"/>
       <c r="I55" s="6"/>
-      <c r="K55" s="38"/>
+      <c r="K55" s="30"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="29"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="26"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="26"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
-      <c r="K56" s="38"/>
+      <c r="K56" s="30"/>
     </row>
     <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
@@ -1848,14 +1847,14 @@
       <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>90</v>
+      <c r="A58" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -1869,13 +1868,13 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="K58" s="38"/>
+      <c r="K58" s="30"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="25"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
         <v>36</v>
@@ -1885,13 +1884,13 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="K59" s="38"/>
+      <c r="K59" s="30"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="25"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
         <v>37</v>
@@ -1903,13 +1902,13 @@
         <v>27</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="K60" s="38"/>
+      <c r="K60" s="30"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="25"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="6" t="s">
         <v>31</v>
       </c>
@@ -1919,13 +1918,13 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="K61" s="38"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="25"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="3"/>
       <c r="F62" s="6" t="s">
         <v>36</v>
@@ -1933,13 +1932,13 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="K62" s="38"/>
+      <c r="K62" s="30"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="25"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="3"/>
       <c r="F63" s="6" t="s">
         <v>37</v>
@@ -1947,13 +1946,13 @@
       <c r="G63" s="3"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
-      <c r="K63" s="38"/>
+      <c r="K63" s="30"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="25"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="6" t="s">
         <v>32</v>
       </c>
@@ -1963,13 +1962,13 @@
       <c r="G64" s="3"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="K64" s="38"/>
+      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="25"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
         <v>36</v>
@@ -1977,13 +1976,13 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="K65" s="38"/>
+      <c r="K65" s="30"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="25"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
         <v>37</v>
@@ -1991,13 +1990,13 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="K66" s="38"/>
+      <c r="K66" s="30"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="25"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
         <v>38</v>
@@ -2005,13 +2004,13 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="K67" s="38"/>
+      <c r="K67" s="30"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="25"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="6" t="s">
         <v>33</v>
       </c>
@@ -2021,13 +2020,13 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="K68" s="38"/>
+      <c r="K68" s="30"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="25"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
         <v>36</v>
@@ -2037,10 +2036,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="25"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
         <v>37</v>
@@ -2050,10 +2049,10 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="25"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="6" t="s">
         <v>34</v>
       </c>
@@ -2065,10 +2064,10 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
-      <c r="D72" s="25"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>36</v>
@@ -2078,10 +2077,10 @@
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="25"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>41</v>
@@ -2091,10 +2090,10 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="25"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
         <v>38</v>
@@ -2104,10 +2103,10 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="25"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
         <v>42</v>
@@ -2117,10 +2116,10 @@
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="25"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
         <v>37</v>
@@ -2130,10 +2129,10 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="25"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
         <v>38</v>
@@ -2143,10 +2142,10 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="25"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
         <v>39</v>
@@ -2156,10 +2155,10 @@
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="25"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
         <v>40</v>
@@ -2169,10 +2168,10 @@
       <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="26"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="7" t="s">
         <v>25</v>
       </c>
@@ -2193,35 +2192,35 @@
       <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
-        <v>46</v>
+      <c r="A82" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="12"/>
@@ -2229,12 +2228,12 @@
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="10"/>
@@ -2253,16 +2252,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>21</v>
@@ -2270,16 +2269,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H40:H47"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="C39:C50"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="D58:D80"/>
+    <mergeCell ref="C58:C80"/>
+    <mergeCell ref="A58:A80"/>
+    <mergeCell ref="B58:B80"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="K58:K68"/>
     <mergeCell ref="K9:K11"/>
@@ -2296,29 +2308,16 @@
     <mergeCell ref="H18:H23"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D58:D80"/>
-    <mergeCell ref="C58:C80"/>
-    <mergeCell ref="A58:A80"/>
-    <mergeCell ref="B58:B80"/>
-    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="H40:H47"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C39:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0185AAE5-60FC-440D-A0C1-415E0B83CA56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE30F3-1C29-4BD0-910D-BAF81AFDA35E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +415,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -556,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,49 +642,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:A84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,16 +1029,16 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1019,10 +1052,10 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1034,10 +1067,10 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1051,8 +1084,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="28"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
@@ -1064,8 +1097,8 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="28"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
@@ -1077,8 +1110,8 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="29"/>
       <c r="D7" s="10"/>
       <c r="E7" s="7"/>
@@ -1101,14 +1134,14 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1120,16 +1153,16 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1137,14 +1170,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1154,15 +1187,15 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="18"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1193,14 +1226,14 @@
       <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1212,13 +1245,13 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1226,13 +1259,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1240,7 +1273,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -1255,13 +1288,13 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="36" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1275,19 +1308,19 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="36" t="s">
         <v>73</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1296,86 +1329,86 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="26" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="G24" s="4" t="s">
         <v>75</v>
       </c>
@@ -1384,9 +1417,9 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="G25" s="4" t="s">
         <v>74</v>
       </c>
@@ -1407,13 +1440,13 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="36" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1427,19 +1460,19 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="36" t="s">
         <v>73</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -1448,97 +1481,97 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="24"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="4"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="13"/>
       <c r="G36" s="4" t="s">
         <v>75</v>
@@ -1548,9 +1581,9 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="13"/>
       <c r="G37" s="4" t="s">
         <v>74</v>
@@ -1572,13 +1605,13 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -1592,19 +1625,19 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="36" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -1613,97 +1646,97 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="26" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="36"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="1" t="s">
         <v>88</v>
       </c>
@@ -1711,9 +1744,9 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="36"/>
       <c r="G49" s="4" t="s">
         <v>75</v>
       </c>
@@ -1722,9 +1755,9 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="36"/>
       <c r="G50" s="4" t="s">
         <v>74</v>
       </c>
@@ -1768,52 +1801,52 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="31" t="s">
+      <c r="G54" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="K54" s="30"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="32"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="9"/>
       <c r="I55" s="6"/>
-      <c r="K55" s="30"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="29"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
-      <c r="K56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
@@ -1847,14 +1880,14 @@
       <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -1868,13 +1901,13 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="K58" s="30"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="32"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
         <v>36</v>
@@ -1884,13 +1917,13 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="K59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="32"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
         <v>37</v>
@@ -1902,13 +1935,13 @@
         <v>27</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="K60" s="30"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="32"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="6" t="s">
         <v>31</v>
       </c>
@@ -1918,13 +1951,13 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="32"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="3"/>
       <c r="F62" s="6" t="s">
         <v>36</v>
@@ -1932,13 +1965,13 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="32"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="3"/>
       <c r="F63" s="6" t="s">
         <v>37</v>
@@ -1946,13 +1979,13 @@
       <c r="G63" s="3"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
-      <c r="K63" s="30"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="32"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="6" t="s">
         <v>32</v>
       </c>
@@ -1962,13 +1995,13 @@
       <c r="G64" s="3"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="K64" s="30"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="32"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
         <v>36</v>
@@ -1976,13 +2009,13 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="K65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="32"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
         <v>37</v>
@@ -1990,13 +2023,13 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="K66" s="30"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="32"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
         <v>38</v>
@@ -2004,13 +2037,13 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="K67" s="30"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="32"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="6" t="s">
         <v>33</v>
       </c>
@@ -2020,13 +2053,13 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="K68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="32"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
         <v>36</v>
@@ -2036,10 +2069,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="32"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
         <v>37</v>
@@ -2049,10 +2082,10 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="32"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="6" t="s">
         <v>34</v>
       </c>
@@ -2064,10 +2097,10 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
-      <c r="D72" s="32"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>36</v>
@@ -2077,10 +2110,10 @@
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="32"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>41</v>
@@ -2090,10 +2123,10 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="32"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
         <v>38</v>
@@ -2103,10 +2136,10 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="32"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
         <v>42</v>
@@ -2116,10 +2149,10 @@
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="32"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
         <v>37</v>
@@ -2129,10 +2162,10 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="32"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
         <v>38</v>
@@ -2142,10 +2175,10 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="32"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
         <v>39</v>
@@ -2155,10 +2188,10 @@
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="32"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
         <v>40</v>
@@ -2168,10 +2201,10 @@
       <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="33"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="7" t="s">
         <v>25</v>
       </c>
@@ -2192,7 +2225,7 @@
       <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B82" s="27"/>
@@ -2215,7 +2248,7 @@
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -2228,7 +2261,7 @@
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
@@ -2269,29 +2302,16 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D58:D80"/>
-    <mergeCell ref="C58:C80"/>
-    <mergeCell ref="A58:A80"/>
-    <mergeCell ref="B58:B80"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="H40:H47"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="C27:C37"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="K58:K68"/>
     <mergeCell ref="K9:K11"/>
@@ -2308,16 +2328,29 @@
     <mergeCell ref="H18:H23"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C37"/>
-    <mergeCell ref="H40:H47"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D58:D80"/>
+    <mergeCell ref="C58:C80"/>
+    <mergeCell ref="A58:A80"/>
+    <mergeCell ref="B58:B80"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE30F3-1C29-4BD0-910D-BAF81AFDA35E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED6F077-5207-4101-8C60-6F3476E09507}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,26 @@
   </si>
   <si>
     <t>获取运动员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -567,11 +587,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,10 +676,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,59 +712,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL86"/>
+  <dimension ref="A1:AL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1029,16 +1078,16 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1052,10 +1101,10 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1067,10 +1116,10 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1084,8 +1133,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="28"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
@@ -1097,8 +1146,8 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="28"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
@@ -1110,8 +1159,8 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="29"/>
       <c r="D7" s="10"/>
       <c r="E7" s="7"/>
@@ -1134,14 +1183,14 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1153,16 +1202,16 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1170,14 +1219,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1187,15 +1236,15 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="18"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1226,14 +1275,14 @@
       <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1245,13 +1294,13 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="38"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1259,13 +1308,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="38"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1273,10 +1322,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13"/>
@@ -1291,10 +1340,10 @@
       <c r="A17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1309,18 +1358,18 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="23" t="s">
         <v>73</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1330,14 +1379,14 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4" t="s">
         <v>68</v>
       </c>
@@ -1345,14 +1394,14 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="4" t="s">
         <v>69</v>
       </c>
@@ -1360,14 +1409,14 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1375,16 +1424,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="4" t="s">
         <v>71</v>
       </c>
@@ -1392,14 +1441,14 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="4" t="s">
         <v>72</v>
       </c>
@@ -1407,8 +1456,8 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="G24" s="4" t="s">
         <v>75</v>
       </c>
@@ -1418,8 +1467,8 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="G25" s="4" t="s">
         <v>74</v>
       </c>
@@ -1428,7 +1477,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="13"/>
@@ -1440,13 +1489,13 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1460,19 +1509,19 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="23" t="s">
         <v>73</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -1481,97 +1530,97 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="36"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="23"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="23"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="36"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="23"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="13"/>
       <c r="G36" s="4" t="s">
         <v>75</v>
@@ -1581,9 +1630,9 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="13"/>
       <c r="G37" s="4" t="s">
         <v>74</v>
@@ -1593,7 +1642,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
@@ -1605,13 +1654,13 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -1625,19 +1674,19 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="23" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -1646,97 +1695,97 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="23"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="1" t="s">
         <v>88</v>
       </c>
@@ -1744,9 +1793,9 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="23"/>
       <c r="G49" s="4" t="s">
         <v>75</v>
       </c>
@@ -1755,9 +1804,9 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="23"/>
       <c r="G50" s="4" t="s">
         <v>74</v>
       </c>
@@ -1766,9 +1815,9 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="13"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1779,8 +1828,8 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="13"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1791,7 +1840,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="17"/>
       <c r="D53" s="13"/>
       <c r="E53" s="3"/>
@@ -1803,50 +1852,50 @@
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="K54" s="38"/>
+      <c r="K54" s="30"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="9"/>
       <c r="I55" s="6"/>
-      <c r="K55" s="38"/>
+      <c r="K55" s="30"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="29"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="26"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="26"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
-      <c r="K56" s="38"/>
+      <c r="K56" s="30"/>
     </row>
     <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
@@ -1880,14 +1929,14 @@
       <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -1901,13 +1950,13 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="K58" s="38"/>
+      <c r="K58" s="30"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="25"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
         <v>36</v>
@@ -1917,13 +1966,13 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="K59" s="38"/>
+      <c r="K59" s="30"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="25"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
         <v>37</v>
@@ -1935,13 +1984,13 @@
         <v>27</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="K60" s="38"/>
+      <c r="K60" s="30"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="25"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="6" t="s">
         <v>31</v>
       </c>
@@ -1951,13 +2000,13 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="K61" s="38"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="25"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="3"/>
       <c r="F62" s="6" t="s">
         <v>36</v>
@@ -1965,13 +2014,13 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="K62" s="38"/>
+      <c r="K62" s="30"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="25"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="3"/>
       <c r="F63" s="6" t="s">
         <v>37</v>
@@ -1979,13 +2028,13 @@
       <c r="G63" s="3"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
-      <c r="K63" s="38"/>
+      <c r="K63" s="30"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="25"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="6" t="s">
         <v>32</v>
       </c>
@@ -1995,13 +2044,13 @@
       <c r="G64" s="3"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="K64" s="38"/>
+      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="25"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
         <v>36</v>
@@ -2009,13 +2058,13 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="K65" s="38"/>
+      <c r="K65" s="30"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="25"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
         <v>37</v>
@@ -2023,13 +2072,13 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="K66" s="38"/>
+      <c r="K66" s="30"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="25"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
         <v>38</v>
@@ -2037,13 +2086,13 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="K67" s="38"/>
+      <c r="K67" s="30"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="25"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="6" t="s">
         <v>33</v>
       </c>
@@ -2053,13 +2102,13 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="K68" s="38"/>
+      <c r="K68" s="30"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="25"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
         <v>36</v>
@@ -2069,10 +2118,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="25"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
         <v>37</v>
@@ -2082,10 +2131,10 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
-      <c r="D71" s="25"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="6" t="s">
         <v>34</v>
       </c>
@@ -2097,10 +2146,10 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
-      <c r="D72" s="25"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>36</v>
@@ -2110,10 +2159,10 @@
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="25"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>41</v>
@@ -2123,10 +2172,10 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="25"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
         <v>38</v>
@@ -2136,10 +2185,10 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="25"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
         <v>42</v>
@@ -2149,10 +2198,10 @@
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="25"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
         <v>37</v>
@@ -2162,10 +2211,10 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="25"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
         <v>38</v>
@@ -2175,10 +2224,10 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="25"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
         <v>39</v>
@@ -2188,10 +2237,10 @@
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
-      <c r="D79" s="25"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
         <v>40</v>
@@ -2201,10 +2250,10 @@
       <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="26"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="7" t="s">
         <v>25</v>
       </c>
@@ -2225,7 +2274,7 @@
       <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B82" s="27"/>
@@ -2248,7 +2297,7 @@
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -2261,7 +2310,7 @@
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
@@ -2300,18 +2349,52 @@
         <v>21</v>
       </c>
     </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E89" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E90" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H40:H47"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="C39:C50"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D58:D80"/>
+    <mergeCell ref="C58:C80"/>
+    <mergeCell ref="A58:A80"/>
+    <mergeCell ref="B58:B80"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="K58:K68"/>
     <mergeCell ref="K9:K11"/>
@@ -2328,29 +2411,16 @@
     <mergeCell ref="H18:H23"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D58:D80"/>
-    <mergeCell ref="C58:C80"/>
-    <mergeCell ref="A58:A80"/>
-    <mergeCell ref="B58:B80"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="H40:H47"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C39:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC494BA-53C6-4FBC-8BCB-172339C0DE6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFAA83-4A9D-4B32-B6C6-F9EBD0294890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安排赛程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更改密码ddt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +404,96 @@
   </si>
   <si>
     <t>ath_id(string):运动员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排赛程ddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组裁判获取评分人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组总裁判获取评分人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁判长获取评分结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetScore1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqParam(object):请求参数</t>
+  </si>
+  <si>
+    <t>ath_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetScore2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(object):返回数据</t>
+  </si>
+  <si>
+    <t>score(double):分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referee(string):评分裁判姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scores（list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetScore3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scores(list):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigReferee(string):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(double)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,16 +861,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -796,16 +894,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,64 +960,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM102"/>
+  <dimension ref="A1:AM123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="D93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1168,10 +1257,10 @@
     <col min="4" max="4" width="25.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="51.109375" style="4" customWidth="1"/>
     <col min="6" max="7" width="34" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" style="11" customWidth="1"/>
     <col min="9" max="9" width="31" style="11" customWidth="1"/>
     <col min="10" max="10" width="31.21875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="23" style="3" customWidth="1"/>
+    <col min="11" max="11" width="30.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -1199,16 +1288,16 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1223,10 +1312,10 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1239,16 +1328,16 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="53" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -1257,44 +1346,44 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="42"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="53"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="43"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="43"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="44"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1314,15 +1403,15 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1332,10 +1421,10 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="46" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1348,16 +1437,16 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
@@ -1366,14 +1455,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1384,8 +1473,8 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
@@ -1398,19 +1487,19 @@
       <c r="H13" s="34"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="52"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1420,7 +1509,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="52"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1451,75 +1540,75 @@
       <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="50" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="53" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="52"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="50"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="43"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="50" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1545,13 +1634,13 @@
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="60" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1565,19 +1654,19 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="50" t="s">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="59" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="60" t="s">
         <v>66</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -1586,86 +1675,86 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="50"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="45"/>
+        <v>85</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="50" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="59" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="45"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="45"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="60"/>
       <c r="H28" s="4" t="s">
         <v>68</v>
       </c>
@@ -1674,9 +1763,9 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="60"/>
       <c r="H29" s="4" t="s">
         <v>67</v>
       </c>
@@ -1698,13 +1787,13 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -1718,19 +1807,19 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="60" t="s">
         <v>66</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -1739,97 +1828,97 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="50" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="59" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="45"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
       <c r="J33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="50"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="45"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="45"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="45"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="45"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="60"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="45"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="45"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="60"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
       <c r="J37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="45"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="45"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="60"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
       <c r="J38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="45"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="45"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="60"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="13"/>
       <c r="H40" s="4" t="s">
         <v>68</v>
@@ -1839,9 +1928,9 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="13"/>
       <c r="H41" s="4" t="s">
         <v>67</v>
@@ -1864,13 +1953,13 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -1884,19 +1973,19 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="45" t="s">
+      <c r="H44" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="60" t="s">
         <v>66</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -1905,97 +1994,97 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="50" t="s">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="59" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
       <c r="J45" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="50"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
       <c r="J46" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
       <c r="J47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
       <c r="J48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
       <c r="J49" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
       <c r="J50" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
       <c r="J51" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="45"/>
-      <c r="H52" s="45"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="60"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="1" t="s">
         <v>81</v>
       </c>
@@ -2003,9 +2092,9 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="60"/>
       <c r="H53" s="4" t="s">
         <v>68</v>
       </c>
@@ -2014,9 +2103,9 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="60"/>
       <c r="H54" s="4" t="s">
         <v>67</v>
       </c>
@@ -2063,43 +2152,43 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="46"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="46"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="12"/>
       <c r="J58" s="5"/>
-      <c r="L58" s="52"/>
+      <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="47"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="9"/>
       <c r="J59" s="6"/>
-      <c r="L59" s="52"/>
+      <c r="L59" s="58"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="48"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="48"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="9"/>
       <c r="J60" s="6"/>
-      <c r="L60" s="52"/>
+      <c r="L60" s="58"/>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
@@ -2133,17 +2222,17 @@
       <c r="AG61" s="3"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45" t="s">
+      <c r="B62" s="60"/>
+      <c r="C62" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="53" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2154,14 +2243,14 @@
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="52"/>
+      <c r="L62" s="58"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="54"/>
       <c r="F63" s="4" t="s">
         <v>32</v>
       </c>
@@ -2170,14 +2259,14 @@
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="6"/>
-      <c r="L63" s="52"/>
+      <c r="L63" s="58"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="44"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="55"/>
       <c r="F64" s="4" t="s">
         <v>33</v>
       </c>
@@ -2188,14 +2277,14 @@
         <v>24</v>
       </c>
       <c r="J64" s="6"/>
-      <c r="L64" s="52"/>
+      <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="42" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="53" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -2204,42 +2293,42 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="52"/>
+      <c r="L65" s="58"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="43"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="6"/>
-      <c r="L66" s="52"/>
+      <c r="L66" s="58"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="44"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="29"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="52"/>
+      <c r="L67" s="58"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="42" t="s">
+      <c r="A68" s="61"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2248,56 +2337,56 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="52"/>
+      <c r="L68" s="58"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="43"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="52"/>
+      <c r="L69" s="58"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="43"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="54"/>
       <c r="F70" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="52"/>
+      <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="44"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="52"/>
+      <c r="L71" s="58"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="42" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="53" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2306,14 +2395,14 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="52"/>
+      <c r="L72" s="58"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="43"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="54"/>
       <c r="F73" s="4" t="s">
         <v>32</v>
       </c>
@@ -2322,11 +2411,11 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="43"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="54"/>
       <c r="F74" s="4" t="s">
         <v>37</v>
       </c>
@@ -2335,11 +2424,11 @@
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="43"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="54"/>
       <c r="F75" s="4" t="s">
         <v>34</v>
       </c>
@@ -2348,11 +2437,11 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="43"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="54"/>
       <c r="F76" s="4" t="s">
         <v>38</v>
       </c>
@@ -2361,11 +2450,11 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="43"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="54"/>
       <c r="F77" s="4" t="s">
         <v>33</v>
       </c>
@@ -2374,11 +2463,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="43"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="54"/>
       <c r="F78" s="29"/>
       <c r="G78" s="39"/>
       <c r="H78" s="29"/>
@@ -2388,11 +2477,11 @@
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="43"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="54"/>
       <c r="F79" s="4" t="s">
         <v>35</v>
       </c>
@@ -2401,11 +2490,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="44"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="55"/>
       <c r="F80" s="4" t="s">
         <v>36</v>
       </c>
@@ -2450,14 +2539,14 @@
       <c r="J83" s="17"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42" t="s">
+      <c r="A84" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -2474,10 +2563,10 @@
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
       <c r="E85" s="6" t="s">
         <v>45</v>
       </c>
@@ -2487,10 +2576,10 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="7" t="s">
         <v>44</v>
       </c>
@@ -2522,14 +2611,14 @@
       <c r="L88" s="30"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69" t="s">
+      <c r="A89" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="66" t="s">
+      <c r="D89" s="70" t="s">
         <v>47</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -2542,10 +2631,10 @@
       <c r="L89" s="30"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="67"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="71"/>
       <c r="E90" s="4" t="s">
         <v>55</v>
       </c>
@@ -2556,10 +2645,10 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="67"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="71"/>
       <c r="E91" s="4" t="s">
         <v>56</v>
       </c>
@@ -2570,15 +2659,15 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="46" t="s">
-        <v>96</v>
+      <c r="A92" s="75"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="17"/>
@@ -2587,16 +2676,16 @@
       <c r="L92" s="37"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="47"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="20"/>
@@ -2604,13 +2693,13 @@
       <c r="L93" s="37"/>
     </row>
     <row r="94" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="48"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="52"/>
       <c r="F94" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="4" t="s">
@@ -2618,78 +2707,369 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="72"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="68"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="72"/>
       <c r="E95" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="73"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
-      <c r="D96" s="74"/>
+      <c r="D96" s="46"/>
       <c r="H96" s="39"/>
       <c r="I96" s="39"/>
       <c r="J96" s="39"/>
       <c r="L96" s="37"/>
     </row>
-    <row r="97" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42" t="s">
+    <row r="97" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="75"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="53"/>
+      <c r="H104" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="I112" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L113" s="44"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="42"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="L114" s="44"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="42"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="L115" s="44"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="L116" s="44"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="42"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="L117" s="44"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J119" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="51"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="D2:D4"/>
+  <mergeCells count="89">
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="I104:I110"/>
+    <mergeCell ref="H104:H110"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="C104:C110"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E72:E80"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C62:C80"/>
+    <mergeCell ref="B62:B80"/>
+    <mergeCell ref="A62:A80"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="L62:L72"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="K10:K17"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H32:H39"/>
+    <mergeCell ref="I32:I39"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="C43:C54"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D97:D99"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="B97:B99"/>
@@ -2706,42 +3086,22 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="D89:D95"/>
     <mergeCell ref="C89:C95"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="C43:C54"/>
-    <mergeCell ref="L62:L72"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="L58:L60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="K10:K17"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H32:H39"/>
-    <mergeCell ref="I32:I39"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="A21:A29"/>
-    <mergeCell ref="D45:D46"/>
     <mergeCell ref="D62:D80"/>
-    <mergeCell ref="C62:C80"/>
-    <mergeCell ref="B62:B80"/>
-    <mergeCell ref="A62:A80"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="E72:E80"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFAA83-4A9D-4B32-B6C6-F9EBD0294890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F61165E-A5F4-49E0-9036-92A9CE18E633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,9 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resData(object):返回数据</t>
-  </si>
-  <si>
     <t>score(double):分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scores（list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetScore3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bigReferee(string):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sex(string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,6 +483,22 @@
   </si>
   <si>
     <t>D(double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigReferee(string):小组总裁判姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scores(list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(list):返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(list):返回数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,6 +881,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,7 +953,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,13 +986,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM123"/>
+  <dimension ref="A1:AM134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="F57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1294,7 @@
     <col min="6" max="7" width="34" style="4" customWidth="1"/>
     <col min="8" max="8" width="27.21875" style="11" customWidth="1"/>
     <col min="9" max="9" width="31" style="11" customWidth="1"/>
-    <col min="10" max="10" width="31.21875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="33.5546875" style="11" customWidth="1"/>
     <col min="11" max="11" width="30.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="3"/>
@@ -1288,16 +1323,16 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1312,10 +1347,10 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1328,16 +1363,16 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="62" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -1346,44 +1381,44 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="53" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="54"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="55"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1403,11 +1438,11 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1421,10 +1456,10 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="50" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1437,16 +1472,16 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
@@ -1455,14 +1490,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="51"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1473,8 +1508,8 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
@@ -1487,15 +1522,15 @@
       <c r="H13" s="34"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -1509,7 +1544,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="58"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1540,75 +1575,75 @@
       <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="59" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="68" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="62" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="58"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="58"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="58"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="55"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1634,13 +1669,13 @@
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="69" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1654,19 +1689,19 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="59" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="69" t="s">
         <v>66</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -1675,86 +1710,86 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="59"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
       <c r="J25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="59" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="68" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
       <c r="J26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="59"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="69"/>
       <c r="H28" s="4" t="s">
         <v>68</v>
       </c>
@@ -1763,9 +1798,9 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="60"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="69"/>
       <c r="H29" s="4" t="s">
         <v>67</v>
       </c>
@@ -1787,13 +1822,13 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="69" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -1807,19 +1842,19 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="69" t="s">
         <v>66</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -1828,97 +1863,97 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="59" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="68" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="60"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="60"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="69"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="60"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="69"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="60"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="69"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="60"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="69"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
       <c r="J39" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="60"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="13"/>
       <c r="H40" s="4" t="s">
         <v>68</v>
@@ -1928,9 +1963,9 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="13"/>
       <c r="H41" s="4" t="s">
         <v>67</v>
@@ -1953,13 +1988,13 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="69" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -1973,19 +2008,19 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="60"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="60" t="s">
+      <c r="H44" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="69" t="s">
         <v>66</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -1994,97 +2029,97 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="59" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="68" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
       <c r="J45" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="59"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
       <c r="J49" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
       <c r="J51" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="60"/>
-      <c r="H52" s="60"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="69"/>
+      <c r="H52" s="69"/>
       <c r="I52" s="1" t="s">
         <v>81</v>
       </c>
@@ -2092,9 +2127,9 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="60"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="69"/>
       <c r="H53" s="4" t="s">
         <v>68</v>
       </c>
@@ -2103,9 +2138,9 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="60"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="69"/>
       <c r="H54" s="4" t="s">
         <v>67</v>
       </c>
@@ -2152,43 +2187,43 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="50"/>
+      <c r="H58" s="59"/>
       <c r="I58" s="12"/>
       <c r="J58" s="5"/>
-      <c r="L58" s="58"/>
+      <c r="L58" s="67"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="51"/>
+      <c r="H59" s="60"/>
       <c r="I59" s="9"/>
       <c r="J59" s="6"/>
-      <c r="L59" s="58"/>
+      <c r="L59" s="67"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="52"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="52"/>
+      <c r="H60" s="61"/>
       <c r="I60" s="9"/>
       <c r="J60" s="6"/>
-      <c r="L60" s="58"/>
+      <c r="L60" s="67"/>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
@@ -2222,17 +2257,17 @@
       <c r="AG61" s="3"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60" t="s">
+      <c r="B62" s="69"/>
+      <c r="C62" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="62" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -2243,14 +2278,14 @@
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="58"/>
+      <c r="L62" s="67"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="54"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="4" t="s">
         <v>32</v>
       </c>
@@ -2259,14 +2294,14 @@
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="6"/>
-      <c r="L63" s="58"/>
+      <c r="L63" s="67"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="55"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="64"/>
       <c r="F64" s="4" t="s">
         <v>33</v>
       </c>
@@ -2277,14 +2312,14 @@
         <v>24</v>
       </c>
       <c r="J64" s="6"/>
-      <c r="L64" s="58"/>
+      <c r="L64" s="67"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="53" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="62" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -2293,42 +2328,42 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="58"/>
+      <c r="L65" s="67"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="54"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="6"/>
-      <c r="L66" s="58"/>
+      <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="64"/>
       <c r="F67" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="29"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="58"/>
+      <c r="L67" s="67"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="53" t="s">
+      <c r="A68" s="70"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="62" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2337,56 +2372,56 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="58"/>
+      <c r="L68" s="67"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="54"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="63"/>
       <c r="F69" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="58"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="54"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="58"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="55"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="64"/>
       <c r="F71" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="58"/>
+      <c r="L71" s="67"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="53" t="s">
+      <c r="A72" s="70"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="62" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2395,14 +2430,14 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="58"/>
+      <c r="L72" s="67"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="54"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="63"/>
       <c r="F73" s="4" t="s">
         <v>32</v>
       </c>
@@ -2411,11 +2446,11 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="54"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="63"/>
       <c r="F74" s="4" t="s">
         <v>37</v>
       </c>
@@ -2424,11 +2459,11 @@
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="54"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="63"/>
       <c r="F75" s="4" t="s">
         <v>34</v>
       </c>
@@ -2437,11 +2472,11 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="54"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="63"/>
       <c r="F76" s="4" t="s">
         <v>38</v>
       </c>
@@ -2450,11 +2485,11 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="54"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="63"/>
       <c r="F77" s="4" t="s">
         <v>33</v>
       </c>
@@ -2463,11 +2498,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="54"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="63"/>
       <c r="F78" s="29"/>
       <c r="G78" s="39"/>
       <c r="H78" s="29"/>
@@ -2477,11 +2512,11 @@
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="54"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="4" t="s">
         <v>35</v>
       </c>
@@ -2490,11 +2525,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="55"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="64"/>
       <c r="F80" s="4" t="s">
         <v>36</v>
       </c>
@@ -2539,14 +2574,14 @@
       <c r="J83" s="17"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53" t="s">
+      <c r="B84" s="62"/>
+      <c r="C84" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="53" t="s">
+      <c r="D84" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -2563,10 +2598,10 @@
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="6" t="s">
         <v>45</v>
       </c>
@@ -2576,10 +2611,10 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
       <c r="E86" s="7" t="s">
         <v>44</v>
       </c>
@@ -2611,14 +2646,14 @@
       <c r="L88" s="30"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47" t="s">
+      <c r="B89" s="56"/>
+      <c r="C89" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="70" t="s">
+      <c r="D89" s="79" t="s">
         <v>47</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -2631,10 +2666,10 @@
       <c r="L89" s="30"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="75"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="71"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="80"/>
       <c r="E90" s="4" t="s">
         <v>55</v>
       </c>
@@ -2645,10 +2680,10 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="71"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="80"/>
       <c r="E91" s="4" t="s">
         <v>56</v>
       </c>
@@ -2659,11 +2694,11 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="75"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="50" t="s">
+      <c r="A92" s="55"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="59" t="s">
         <v>95</v>
       </c>
       <c r="F92" s="4" t="s">
@@ -2676,11 +2711,11 @@
       <c r="L92" s="37"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="51"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="4" t="s">
         <v>92</v>
       </c>
@@ -2693,11 +2728,11 @@
       <c r="L93" s="37"/>
     </row>
     <row r="94" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="52"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="61"/>
       <c r="F94" s="4" t="s">
         <v>93</v>
       </c>
@@ -2707,10 +2742,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="72"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="4" t="s">
         <v>94</v>
       </c>
@@ -2725,329 +2760,576 @@
       <c r="J96" s="39"/>
       <c r="L96" s="37"/>
     </row>
-    <row r="97" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62" t="s">
+    <row r="97" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53" t="s">
+      <c r="B97" s="62"/>
+      <c r="C97" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="53" t="s">
+      <c r="D97" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
       <c r="E98" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
       <c r="E99" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="53" t="s">
+    <row r="104" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D104" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="53"/>
-      <c r="H104" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="J104" s="11" t="s">
+      <c r="E104" s="62"/>
+      <c r="H104" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="11" t="s">
+      <c r="J104" s="3"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="51"/>
-      <c r="J106" s="11" t="s">
+      <c r="J105" s="3"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="63"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="11" t="s">
+      <c r="J106" s="3"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="63"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="51"/>
-      <c r="J108" s="11" t="s">
+      <c r="J107" s="3"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="63"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="51"/>
-      <c r="J109" s="11" t="s">
+      <c r="J108" s="3"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="51"/>
+      <c r="L111" s="50"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="50"/>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="63"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="63"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="63"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="63"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="63"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="63"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="63"/>
+      <c r="I119" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K120" s="44"/>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="42"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="L121" s="44"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="42"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="L122" s="44"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123" s="83"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="I123" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J123" s="3"/>
+      <c r="K123" s="44"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="63"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="63"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="84"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="80"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="44"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="63"/>
+      <c r="B125" s="63"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="80"/>
+      <c r="H125" s="63"/>
+      <c r="I125" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="63"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="84"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="63"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="84"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="63"/>
+      <c r="I127" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" s="50"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="63"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="80"/>
+      <c r="H128" s="63"/>
+      <c r="I128" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="50"/>
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="63"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="84"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="80"/>
+      <c r="H129" s="63"/>
+      <c r="I129" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J129" s="3"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="63"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="63"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="84"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="80"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K130" s="2"/>
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="63"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="84"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="80"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K131" s="2"/>
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="63"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="84"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="11" t="s">
+      <c r="J132" s="3"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="63"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="84"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="63"/>
+      <c r="I133" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J133" s="3"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="64"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="85"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="81"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="I112" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L113" s="44"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="L114" s="44"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-      <c r="L115" s="44"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="43"/>
-      <c r="L116" s="44"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-      <c r="L117" s="44"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C119" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H119" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I119" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="J119" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="51"/>
-      <c r="J121" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="J134" s="3"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="I104:I110"/>
+  <mergeCells count="88">
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="H123:H134"/>
+    <mergeCell ref="D123:D134"/>
+    <mergeCell ref="C123:C134"/>
+    <mergeCell ref="B123:B134"/>
+    <mergeCell ref="A123:A134"/>
+    <mergeCell ref="E123:G134"/>
+    <mergeCell ref="F112:F120"/>
+    <mergeCell ref="E112:E120"/>
+    <mergeCell ref="D112:D120"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="B112:B120"/>
     <mergeCell ref="H104:H110"/>
+    <mergeCell ref="H112:H120"/>
+    <mergeCell ref="G112:G120"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="C104:C110"/>
     <mergeCell ref="D104:D110"/>
     <mergeCell ref="E104:E110"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E71"/>
     <mergeCell ref="E72:E80"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="C62:C80"/>
-    <mergeCell ref="B62:B80"/>
-    <mergeCell ref="A62:A80"/>
     <mergeCell ref="A31:A41"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="C31:C41"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E67"/>
     <mergeCell ref="L62:L72"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="B58:B60"/>
@@ -3064,12 +3346,10 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="H32:H39"/>
     <mergeCell ref="I32:I39"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="C43:C54"/>
-    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="D62:D80"/>
     <mergeCell ref="D97:D99"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="B97:B99"/>
@@ -3082,14 +3362,6 @@
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="H15:H18"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
@@ -3098,10 +3370,23 @@
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="D62:D80"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="D89:D95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="C43:C54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B62:B80"/>
+    <mergeCell ref="A62:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F47D54-3B0C-42F0-8547-139AE19D446A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CDC43-C272-44E6-8B00-A20E2CD866C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,6 +547,14 @@
   </si>
   <si>
     <t>pass(bool):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入裁判ddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>athletes(list):</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,66 +973,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,13 +1054,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,32 +1084,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM148"/>
+  <dimension ref="A1:AM149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="F94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1396,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="60" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="53"/>
@@ -1435,16 +1446,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1459,10 +1470,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1475,16 +1486,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="67" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1493,44 +1504,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="56" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="57"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1550,11 +1561,11 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="91" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="74"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1568,10 +1579,10 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="74"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1590,10 +1601,10 @@
       <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="74"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1606,10 +1617,10 @@
       <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="70"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1638,11 +1649,11 @@
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1687,17 +1698,17 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="75" t="s">
+      <c r="A17" s="83"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="67" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1707,55 +1718,55 @@
       <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="75"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="57"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="75"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="57"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="75" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="75"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1781,13 +1792,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="75" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1801,19 +1812,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="75" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="75" t="s">
+      <c r="H24" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="75" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1822,86 +1833,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="75"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="71"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="75"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="71"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="75"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="71"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
       <c r="J27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="75" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="71"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="75"/>
       <c r="J28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="75"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="71"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="75"/>
       <c r="H30" s="4" t="s">
         <v>68</v>
       </c>
@@ -1910,9 +1921,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="71"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="75"/>
       <c r="H31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1934,13 +1945,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="75" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -1954,19 +1965,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="71"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="75" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -1975,97 +1986,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="75" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="71"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="75"/>
       <c r="J35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="75"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="71"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="75"/>
       <c r="J36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="71"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="71"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="71"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="71"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="75"/>
       <c r="J38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="71"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="71"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="71"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="71"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="75"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="71"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="71"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="75"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="75"/>
       <c r="J41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="71"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>68</v>
@@ -2075,9 +2086,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="71"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>67</v>
@@ -2100,13 +2111,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="75" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2120,19 +2131,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="71"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="71" t="s">
+      <c r="I46" s="75" t="s">
         <v>66</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2141,97 +2152,97 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="75" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="76" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
       <c r="J47" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="75"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
       <c r="J48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
       <c r="J49" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
       <c r="J52" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
       <c r="J53" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="71"/>
-      <c r="H54" s="71"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="75"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="1" t="s">
         <v>81</v>
       </c>
@@ -2239,9 +2250,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="71"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="75"/>
       <c r="H55" s="4" t="s">
         <v>68</v>
       </c>
@@ -2250,9 +2261,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="75"/>
       <c r="H56" s="4" t="s">
         <v>67</v>
       </c>
@@ -2299,40 +2310,42 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="67"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="59"/>
+      <c r="H60" s="64"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
       <c r="L60" s="74"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="70"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="70"/>
+      <c r="H61" s="65"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
       <c r="L61" s="74"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="60"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="60"/>
+      <c r="H62" s="66"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
       <c r="L62" s="74"/>
@@ -2369,17 +2382,17 @@
       <c r="AG63" s="3"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71" t="s">
+      <c r="B64" s="75"/>
+      <c r="C64" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="67" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2393,11 +2406,11 @@
       <c r="L64" s="74"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2409,11 +2422,11 @@
       <c r="L65" s="74"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="58"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="69"/>
       <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2427,11 +2440,11 @@
       <c r="L66" s="74"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="56" t="s">
+      <c r="A67" s="83"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="67" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2443,11 +2456,11 @@
       <c r="L67" s="74"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="57"/>
+      <c r="A68" s="83"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="4" t="s">
         <v>32</v>
       </c>
@@ -2457,11 +2470,11 @@
       <c r="L68" s="74"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="58"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="69"/>
       <c r="F69" s="4" t="s">
         <v>33</v>
       </c>
@@ -2471,11 +2484,11 @@
       <c r="L69" s="74"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="56" t="s">
+      <c r="A70" s="83"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="67" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2487,11 +2500,11 @@
       <c r="L70" s="74"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="57"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
@@ -2501,11 +2514,11 @@
       <c r="L71" s="74"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="57"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="4" t="s">
         <v>33</v>
       </c>
@@ -2515,11 +2528,11 @@
       <c r="L72" s="74"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="58"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="69"/>
       <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
@@ -2529,11 +2542,11 @@
       <c r="L73" s="74"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="56" t="s">
+      <c r="A74" s="83"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="67" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2545,11 +2558,11 @@
       <c r="L74" s="74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="57"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
@@ -2558,11 +2571,11 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="57"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2571,11 +2584,11 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="86"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="57"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
@@ -2584,11 +2597,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="86"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="57"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="4" t="s">
         <v>38</v>
       </c>
@@ -2597,11 +2610,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="57"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="4" t="s">
         <v>33</v>
       </c>
@@ -2610,11 +2623,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="57"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="68"/>
       <c r="F80" s="29"/>
       <c r="G80" s="39"/>
       <c r="H80" s="29"/>
@@ -2624,11 +2637,11 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="57"/>
+      <c r="A81" s="83"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
@@ -2637,11 +2650,11 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="58"/>
+      <c r="A82" s="83"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="69"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -2686,14 +2699,14 @@
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56" t="s">
+      <c r="B86" s="67"/>
+      <c r="C86" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="56" t="s">
+      <c r="D86" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -2710,10 +2723,10 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
       <c r="E87" s="6" t="s">
         <v>45</v>
       </c>
@@ -2723,10 +2736,10 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
       <c r="E88" s="7" t="s">
         <v>44</v>
       </c>
@@ -2758,14 +2771,14 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="76" t="s">
+      <c r="A91" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62" t="s">
+      <c r="B91" s="88"/>
+      <c r="C91" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="85" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -2778,10 +2791,10 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="86"/>
       <c r="E92" s="4" t="s">
         <v>55</v>
       </c>
@@ -2792,10 +2805,10 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="66"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="86"/>
       <c r="E93" s="4" t="s">
         <v>56</v>
       </c>
@@ -2806,11 +2819,11 @@
       <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="59" t="s">
+      <c r="A94" s="79"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="64" t="s">
         <v>94</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -2823,11 +2836,11 @@
       <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="70"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="65"/>
       <c r="F95" s="4" t="s">
         <v>91</v>
       </c>
@@ -2840,11 +2853,11 @@
       <c r="L95" s="37"/>
     </row>
     <row r="96" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="60"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="4" t="s">
         <v>92</v>
       </c>
@@ -2854,10 +2867,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="69"/>
+      <c r="A97" s="79"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="87"/>
       <c r="E97" s="4" t="s">
         <v>93</v>
       </c>
@@ -2873,14 +2886,14 @@
       <c r="L98" s="37"/>
     </row>
     <row r="99" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56" t="s">
+      <c r="B99" s="67"/>
+      <c r="C99" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="56" t="s">
+      <c r="D99" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -2888,38 +2901,38 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
       <c r="E100" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
+      <c r="A101" s="79"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
       <c r="E101" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="72" t="s">
+      <c r="A106" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="72" t="s">
+      <c r="B106" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C106" s="56" t="s">
+      <c r="C106" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="56" t="s">
+      <c r="D106" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="56"/>
-      <c r="H106" s="59" t="s">
+      <c r="E106" s="67"/>
+      <c r="H106" s="64" t="s">
         <v>115</v>
       </c>
       <c r="I106" s="11" t="s">
@@ -2930,12 +2943,12 @@
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="H107" s="70"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="68"/>
+      <c r="H107" s="65"/>
       <c r="I107" s="11" t="s">
         <v>102</v>
       </c>
@@ -2944,12 +2957,12 @@
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="H108" s="70"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="H108" s="65"/>
       <c r="I108" s="11" t="s">
         <v>103</v>
       </c>
@@ -2958,12 +2971,12 @@
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
-      <c r="H109" s="70"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="H109" s="65"/>
       <c r="I109" s="11" t="s">
         <v>104</v>
       </c>
@@ -2972,12 +2985,12 @@
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="72"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="H110" s="70"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="H110" s="65"/>
       <c r="I110" s="11" t="s">
         <v>105</v>
       </c>
@@ -2986,12 +2999,12 @@
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="72"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="H111" s="70"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="H111" s="65"/>
       <c r="I111" s="11" t="s">
         <v>109</v>
       </c>
@@ -3000,12 +3013,12 @@
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58"/>
-      <c r="H112" s="60"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="69"/>
+      <c r="H112" s="66"/>
       <c r="I112" s="11" t="s">
         <v>110</v>
       </c>
@@ -3025,22 +3038,22 @@
       <c r="L113" s="50"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="83" t="s">
+      <c r="A114" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="83" t="s">
+      <c r="B114" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="56" t="s">
+      <c r="D114" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56" t="s">
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67" t="s">
         <v>116</v>
       </c>
       <c r="I114" s="51" t="s">
@@ -3051,14 +3064,14 @@
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="81"/>
-      <c r="B115" s="81"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
       <c r="I115" s="51" t="s">
         <v>102</v>
       </c>
@@ -3067,14 +3080,14 @@
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="81"/>
-      <c r="B116" s="81"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
+      <c r="A116" s="72"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68"/>
       <c r="I116" s="51" t="s">
         <v>103</v>
       </c>
@@ -3083,14 +3096,14 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="81"/>
-      <c r="B117" s="81"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
+      <c r="A117" s="72"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
       <c r="I117" s="51" t="s">
         <v>104</v>
       </c>
@@ -3099,14 +3112,14 @@
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="81"/>
-      <c r="B118" s="81"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57"/>
+      <c r="A118" s="72"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="68"/>
       <c r="I118" s="51" t="s">
         <v>105</v>
       </c>
@@ -3115,14 +3128,14 @@
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="81"/>
-      <c r="B119" s="81"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
+      <c r="A119" s="72"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
       <c r="I119" s="51" t="s">
         <v>109</v>
       </c>
@@ -3131,14 +3144,14 @@
       <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
-      <c r="B120" s="81"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
+      <c r="A120" s="72"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
       <c r="I120" s="51" t="s">
         <v>110</v>
       </c>
@@ -3147,15 +3160,15 @@
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="81"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="87" t="s">
+      <c r="A121" s="72"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="62" t="s">
         <v>114</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -3165,15 +3178,15 @@
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="82"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="58"/>
-      <c r="I122" s="88"/>
+      <c r="A122" s="73"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="63"/>
       <c r="J122" s="3" t="s">
         <v>107</v>
       </c>
@@ -3201,341 +3214,315 @@
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="83" t="s">
+      <c r="B125" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="56" t="s">
+      <c r="C125" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="56" t="s">
+      <c r="D125" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="61"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="34"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="56" t="s">
+      <c r="G125" s="57"/>
+      <c r="H125" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="I125" s="51" t="s">
+      <c r="I125" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="J125" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="J125" s="3"/>
-      <c r="K125" s="44"/>
-      <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="81"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="64"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="94"/>
       <c r="F126" s="32"/>
-      <c r="G126" s="92"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="51" t="s">
+      <c r="G126" s="58"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="J126" s="3"/>
-      <c r="K126" s="44"/>
-      <c r="L126" s="3"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="81"/>
-      <c r="B127" s="81"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="64"/>
+      <c r="A127" s="72"/>
+      <c r="B127" s="72"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="94"/>
       <c r="F127" s="32"/>
-      <c r="G127" s="92"/>
-      <c r="H127" s="57"/>
-      <c r="I127" s="51" t="s">
+      <c r="G127" s="58"/>
+      <c r="H127" s="68"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="72"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="66"/>
+      <c r="K128" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="72"/>
+      <c r="B129" s="72"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="94"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="68"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="72"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="94"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="72"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="94"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="68"/>
+      <c r="I131" s="61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="72"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="68"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="94"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="68"/>
+      <c r="I132" s="61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="72"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="94"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="72"/>
+      <c r="B134" s="72"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="94"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="68"/>
+      <c r="I134" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="72"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="94"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="68"/>
+      <c r="I135" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="81"/>
-      <c r="B128" s="81"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="92"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="50"/>
-      <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="81"/>
-      <c r="B129" s="81"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="92"/>
-      <c r="H129" s="57"/>
-      <c r="I129" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="50"/>
-      <c r="L129" s="3"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="81"/>
-      <c r="B130" s="81"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="92"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="J130" s="3"/>
-      <c r="K130" s="50"/>
-      <c r="L130" s="3"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="81"/>
-      <c r="B131" s="81"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="92"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="J131" s="3"/>
-      <c r="K131" s="50"/>
-      <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="81"/>
-      <c r="B132" s="81"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="92"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="3"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="81"/>
-      <c r="B133" s="81"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="64"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="92"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="60"/>
-      <c r="J133" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="3"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="81"/>
-      <c r="B134" s="81"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="92"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="81"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="92"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J135" s="3"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="82"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="67"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="73"/>
+      <c r="B136" s="73"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="95"/>
       <c r="F136" s="25"/>
-      <c r="G136" s="93"/>
-      <c r="H136" s="58"/>
-      <c r="I136" s="11" t="s">
+      <c r="G136" s="59"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="J136" s="3"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F137" s="90"/>
-      <c r="G137" s="91"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="56"/>
+      <c r="G137" s="57"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="56" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="56" t="s">
+      <c r="B138" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="56" t="s">
+      <c r="C138" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="56" t="s">
+      <c r="D138" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F138" s="64"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="59" t="s">
+      <c r="F138" s="94"/>
+      <c r="G138" s="86"/>
+      <c r="H138" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="59" t="s">
+      <c r="I138" s="64" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="57"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
       <c r="E139" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F139" s="64"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="60"/>
-      <c r="I139" s="60"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="58"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="86"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="69"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="69"/>
       <c r="E140" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F140" s="67"/>
-      <c r="G140" s="69"/>
+      <c r="F140" s="95"/>
+      <c r="G140" s="87"/>
       <c r="H140" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="56" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="56" t="s">
+      <c r="C142" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="56" t="s">
+      <c r="D142" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F142" s="61"/>
-      <c r="G142" s="63"/>
-      <c r="H142" s="59" t="s">
+      <c r="F142" s="93"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I142" s="59" t="s">
+      <c r="I142" s="64" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="57"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
       <c r="E143" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F143" s="64"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="70"/>
-      <c r="I143" s="70"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
+      <c r="F143" s="94"/>
+      <c r="G143" s="86"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="68"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
       <c r="E144" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F144" s="64"/>
-      <c r="G144" s="66"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
+      <c r="F144" s="94"/>
+      <c r="G144" s="86"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="57"/>
+      <c r="A145" s="68"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
       <c r="E145" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="64"/>
-      <c r="G145" s="66"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="60"/>
+      <c r="F145" s="94"/>
+      <c r="G145" s="86"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
+      <c r="A146" s="69"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
       <c r="E146" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F146" s="67"/>
-      <c r="G146" s="69"/>
+      <c r="F146" s="95"/>
+      <c r="G146" s="87"/>
       <c r="H146" s="11" t="s">
         <v>9</v>
       </c>
@@ -3560,8 +3547,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E149" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="103">
+    <mergeCell ref="J127:J128"/>
     <mergeCell ref="E125:E136"/>
     <mergeCell ref="B142:B146"/>
     <mergeCell ref="A142:A146"/>
@@ -3577,6 +3570,12 @@
     <mergeCell ref="B138:B140"/>
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="D138:D140"/>
+    <mergeCell ref="H125:H136"/>
+    <mergeCell ref="D125:D136"/>
+    <mergeCell ref="C125:C136"/>
+    <mergeCell ref="B125:B136"/>
+    <mergeCell ref="A125:A136"/>
+    <mergeCell ref="I125:I130"/>
     <mergeCell ref="I46:I53"/>
     <mergeCell ref="H46:H54"/>
     <mergeCell ref="A45:A56"/>
@@ -3617,6 +3616,8 @@
     <mergeCell ref="B86:B88"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C64:C82"/>
     <mergeCell ref="L64:L74"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3633,7 +3634,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="H34:H41"/>
     <mergeCell ref="I34:I41"/>
-    <mergeCell ref="A33:A43"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
     <mergeCell ref="E64:E66"/>
@@ -3642,7 +3642,7 @@
     <mergeCell ref="E74:E82"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="I121:I122"/>
     <mergeCell ref="H106:H112"/>
     <mergeCell ref="H114:H122"/>
     <mergeCell ref="G114:G122"/>
@@ -3652,18 +3652,11 @@
     <mergeCell ref="D106:D112"/>
     <mergeCell ref="E106:E112"/>
     <mergeCell ref="A114:A122"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="H125:H136"/>
-    <mergeCell ref="D125:D136"/>
-    <mergeCell ref="C125:C136"/>
-    <mergeCell ref="B125:B136"/>
-    <mergeCell ref="A125:A136"/>
     <mergeCell ref="F114:F122"/>
     <mergeCell ref="E114:E122"/>
     <mergeCell ref="D114:D122"/>
     <mergeCell ref="C114:C122"/>
     <mergeCell ref="B114:B122"/>
-    <mergeCell ref="I121:I122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CDC43-C272-44E6-8B00-A20E2CD866C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509395D7-200B-4B13-B40E-1873A3112CC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,107 +991,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM149"/>
+  <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L131" sqref="L131"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1446,16 +1455,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1470,10 +1479,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1486,16 +1495,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="66"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="68" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1504,44 +1513,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="67" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="67"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="68"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="69"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1561,11 +1570,11 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="85" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1579,10 +1588,10 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="64" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1595,16 +1604,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1613,14 +1622,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1631,8 +1640,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1645,15 +1654,15 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="74"/>
+      <c r="K15" s="91"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1667,7 +1676,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="74"/>
+      <c r="K16" s="91"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1698,75 +1707,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="81" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="68" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="74"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="68"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="74"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="68"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="81" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="69"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1792,13 +1801,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="78" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1812,19 +1821,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="81" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="78" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1833,86 +1842,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="75"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="81" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="75"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="78"/>
       <c r="H30" s="4" t="s">
         <v>68</v>
       </c>
@@ -1921,9 +1930,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="75"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="78"/>
       <c r="H31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1945,13 +1954,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="78" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -1965,19 +1974,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="75"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="76" t="s">
+      <c r="H34" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="78" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -1986,97 +1995,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="81" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="76"/>
-      <c r="I35" s="75"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="76"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="75"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="78"/>
       <c r="J36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="75"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="75"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="78"/>
       <c r="J37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="75"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="78"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="78"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="75"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="78"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="78"/>
       <c r="J40" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="75"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="75"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="78"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="75"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>68</v>
@@ -2086,9 +2095,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="75"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>67</v>
@@ -2111,13 +2120,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="78" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2131,19 +2140,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="75"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="75" t="s">
+      <c r="H46" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="75" t="s">
+      <c r="I46" s="78" t="s">
         <v>66</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2152,97 +2161,97 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="76" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="81" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
       <c r="J50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
       <c r="J51" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="75"/>
-      <c r="H54" s="75"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="78"/>
+      <c r="H54" s="78"/>
       <c r="I54" s="1" t="s">
         <v>81</v>
       </c>
@@ -2250,9 +2259,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="75"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="78"/>
       <c r="H55" s="4" t="s">
         <v>68</v>
       </c>
@@ -2261,9 +2270,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="75"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="78"/>
       <c r="H56" s="4" t="s">
         <v>67</v>
       </c>
@@ -2310,45 +2319,45 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="64"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="64"/>
+      <c r="H60" s="63"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
-      <c r="L60" s="74"/>
+      <c r="L60" s="91"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="65"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="65"/>
+      <c r="H61" s="74"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
-      <c r="L61" s="74"/>
+      <c r="L61" s="91"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="66"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="66"/>
+      <c r="H62" s="64"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="74"/>
+      <c r="L62" s="91"/>
     </row>
     <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2382,17 +2391,17 @@
       <c r="AG63" s="3"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75" t="s">
+      <c r="B64" s="78"/>
+      <c r="C64" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="67" t="s">
+      <c r="E64" s="68" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
-      <c r="L64" s="74"/>
+      <c r="L64" s="91"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="68"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="69"/>
       <c r="F65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2419,14 +2428,14 @@
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="74"/>
+      <c r="L65" s="91"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="69"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="70"/>
       <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2437,14 +2446,14 @@
         <v>24</v>
       </c>
       <c r="J66" s="6"/>
-      <c r="L66" s="74"/>
+      <c r="L66" s="91"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="67" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="68" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2453,42 +2462,42 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="74"/>
+      <c r="L67" s="91"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="68"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="69"/>
       <c r="F68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="74"/>
+      <c r="L68" s="91"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="69"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="29"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="74"/>
+      <c r="L69" s="91"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="67" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="68" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2497,56 +2506,56 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="74"/>
+      <c r="L70" s="91"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="68"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="74"/>
+      <c r="L71" s="91"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="68"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="69"/>
       <c r="F72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="74"/>
+      <c r="L72" s="91"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="69"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="74"/>
+      <c r="L73" s="91"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="67" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="68" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2555,14 +2564,14 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="74"/>
+      <c r="L74" s="91"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="68"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="69"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
@@ -2571,11 +2580,11 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="68"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="69"/>
       <c r="F76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2584,11 +2593,11 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="68"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="69"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
@@ -2597,11 +2606,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="68"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="69"/>
       <c r="F78" s="4" t="s">
         <v>38</v>
       </c>
@@ -2610,11 +2619,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="68"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="69"/>
       <c r="F79" s="4" t="s">
         <v>33</v>
       </c>
@@ -2623,11 +2632,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="68"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="69"/>
       <c r="F80" s="29"/>
       <c r="G80" s="39"/>
       <c r="H80" s="29"/>
@@ -2637,11 +2646,11 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
-      <c r="B81" s="75"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="68"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="69"/>
       <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
@@ -2650,11 +2659,11 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="69"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="70"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -2699,14 +2708,14 @@
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67" t="s">
+      <c r="B86" s="68"/>
+      <c r="C86" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="67" t="s">
+      <c r="D86" s="68" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -2723,10 +2732,10 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="80"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
+      <c r="A87" s="92"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
       <c r="E87" s="6" t="s">
         <v>45</v>
       </c>
@@ -2736,10 +2745,10 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
+      <c r="A88" s="93"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
       <c r="E88" s="7" t="s">
         <v>44</v>
       </c>
@@ -2771,14 +2780,14 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88" t="s">
+      <c r="B91" s="84"/>
+      <c r="C91" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="85" t="s">
+      <c r="D91" s="71" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -2791,10 +2800,10 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="86"/>
+      <c r="A92" s="83"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="72"/>
       <c r="E92" s="4" t="s">
         <v>55</v>
       </c>
@@ -2805,10 +2814,10 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="86"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="72"/>
       <c r="E93" s="4" t="s">
         <v>56</v>
       </c>
@@ -2819,11 +2828,11 @@
       <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="64" t="s">
+      <c r="A94" s="83"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="63" t="s">
         <v>94</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -2836,11 +2845,11 @@
       <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="65"/>
+      <c r="A95" s="83"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="74"/>
       <c r="F95" s="4" t="s">
         <v>91</v>
       </c>
@@ -2853,11 +2862,11 @@
       <c r="L95" s="37"/>
     </row>
     <row r="96" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="66"/>
+      <c r="A96" s="83"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="64"/>
       <c r="F96" s="4" t="s">
         <v>92</v>
       </c>
@@ -2867,10 +2876,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="87"/>
+      <c r="A97" s="83"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="73"/>
       <c r="E97" s="4" t="s">
         <v>93</v>
       </c>
@@ -2886,14 +2895,14 @@
       <c r="L98" s="37"/>
     </row>
     <row r="99" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="78" t="s">
+      <c r="A99" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67" t="s">
+      <c r="B99" s="68"/>
+      <c r="C99" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="67" t="s">
+      <c r="D99" s="68" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -2901,38 +2910,38 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="79"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
+      <c r="A100" s="83"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
       <c r="E100" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="79"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
+      <c r="A101" s="83"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="70" t="s">
+      <c r="A106" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="67"/>
-      <c r="H106" s="64" t="s">
+      <c r="E106" s="68"/>
+      <c r="H106" s="63" t="s">
         <v>115</v>
       </c>
       <c r="I106" s="11" t="s">
@@ -2943,12 +2952,12 @@
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="68"/>
-      <c r="H107" s="65"/>
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="69"/>
+      <c r="H107" s="74"/>
       <c r="I107" s="11" t="s">
         <v>102</v>
       </c>
@@ -2957,12 +2966,12 @@
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="H108" s="65"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+      <c r="H108" s="74"/>
       <c r="I108" s="11" t="s">
         <v>103</v>
       </c>
@@ -2971,12 +2980,12 @@
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="H109" s="65"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="69"/>
+      <c r="H109" s="74"/>
       <c r="I109" s="11" t="s">
         <v>104</v>
       </c>
@@ -2985,12 +2994,12 @@
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="68"/>
-      <c r="H110" s="65"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="H110" s="74"/>
       <c r="I110" s="11" t="s">
         <v>105</v>
       </c>
@@ -2999,12 +3008,12 @@
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="H111" s="65"/>
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="H111" s="74"/>
       <c r="I111" s="11" t="s">
         <v>109</v>
       </c>
@@ -3013,12 +3022,12 @@
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="H112" s="66"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="H112" s="64"/>
       <c r="I112" s="11" t="s">
         <v>110</v>
       </c>
@@ -3038,22 +3047,22 @@
       <c r="L113" s="50"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="71" t="s">
+      <c r="A114" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="71" t="s">
+      <c r="B114" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="67" t="s">
+      <c r="D114" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67" t="s">
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68" t="s">
         <v>116</v>
       </c>
       <c r="I114" s="51" t="s">
@@ -3064,14 +3073,14 @@
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="72"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="68"/>
+      <c r="A115" s="76"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
       <c r="I115" s="51" t="s">
         <v>102</v>
       </c>
@@ -3080,14 +3089,14 @@
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="72"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="68"/>
+      <c r="A116" s="76"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
       <c r="I116" s="51" t="s">
         <v>103</v>
       </c>
@@ -3096,14 +3105,14 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="72"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="68"/>
+      <c r="A117" s="76"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
       <c r="I117" s="51" t="s">
         <v>104</v>
       </c>
@@ -3112,14 +3121,14 @@
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="72"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="68"/>
+      <c r="A118" s="76"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
       <c r="I118" s="51" t="s">
         <v>105</v>
       </c>
@@ -3128,14 +3137,14 @@
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="72"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="68"/>
+      <c r="A119" s="76"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
       <c r="I119" s="51" t="s">
         <v>109</v>
       </c>
@@ -3144,14 +3153,14 @@
       <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="72"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
-      <c r="H120" s="68"/>
+      <c r="A120" s="76"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
       <c r="I120" s="51" t="s">
         <v>110</v>
       </c>
@@ -3160,15 +3169,15 @@
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="68"/>
-      <c r="I121" s="62" t="s">
+      <c r="A121" s="76"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="69"/>
+      <c r="H121" s="69"/>
+      <c r="I121" s="95" t="s">
         <v>114</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -3178,15 +3187,15 @@
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="73"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
-      <c r="I122" s="63"/>
+      <c r="A122" s="77"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="96"/>
       <c r="J122" s="3" t="s">
         <v>107</v>
       </c>
@@ -3214,25 +3223,25 @@
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="71" t="s">
+      <c r="A125" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="71" t="s">
+      <c r="B125" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="67" t="s">
+      <c r="C125" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="67" t="s">
+      <c r="D125" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="93"/>
+      <c r="E125" s="65"/>
       <c r="F125" s="34"/>
       <c r="G125" s="57"/>
-      <c r="H125" s="67" t="s">
+      <c r="H125" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="I125" s="64" t="s">
+      <c r="I125" s="63" t="s">
         <v>134</v>
       </c>
       <c r="J125" s="61" t="s">
@@ -3240,30 +3249,30 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="72"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="68"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="94"/>
+      <c r="A126" s="76"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="66"/>
       <c r="F126" s="32"/>
       <c r="G126" s="58"/>
-      <c r="H126" s="68"/>
-      <c r="I126" s="65"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="74"/>
       <c r="J126" s="61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="72"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="94"/>
+      <c r="A127" s="76"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="66"/>
       <c r="F127" s="32"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="68"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="64" t="s">
+      <c r="H127" s="69"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="63" t="s">
         <v>108</v>
       </c>
       <c r="K127" s="3" t="s">
@@ -3271,122 +3280,122 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="72"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="94"/>
+      <c r="A128" s="76"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="66"/>
       <c r="F128" s="32"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="68"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="66"/>
+      <c r="H128" s="69"/>
+      <c r="I128" s="74"/>
+      <c r="J128" s="64"/>
       <c r="K128" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="72"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="94"/>
+      <c r="A129" s="76"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="66"/>
       <c r="F129" s="32"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="68"/>
-      <c r="I129" s="65"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="74"/>
       <c r="J129" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="72"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="68"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="94"/>
+      <c r="A130" s="76"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="66"/>
       <c r="F130" s="32"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="68"/>
-      <c r="I130" s="66"/>
+      <c r="H130" s="69"/>
+      <c r="I130" s="64"/>
       <c r="J130" s="61" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="72"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="68"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="94"/>
+      <c r="A131" s="76"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="66"/>
       <c r="F131" s="32"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="68"/>
+      <c r="H131" s="69"/>
       <c r="I131" s="61" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="72"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="94"/>
+      <c r="A132" s="76"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="66"/>
       <c r="F132" s="32"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="68"/>
+      <c r="H132" s="69"/>
       <c r="I132" s="61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="72"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="68"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="94"/>
+      <c r="A133" s="76"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="66"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="68"/>
+      <c r="H133" s="69"/>
       <c r="I133" s="61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="72"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="94"/>
+      <c r="A134" s="76"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="66"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="68"/>
+      <c r="H134" s="69"/>
       <c r="I134" s="61" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="72"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="94"/>
+      <c r="A135" s="76"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="66"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="68"/>
+      <c r="H135" s="69"/>
       <c r="I135" s="61" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="73"/>
-      <c r="B136" s="73"/>
-      <c r="C136" s="69"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="95"/>
+      <c r="A136" s="77"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="67"/>
       <c r="F136" s="25"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="69"/>
+      <c r="H136" s="70"/>
       <c r="I136" s="61" t="s">
         <v>113</v>
       </c>
@@ -3398,137 +3407,137 @@
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="67" t="s">
+      <c r="A138" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="67" t="s">
+      <c r="B138" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="67" t="s">
+      <c r="C138" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="67" t="s">
+      <c r="D138" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F138" s="94"/>
-      <c r="G138" s="86"/>
-      <c r="H138" s="64" t="s">
+      <c r="F138" s="66"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="64" t="s">
+      <c r="I138" s="63" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="68"/>
-      <c r="B139" s="68"/>
-      <c r="C139" s="68"/>
-      <c r="D139" s="68"/>
+      <c r="A139" s="79"/>
+      <c r="B139" s="69"/>
+      <c r="C139" s="69"/>
+      <c r="D139" s="69"/>
       <c r="E139" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F139" s="94"/>
-      <c r="G139" s="86"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="66"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="64"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="69"/>
-      <c r="B140" s="69"/>
-      <c r="C140" s="69"/>
-      <c r="D140" s="69"/>
+      <c r="A140" s="79"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
       <c r="E140" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F140" s="95"/>
-      <c r="G140" s="87"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="73"/>
       <c r="H140" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="67" t="s">
+      <c r="A142" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="67" t="s">
+      <c r="B142" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="67" t="s">
+      <c r="C142" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="67" t="s">
+      <c r="D142" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F142" s="93"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="64" t="s">
+      <c r="F142" s="65"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I142" s="64" t="s">
+      <c r="I142" s="63" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
+      <c r="A143" s="76"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
       <c r="E143" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F143" s="94"/>
-      <c r="G143" s="86"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="74"/>
+      <c r="I143" s="74"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
+      <c r="A144" s="76"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
       <c r="E144" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F144" s="94"/>
-      <c r="G144" s="86"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="65"/>
+      <c r="F144" s="66"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="74"/>
+      <c r="I144" s="74"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
-      <c r="B145" s="68"/>
-      <c r="C145" s="68"/>
-      <c r="D145" s="68"/>
+      <c r="A145" s="76"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
       <c r="E145" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="94"/>
-      <c r="G145" s="86"/>
-      <c r="H145" s="66"/>
-      <c r="I145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="64"/>
+      <c r="I145" s="64"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
-      <c r="B146" s="69"/>
-      <c r="C146" s="69"/>
-      <c r="D146" s="69"/>
+      <c r="A146" s="77"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
       <c r="E146" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F146" s="95"/>
-      <c r="G146" s="87"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="73"/>
       <c r="H146" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="62" t="s">
         <v>130</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -3548,76 +3557,37 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="97"/>
       <c r="E149" s="4" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="97"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="97"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="98"/>
+    </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="E125:E136"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="F142:G146"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="F138:G140"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="H125:H136"/>
-    <mergeCell ref="D125:D136"/>
-    <mergeCell ref="C125:C136"/>
-    <mergeCell ref="B125:B136"/>
-    <mergeCell ref="A125:A136"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="H106:H112"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G114:G122"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="D106:D112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="E114:E122"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="C114:C122"/>
+    <mergeCell ref="B114:B122"/>
     <mergeCell ref="L64:L74"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3642,21 +3612,70 @@
     <mergeCell ref="E74:E82"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="H106:H112"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G114:G122"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="D106:D112"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="E114:E122"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="C114:C122"/>
-    <mergeCell ref="B114:B122"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B64:B82"/>
+    <mergeCell ref="A64:A82"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D64:D82"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="E125:E136"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="F142:G146"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="F138:G140"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="H125:H136"/>
+    <mergeCell ref="D125:D136"/>
+    <mergeCell ref="C125:C136"/>
+    <mergeCell ref="B125:B136"/>
+    <mergeCell ref="A125:A136"/>
+    <mergeCell ref="I125:I130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509395D7-200B-4B13-B40E-1873A3112CC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98454C-44D5-4BC2-A58B-F580E43957A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,14 @@
   </si>
   <si>
     <t>athletes(list):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignUpServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认密码为12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,21 +1002,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,17 +1032,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,24 +1044,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,41 +1095,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1455,16 +1463,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1479,10 +1487,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1495,16 +1503,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="70" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1513,44 +1521,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="68" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="69"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="70"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1570,11 +1578,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1588,32 +1598,34 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="63" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="67" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="91"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="74"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1622,14 +1634,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1640,8 +1652,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1654,11 +1666,11 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="91"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="86" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="78"/>
@@ -1676,7 +1688,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="91"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1707,75 +1719,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="79" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="70" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="91"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
-      <c r="D18" s="81"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="69"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="91"/>
+      <c r="K18" s="77"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
-      <c r="D19" s="81"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="69"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="91"/>
+      <c r="K19" s="77"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="79" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="70"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
-      <c r="D21" s="81"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1801,10 +1813,10 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="73" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -1821,16 +1833,16 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="78"/>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="79" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="79" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="78" t="s">
@@ -1842,14 +1854,14 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="78"/>
-      <c r="D25" s="81"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="78"/>
       <c r="J25" s="4" t="s">
         <v>61</v>
@@ -1857,14 +1869,14 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="78"/>
-      <c r="D26" s="81"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="78"/>
       <c r="J26" s="4" t="s">
         <v>62</v>
@@ -1872,14 +1884,14 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="78"/>
-      <c r="D27" s="81"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="78"/>
       <c r="J27" s="4" t="s">
         <v>63</v>
@@ -1887,16 +1899,16 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="78"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="79" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="78"/>
       <c r="J28" s="4" t="s">
         <v>64</v>
@@ -1904,14 +1916,14 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="78"/>
-      <c r="D29" s="81"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="78"/>
       <c r="J29" s="4" t="s">
         <v>65</v>
@@ -1919,8 +1931,8 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="78"/>
       <c r="H30" s="4" t="s">
         <v>68</v>
@@ -1930,8 +1942,8 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="78"/>
       <c r="H31" s="4" t="s">
         <v>67</v>
@@ -1954,7 +1966,7 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="73" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="80" t="s">
@@ -1974,8 +1986,8 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="78"/>
       <c r="D34" s="4" t="s">
         <v>53</v>
@@ -1983,7 +1995,7 @@
       <c r="E34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="79" t="s">
         <v>59</v>
       </c>
       <c r="I34" s="78" t="s">
@@ -1995,16 +2007,16 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="79" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="78"/>
       <c r="J35" s="4" t="s">
         <v>61</v>
@@ -2012,14 +2024,14 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="78"/>
-      <c r="D36" s="81"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="81"/>
+      <c r="H36" s="79"/>
       <c r="I36" s="78"/>
       <c r="J36" s="4" t="s">
         <v>62</v>
@@ -2027,11 +2039,11 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="78"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="81"/>
+      <c r="H37" s="79"/>
       <c r="I37" s="78"/>
       <c r="J37" s="4" t="s">
         <v>63</v>
@@ -2039,10 +2051,10 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="78"/>
-      <c r="H38" s="81"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="78"/>
       <c r="J38" s="4" t="s">
         <v>64</v>
@@ -2050,10 +2062,10 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="78"/>
-      <c r="H39" s="81"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="78"/>
       <c r="J39" s="4" t="s">
         <v>77</v>
@@ -2061,10 +2073,10 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="78"/>
-      <c r="H40" s="81"/>
+      <c r="H40" s="79"/>
       <c r="I40" s="78"/>
       <c r="J40" s="4" t="s">
         <v>65</v>
@@ -2072,10 +2084,10 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="78"/>
-      <c r="H41" s="81"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="78"/>
       <c r="J41" s="4" t="s">
         <v>78</v>
@@ -2083,8 +2095,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="78"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
@@ -2095,8 +2107,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="78"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
@@ -2120,7 +2132,7 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="73" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="80" t="s">
@@ -2140,8 +2152,8 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="78"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
@@ -2161,10 +2173,10 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="78"/>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="79" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -2178,10 +2190,10 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="78"/>
-      <c r="D48" s="81"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
@@ -2193,8 +2205,8 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="78"/>
       <c r="H49" s="78"/>
       <c r="I49" s="78"/>
@@ -2204,8 +2216,8 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="78"/>
       <c r="H50" s="78"/>
       <c r="I50" s="78"/>
@@ -2215,8 +2227,8 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="78"/>
       <c r="H51" s="78"/>
       <c r="I51" s="78"/>
@@ -2226,8 +2238,8 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="78"/>
       <c r="H52" s="78"/>
       <c r="I52" s="78"/>
@@ -2237,8 +2249,8 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="78"/>
       <c r="H53" s="78"/>
       <c r="I53" s="78"/>
@@ -2248,8 +2260,8 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="78"/>
       <c r="H54" s="78"/>
       <c r="I54" s="1" t="s">
@@ -2259,8 +2271,8 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="78"/>
       <c r="H55" s="4" t="s">
         <v>68</v>
@@ -2270,8 +2282,8 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="78"/>
       <c r="H56" s="4" t="s">
         <v>67</v>
@@ -2319,45 +2331,45 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="68"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="78"/>
-      <c r="D60" s="63"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="63"/>
+      <c r="H60" s="67"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
-      <c r="L60" s="91"/>
+      <c r="L60" s="77"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
-      <c r="B61" s="69"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="78"/>
-      <c r="D61" s="74"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="74"/>
+      <c r="H61" s="68"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
-      <c r="L61" s="91"/>
+      <c r="L61" s="77"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="88"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="78"/>
-      <c r="D62" s="64"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="64"/>
+      <c r="H62" s="69"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="91"/>
+      <c r="L62" s="77"/>
     </row>
     <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2391,7 +2403,7 @@
       <c r="AG63" s="3"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="86" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="78"/>
@@ -2401,7 +2413,7 @@
       <c r="D64" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="68" t="s">
+      <c r="E64" s="70" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
-      <c r="L64" s="91"/>
+      <c r="L64" s="77"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="87"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="78"/>
       <c r="C65" s="78"/>
       <c r="D65" s="78"/>
-      <c r="E65" s="69"/>
+      <c r="E65" s="71"/>
       <c r="F65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2428,14 +2440,14 @@
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="91"/>
+      <c r="L65" s="77"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="87"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="78"/>
       <c r="C66" s="78"/>
       <c r="D66" s="78"/>
-      <c r="E66" s="70"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2446,14 +2458,14 @@
         <v>24</v>
       </c>
       <c r="J66" s="6"/>
-      <c r="L66" s="91"/>
+      <c r="L66" s="77"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="87"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="78"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78"/>
-      <c r="E67" s="68" t="s">
+      <c r="E67" s="70" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2462,42 +2474,42 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="91"/>
+      <c r="L67" s="77"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="87"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="78"/>
       <c r="C68" s="78"/>
       <c r="D68" s="78"/>
-      <c r="E68" s="69"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="91"/>
+      <c r="L68" s="77"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="87"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="78"/>
       <c r="C69" s="78"/>
       <c r="D69" s="78"/>
-      <c r="E69" s="70"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="29"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="91"/>
+      <c r="L69" s="77"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="87"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="78"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
-      <c r="E70" s="68" t="s">
+      <c r="E70" s="70" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2506,56 +2518,56 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="91"/>
+      <c r="L70" s="77"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="87"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="78"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
-      <c r="E71" s="69"/>
+      <c r="E71" s="71"/>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="91"/>
+      <c r="L71" s="77"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="87"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="78"/>
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
-      <c r="E72" s="69"/>
+      <c r="E72" s="71"/>
       <c r="F72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="91"/>
+      <c r="L72" s="77"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="87"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="78"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
-      <c r="E73" s="70"/>
+      <c r="E73" s="72"/>
       <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="91"/>
+      <c r="L73" s="77"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="87"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="78"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
-      <c r="E74" s="68" t="s">
+      <c r="E74" s="70" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2564,14 +2576,14 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="91"/>
+      <c r="L74" s="77"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="87"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="78"/>
       <c r="C75" s="78"/>
       <c r="D75" s="78"/>
-      <c r="E75" s="69"/>
+      <c r="E75" s="71"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
@@ -2580,11 +2592,11 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="87"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="78"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
-      <c r="E76" s="69"/>
+      <c r="E76" s="71"/>
       <c r="F76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2593,11 +2605,11 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="87"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="78"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
-      <c r="E77" s="69"/>
+      <c r="E77" s="71"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
@@ -2606,11 +2618,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="87"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="78"/>
       <c r="C78" s="78"/>
       <c r="D78" s="78"/>
-      <c r="E78" s="69"/>
+      <c r="E78" s="71"/>
       <c r="F78" s="4" t="s">
         <v>38</v>
       </c>
@@ -2619,11 +2631,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="87"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="78"/>
       <c r="C79" s="78"/>
       <c r="D79" s="78"/>
-      <c r="E79" s="69"/>
+      <c r="E79" s="71"/>
       <c r="F79" s="4" t="s">
         <v>33</v>
       </c>
@@ -2632,11 +2644,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="87"/>
+      <c r="A80" s="86"/>
       <c r="B80" s="78"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
-      <c r="E80" s="69"/>
+      <c r="E80" s="71"/>
       <c r="F80" s="29"/>
       <c r="G80" s="39"/>
       <c r="H80" s="29"/>
@@ -2646,11 +2658,11 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="87"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="78"/>
       <c r="C81" s="78"/>
       <c r="D81" s="78"/>
-      <c r="E81" s="69"/>
+      <c r="E81" s="71"/>
       <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
@@ -2659,11 +2671,11 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="87"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="78"/>
       <c r="C82" s="78"/>
       <c r="D82" s="78"/>
-      <c r="E82" s="70"/>
+      <c r="E82" s="72"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -2708,14 +2720,14 @@
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68" t="s">
+      <c r="B86" s="70"/>
+      <c r="C86" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -2732,10 +2744,10 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="92"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
+      <c r="A87" s="83"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
       <c r="E87" s="6" t="s">
         <v>45</v>
       </c>
@@ -2745,10 +2757,10 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="93"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
       <c r="E88" s="7" t="s">
         <v>44</v>
       </c>
@@ -2780,14 +2792,14 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84" t="s">
+      <c r="B91" s="91"/>
+      <c r="C91" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="88" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -2800,10 +2812,10 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="72"/>
+      <c r="A92" s="82"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="89"/>
       <c r="E92" s="4" t="s">
         <v>55</v>
       </c>
@@ -2814,10 +2826,10 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="72"/>
+      <c r="A93" s="82"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="89"/>
       <c r="E93" s="4" t="s">
         <v>56</v>
       </c>
@@ -2828,11 +2840,11 @@
       <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="63" t="s">
+      <c r="A94" s="82"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="67" t="s">
         <v>94</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -2845,11 +2857,11 @@
       <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="74"/>
+      <c r="A95" s="82"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="68"/>
       <c r="F95" s="4" t="s">
         <v>91</v>
       </c>
@@ -2862,11 +2874,11 @@
       <c r="L95" s="37"/>
     </row>
     <row r="96" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="64"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="69"/>
       <c r="F96" s="4" t="s">
         <v>92</v>
       </c>
@@ -2876,10 +2888,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="73"/>
+      <c r="A97" s="82"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="4" t="s">
         <v>93</v>
       </c>
@@ -2895,14 +2907,14 @@
       <c r="L98" s="37"/>
     </row>
     <row r="99" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68" t="s">
+      <c r="B99" s="70"/>
+      <c r="C99" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -2910,38 +2922,38 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
+      <c r="A100" s="82"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
       <c r="E100" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
       <c r="E101" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="79" t="s">
+      <c r="A106" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="B106" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C106" s="68" t="s">
+      <c r="C106" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="68" t="s">
+      <c r="D106" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="68"/>
-      <c r="H106" s="63" t="s">
+      <c r="E106" s="70"/>
+      <c r="H106" s="67" t="s">
         <v>115</v>
       </c>
       <c r="I106" s="11" t="s">
@@ -2952,12 +2964,12 @@
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="79"/>
-      <c r="B107" s="79"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="69"/>
-      <c r="H107" s="74"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="H107" s="68"/>
       <c r="I107" s="11" t="s">
         <v>102</v>
       </c>
@@ -2966,12 +2978,12 @@
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="79"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
-      <c r="H108" s="74"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="H108" s="68"/>
       <c r="I108" s="11" t="s">
         <v>103</v>
       </c>
@@ -2980,12 +2992,12 @@
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="79"/>
-      <c r="B109" s="79"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="H109" s="74"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="H109" s="68"/>
       <c r="I109" s="11" t="s">
         <v>104</v>
       </c>
@@ -2994,12 +3006,12 @@
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="H110" s="74"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="H110" s="68"/>
       <c r="I110" s="11" t="s">
         <v>105</v>
       </c>
@@ -3008,12 +3020,12 @@
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="79"/>
-      <c r="B111" s="79"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="H111" s="74"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="H111" s="68"/>
       <c r="I111" s="11" t="s">
         <v>109</v>
       </c>
@@ -3022,12 +3034,12 @@
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="79"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="H112" s="64"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="H112" s="69"/>
       <c r="I112" s="11" t="s">
         <v>110</v>
       </c>
@@ -3047,22 +3059,22 @@
       <c r="L113" s="50"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="75" t="s">
+      <c r="B114" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="68" t="s">
+      <c r="D114" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68" t="s">
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70" t="s">
         <v>116</v>
       </c>
       <c r="I114" s="51" t="s">
@@ -3073,14 +3085,14 @@
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="76"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
       <c r="I115" s="51" t="s">
         <v>102</v>
       </c>
@@ -3089,14 +3101,14 @@
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="76"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
+      <c r="A116" s="75"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
       <c r="I116" s="51" t="s">
         <v>103</v>
       </c>
@@ -3105,14 +3117,14 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="76"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="75"/>
+      <c r="C117" s="71"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
       <c r="I117" s="51" t="s">
         <v>104</v>
       </c>
@@ -3121,14 +3133,14 @@
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="75"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
       <c r="I118" s="51" t="s">
         <v>105</v>
       </c>
@@ -3137,14 +3149,14 @@
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="76"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="69"/>
+      <c r="A119" s="75"/>
+      <c r="B119" s="75"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
       <c r="I119" s="51" t="s">
         <v>109</v>
       </c>
@@ -3153,14 +3165,14 @@
       <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
-      <c r="H120" s="69"/>
+      <c r="A120" s="75"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="71"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
       <c r="I120" s="51" t="s">
         <v>110</v>
       </c>
@@ -3169,15 +3181,15 @@
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="76"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="69"/>
-      <c r="I121" s="95" t="s">
+      <c r="A121" s="75"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="65" t="s">
         <v>114</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -3187,15 +3199,15 @@
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="77"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70"/>
-      <c r="F122" s="70"/>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70"/>
-      <c r="I122" s="96"/>
+      <c r="A122" s="76"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="66"/>
       <c r="J122" s="3" t="s">
         <v>107</v>
       </c>
@@ -3223,25 +3235,25 @@
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="75" t="s">
+      <c r="A125" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="75" t="s">
+      <c r="B125" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="68" t="s">
+      <c r="C125" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="68" t="s">
+      <c r="D125" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="65"/>
+      <c r="E125" s="96"/>
       <c r="F125" s="34"/>
       <c r="G125" s="57"/>
-      <c r="H125" s="68" t="s">
+      <c r="H125" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="I125" s="63" t="s">
+      <c r="I125" s="67" t="s">
         <v>134</v>
       </c>
       <c r="J125" s="61" t="s">
@@ -3249,30 +3261,30 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="76"/>
-      <c r="B126" s="76"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="66"/>
+      <c r="A126" s="75"/>
+      <c r="B126" s="75"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="97"/>
       <c r="F126" s="32"/>
       <c r="G126" s="58"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="74"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="68"/>
       <c r="J126" s="61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="76"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="66"/>
+      <c r="A127" s="75"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="97"/>
       <c r="F127" s="32"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="69"/>
-      <c r="I127" s="74"/>
-      <c r="J127" s="63" t="s">
+      <c r="H127" s="71"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="67" t="s">
         <v>108</v>
       </c>
       <c r="K127" s="3" t="s">
@@ -3280,122 +3292,122 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="66"/>
+      <c r="A128" s="75"/>
+      <c r="B128" s="75"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="97"/>
       <c r="F128" s="32"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="74"/>
-      <c r="J128" s="64"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="68"/>
+      <c r="J128" s="69"/>
       <c r="K128" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="76"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="66"/>
+      <c r="A129" s="75"/>
+      <c r="B129" s="75"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="97"/>
       <c r="F129" s="32"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="74"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="68"/>
       <c r="J129" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="76"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="66"/>
+      <c r="A130" s="75"/>
+      <c r="B130" s="75"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="97"/>
       <c r="F130" s="32"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="64"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="69"/>
       <c r="J130" s="61" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="76"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="66"/>
+      <c r="A131" s="75"/>
+      <c r="B131" s="75"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="97"/>
       <c r="F131" s="32"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="69"/>
+      <c r="H131" s="71"/>
       <c r="I131" s="61" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="76"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="66"/>
+      <c r="A132" s="75"/>
+      <c r="B132" s="75"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="97"/>
       <c r="F132" s="32"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="69"/>
+      <c r="H132" s="71"/>
       <c r="I132" s="61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="76"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="66"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="97"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="69"/>
+      <c r="H133" s="71"/>
       <c r="I133" s="61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="66"/>
+      <c r="A134" s="75"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="97"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="69"/>
+      <c r="H134" s="71"/>
       <c r="I134" s="61" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="76"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="66"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="75"/>
+      <c r="C135" s="71"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="97"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="69"/>
+      <c r="H135" s="71"/>
       <c r="I135" s="61" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="67"/>
+      <c r="A136" s="76"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="98"/>
       <c r="F136" s="25"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="70"/>
+      <c r="H136" s="72"/>
       <c r="I136" s="61" t="s">
         <v>113</v>
       </c>
@@ -3407,131 +3419,131 @@
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="79" t="s">
+      <c r="A138" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="68" t="s">
+      <c r="B138" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="68" t="s">
+      <c r="C138" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="68" t="s">
+      <c r="D138" s="70" t="s">
         <v>53</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F138" s="66"/>
-      <c r="G138" s="72"/>
-      <c r="H138" s="63" t="s">
+      <c r="F138" s="97"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="63" t="s">
+      <c r="I138" s="67" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="79"/>
-      <c r="B139" s="69"/>
-      <c r="C139" s="69"/>
-      <c r="D139" s="69"/>
+      <c r="A139" s="73"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
       <c r="E139" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F139" s="66"/>
-      <c r="G139" s="72"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
+      <c r="F139" s="97"/>
+      <c r="G139" s="89"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="69"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="79"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
+      <c r="A140" s="73"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
       <c r="E140" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F140" s="67"/>
-      <c r="G140" s="73"/>
+      <c r="F140" s="98"/>
+      <c r="G140" s="90"/>
       <c r="H140" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="75" t="s">
+      <c r="A142" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="68" t="s">
+      <c r="B142" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="68" t="s">
+      <c r="C142" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="68" t="s">
+      <c r="D142" s="70" t="s">
         <v>53</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F142" s="65"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="63" t="s">
+      <c r="F142" s="96"/>
+      <c r="G142" s="88"/>
+      <c r="H142" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="I142" s="63" t="s">
+      <c r="I142" s="67" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="76"/>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
+      <c r="A143" s="75"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F143" s="66"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="74"/>
-      <c r="I143" s="74"/>
+      <c r="F143" s="97"/>
+      <c r="G143" s="89"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
-      <c r="B144" s="69"/>
-      <c r="C144" s="69"/>
-      <c r="D144" s="69"/>
+      <c r="A144" s="75"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
       <c r="E144" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F144" s="66"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="74"/>
-      <c r="I144" s="74"/>
+      <c r="F144" s="97"/>
+      <c r="G144" s="89"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="76"/>
-      <c r="B145" s="69"/>
-      <c r="C145" s="69"/>
-      <c r="D145" s="69"/>
+      <c r="A145" s="75"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
       <c r="E145" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="66"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="64"/>
-      <c r="I145" s="64"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="89"/>
+      <c r="H145" s="69"/>
+      <c r="I145" s="69"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="77"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
+      <c r="A146" s="76"/>
+      <c r="B146" s="72"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
       <c r="E146" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F146" s="67"/>
-      <c r="G146" s="73"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="90"/>
       <c r="H146" s="11" t="s">
         <v>9</v>
       </c>
@@ -3557,37 +3569,86 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="97"/>
+      <c r="A149" s="63"/>
       <c r="E149" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="97"/>
+      <c r="A150" s="63"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="97"/>
+      <c r="A151" s="63"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="98"/>
+      <c r="A152" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="H106:H112"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G114:G122"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="D106:D112"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="E114:E122"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="C114:C122"/>
-    <mergeCell ref="B114:B122"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="E125:E136"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="F142:G146"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="F138:G140"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="H125:H136"/>
+    <mergeCell ref="D125:D136"/>
+    <mergeCell ref="C125:C136"/>
+    <mergeCell ref="B125:B136"/>
+    <mergeCell ref="A125:A136"/>
+    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B64:B82"/>
+    <mergeCell ref="A64:A82"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D64:D82"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C64:C82"/>
     <mergeCell ref="L64:L74"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3612,70 +3673,21 @@
     <mergeCell ref="E74:E82"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="E125:E136"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="F142:G146"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="F138:G140"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="H125:H136"/>
-    <mergeCell ref="D125:D136"/>
-    <mergeCell ref="C125:C136"/>
-    <mergeCell ref="B125:B136"/>
-    <mergeCell ref="A125:A136"/>
-    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="H106:H112"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G114:G122"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="D106:D112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="E114:E122"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="C114:C122"/>
+    <mergeCell ref="B114:B122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98454C-44D5-4BC2-A58B-F580E43957A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD16E3-CC89-4EAC-9094-9B5397464719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>ath_list(list):运动员列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref_group(教练组）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,6 +559,18 @@
   </si>
   <si>
     <t>设置默认密码为12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrangeSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_group(裁判组）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,107 +1016,113 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM152"/>
+  <dimension ref="A1:AM153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1428,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -1463,13 +1477,13 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="67" t="s">
@@ -1487,10 +1501,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1503,16 +1517,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="72" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1521,44 +1535,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="70" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="71"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="71"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1578,13 +1592,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="92" t="s">
+      <c r="B11" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1598,9 +1612,9 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="92"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="67" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1622,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
@@ -1616,16 +1630,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="77"/>
+      <c r="L12" s="95"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="68"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1634,14 +1648,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="68"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1652,8 +1666,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1666,15 +1680,15 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="77"/>
+      <c r="K15" s="95"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1688,7 +1702,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1719,75 +1733,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="85" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="72" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="77"/>
+      <c r="K17" s="95"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="71"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="77"/>
+      <c r="K18" s="95"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="71"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="77"/>
+      <c r="K19" s="95"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="85" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1813,13 +1827,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1833,19 +1847,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="85" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="78" t="s">
+      <c r="I24" s="83" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1854,86 +1868,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="78"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="83"/>
       <c r="J25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="79"/>
-      <c r="I26" s="78"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="79"/>
-      <c r="I27" s="78"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="83"/>
       <c r="J27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="85" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="78"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="79"/>
-      <c r="I29" s="78"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="83"/>
       <c r="J29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
       <c r="H30" s="4" t="s">
         <v>68</v>
       </c>
@@ -1942,9 +1956,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="78"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
       <c r="H31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1966,13 +1980,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="83" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -1986,19 +2000,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="78"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="79" t="s">
+      <c r="H34" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="78" t="s">
+      <c r="I34" s="83" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -2007,97 +2021,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="85" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="79"/>
-      <c r="I35" s="78"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="83"/>
       <c r="J35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="79"/>
-      <c r="I36" s="78"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="83"/>
       <c r="J36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="78"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="78"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="83"/>
       <c r="J37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="78"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="78"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="83"/>
       <c r="J38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="78"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="78"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="78"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="78"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="78"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="83"/>
       <c r="J41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="78"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>68</v>
@@ -2107,9 +2121,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="78"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>67</v>
@@ -2132,13 +2146,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="83" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2152,19 +2166,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="78"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="78" t="s">
+      <c r="I46" s="83" t="s">
         <v>66</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2173,97 +2187,97 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="79" t="s">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="85" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
       <c r="J47" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
       <c r="J48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
       <c r="J49" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
       <c r="J51" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="78"/>
-      <c r="H54" s="78"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="83"/>
+      <c r="H54" s="83"/>
       <c r="I54" s="1" t="s">
         <v>81</v>
       </c>
@@ -2271,9 +2285,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="78"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
       <c r="H55" s="4" t="s">
         <v>68</v>
       </c>
@@ -2282,9 +2296,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="78"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="83"/>
       <c r="H56" s="4" t="s">
         <v>67</v>
       </c>
@@ -2331,11 +2345,11 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="78"/>
+      <c r="A60" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="72"/>
+      <c r="C60" s="83"/>
       <c r="D60" s="67"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2343,33 +2357,33 @@
       <c r="H60" s="67"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
-      <c r="L60" s="77"/>
+      <c r="L60" s="95"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="87"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="68"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="68"/>
+      <c r="H61" s="81"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
-      <c r="L61" s="77"/>
+      <c r="L61" s="95"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="87"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="69"/>
+      <c r="H62" s="68"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="77"/>
+      <c r="L62" s="95"/>
     </row>
     <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2403,17 +2417,17 @@
       <c r="AG63" s="3"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78" t="s">
+      <c r="B64" s="83"/>
+      <c r="C64" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E64" s="72" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2424,14 +2438,14 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
-      <c r="L64" s="77"/>
+      <c r="L64" s="95"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="71"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2440,14 +2454,14 @@
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="77"/>
+      <c r="L65" s="95"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="72"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2458,14 +2472,14 @@
         <v>24</v>
       </c>
       <c r="J66" s="6"/>
-      <c r="L66" s="77"/>
+      <c r="L66" s="95"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="70" t="s">
+      <c r="A67" s="91"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2474,42 +2488,42 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="77"/>
+      <c r="L67" s="95"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="71"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="77"/>
+      <c r="L68" s="95"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="72"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="29"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="77"/>
+      <c r="L69" s="95"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="70" t="s">
+      <c r="A70" s="91"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="72" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2518,56 +2532,56 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="77"/>
+      <c r="L70" s="95"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="71"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="77"/>
+      <c r="L71" s="95"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="71"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="73"/>
       <c r="F72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="77"/>
+      <c r="L72" s="95"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="72"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="74"/>
       <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="77"/>
+      <c r="L73" s="95"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="70" t="s">
+      <c r="A74" s="91"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="72" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2576,14 +2590,14 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="77"/>
+      <c r="L74" s="95"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="71"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
@@ -2592,11 +2606,11 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="71"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="73"/>
       <c r="F76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2605,11 +2619,11 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="86"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="71"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="73"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
@@ -2618,11 +2632,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="86"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="71"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="73"/>
       <c r="F78" s="4" t="s">
         <v>38</v>
       </c>
@@ -2631,11 +2645,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="71"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="73"/>
       <c r="F79" s="4" t="s">
         <v>33</v>
       </c>
@@ -2644,11 +2658,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="71"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="73"/>
       <c r="F80" s="29"/>
       <c r="G80" s="39"/>
       <c r="H80" s="29"/>
@@ -2658,11 +2672,11 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="71"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="73"/>
       <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
@@ -2671,11 +2685,11 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="72"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="74"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -2720,14 +2734,14 @@
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="81" t="s">
+      <c r="A86" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70" t="s">
+      <c r="B86" s="72"/>
+      <c r="C86" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="70" t="s">
+      <c r="D86" s="72" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -2744,10 +2758,10 @@
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
       <c r="E87" s="6" t="s">
         <v>45</v>
       </c>
@@ -2757,10 +2771,10 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
       <c r="E88" s="7" t="s">
         <v>44</v>
       </c>
@@ -2792,14 +2806,16 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91" t="s">
+      <c r="A91" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="88" t="s">
+      <c r="D91" s="78" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -2812,10 +2828,10 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="82"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="89"/>
+      <c r="A92" s="87"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="79"/>
       <c r="E92" s="4" t="s">
         <v>55</v>
       </c>
@@ -2826,10 +2842,10 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="89"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="79"/>
       <c r="E93" s="4" t="s">
         <v>56</v>
       </c>
@@ -2840,12 +2856,12 @@
       <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="82"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="89"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="79"/>
       <c r="E94" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>90</v>
@@ -2857,372 +2873,377 @@
       <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="82"/>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="68"/>
+      <c r="A95" s="87"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="81"/>
       <c r="F95" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="20"/>
       <c r="J95" s="39"/>
       <c r="L95" s="37"/>
     </row>
-    <row r="96" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="69"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="87"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="81"/>
       <c r="F96" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="66"/>
+      <c r="L96" s="65"/>
+    </row>
+    <row r="97" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="87"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="87"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="46"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="L98" s="37"/>
-    </row>
-    <row r="99" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="81" t="s">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="45"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="46"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="L99" s="37"/>
+    </row>
+    <row r="100" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="70"/>
-      <c r="C99" s="70" t="s">
+      <c r="B100" s="72"/>
+      <c r="C100" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="70" t="s">
+      <c r="D100" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="82"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="4" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="87"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="82"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="4" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="87"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="70" t="s">
+    <row r="107" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="70" t="s">
+      <c r="D107" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="70"/>
-      <c r="H106" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="H107" s="68"/>
+      <c r="E107" s="72"/>
+      <c r="H107" s="67" t="s">
+        <v>114</v>
+      </c>
       <c r="I107" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="2"/>
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="H108" s="68"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="H108" s="81"/>
       <c r="I108" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="2"/>
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="H109" s="68"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="H109" s="81"/>
       <c r="I109" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="H110" s="68"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="H110" s="81"/>
       <c r="I110" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="2"/>
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="71"/>
-      <c r="E111" s="71"/>
-      <c r="H111" s="68"/>
+      <c r="A111" s="82"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="H111" s="81"/>
       <c r="I111" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="H112" s="69"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="H112" s="81"/>
       <c r="I112" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="51"/>
-      <c r="L113" s="50"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="70" t="s">
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="51"/>
+      <c r="L114" s="50"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="70" t="s">
+      <c r="D115" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="I114" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="J114" s="3"/>
-      <c r="K114" s="50"/>
-      <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="75"/>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72" t="s">
+        <v>115</v>
+      </c>
       <c r="I115" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="50"/>
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="75"/>
-      <c r="B116" s="75"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
+      <c r="A116" s="76"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
       <c r="I116" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="50"/>
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="75"/>
-      <c r="B117" s="75"/>
-      <c r="C117" s="71"/>
-      <c r="D117" s="71"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
+      <c r="A117" s="76"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="73"/>
       <c r="I117" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="50"/>
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="75"/>
-      <c r="B118" s="75"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
+      <c r="A118" s="76"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="73"/>
       <c r="I118" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="50"/>
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="75"/>
-      <c r="B119" s="75"/>
-      <c r="C119" s="71"/>
-      <c r="D119" s="71"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
+      <c r="A119" s="76"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
       <c r="I119" s="51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="50"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="75"/>
-      <c r="B120" s="75"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="71"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="76"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
       <c r="I120" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J120" s="3"/>
-      <c r="K120" s="2"/>
+      <c r="K120" s="50"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="75"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="71"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="76"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="73"/>
+      <c r="I121" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="J121" s="3"/>
       <c r="K121" s="2"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="76"/>
       <c r="B122" s="76"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="66"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="73"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="73"/>
+      <c r="I122" s="99" t="s">
+        <v>113</v>
+      </c>
       <c r="J122" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K122" s="44"/>
+        <v>105</v>
+      </c>
+      <c r="K122" s="2"/>
       <c r="L122" s="3"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-      <c r="L123" s="44"/>
+      <c r="A123" s="77"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="74"/>
+      <c r="I123" s="100"/>
+      <c r="J123" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K123" s="44"/>
+      <c r="L123" s="3"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
@@ -3235,420 +3256,381 @@
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="74" t="s">
+      <c r="A125" s="42"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="L125" s="44"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="70" t="s">
+      <c r="E126" s="69"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="I126" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="J126" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="96"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="I125" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="J125" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="75"/>
-      <c r="B126" s="75"/>
-      <c r="C126" s="71"/>
-      <c r="D126" s="71"/>
-      <c r="E126" s="97"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="68"/>
-      <c r="J126" s="61" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
-      <c r="B127" s="75"/>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="97"/>
+      <c r="A127" s="76"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="70"/>
       <c r="F127" s="32"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="68"/>
-      <c r="J127" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>106</v>
+      <c r="H127" s="73"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="61" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="75"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="97"/>
+      <c r="A128" s="76"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="73"/>
+      <c r="E128" s="70"/>
       <c r="F128" s="32"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="68"/>
-      <c r="J128" s="69"/>
+      <c r="H128" s="73"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="67" t="s">
+        <v>107</v>
+      </c>
       <c r="K128" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="75"/>
-      <c r="B129" s="75"/>
-      <c r="C129" s="71"/>
-      <c r="D129" s="71"/>
-      <c r="E129" s="97"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="76"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="70"/>
       <c r="F129" s="32"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="68"/>
-      <c r="J129" s="61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="75"/>
-      <c r="B130" s="75"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
-      <c r="E130" s="97"/>
+      <c r="H129" s="73"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="68"/>
+      <c r="K129" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="76"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="70"/>
       <c r="F130" s="32"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="69"/>
+      <c r="H130" s="73"/>
+      <c r="I130" s="81"/>
       <c r="J130" s="61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="75"/>
-      <c r="B131" s="75"/>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="97"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="76"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="73"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="70"/>
       <c r="F131" s="32"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="61" t="s">
+      <c r="H131" s="73"/>
+      <c r="I131" s="68"/>
+      <c r="J131" s="61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="75"/>
-      <c r="B132" s="75"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="71"/>
-      <c r="E132" s="97"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="76"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="70"/>
       <c r="F132" s="32"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="71"/>
+      <c r="H132" s="73"/>
       <c r="I132" s="61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="75"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="97"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="76"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="70"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="71"/>
+      <c r="H133" s="73"/>
       <c r="I133" s="61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="75"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="97"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="76"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="70"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="71"/>
+      <c r="H134" s="73"/>
       <c r="I134" s="61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="75"/>
-      <c r="B135" s="75"/>
-      <c r="C135" s="71"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="97"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="76"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="70"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="71"/>
+      <c r="H135" s="73"/>
       <c r="I135" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="76"/>
       <c r="B136" s="76"/>
-      <c r="C136" s="72"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="59"/>
-      <c r="H136" s="72"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="73"/>
       <c r="I136" s="61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F137" s="56"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="77"/>
+      <c r="B137" s="77"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F138" s="56"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138" s="70" t="s">
+      <c r="C139" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="70" t="s">
+      <c r="D139" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F138" s="97"/>
-      <c r="G138" s="89"/>
-      <c r="H138" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I138" s="67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="73"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
       <c r="E139" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F139" s="97"/>
-      <c r="G139" s="89"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="69"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="73"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="72"/>
-      <c r="D140" s="72"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="82"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73"/>
       <c r="E140" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F140" s="98"/>
-      <c r="G140" s="90"/>
-      <c r="H140" s="55" t="s">
+      <c r="F140" s="70"/>
+      <c r="G140" s="79"/>
+      <c r="H140" s="68"/>
+      <c r="I140" s="68"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="82"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F141" s="71"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="74" t="s">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C142" s="70" t="s">
+      <c r="C143" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="70" t="s">
+      <c r="D143" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F142" s="96"/>
-      <c r="G142" s="88"/>
-      <c r="H142" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I142" s="67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="75"/>
-      <c r="B143" s="71"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="71"/>
       <c r="E143" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F143" s="97"/>
-      <c r="G143" s="89"/>
-      <c r="H143" s="68"/>
-      <c r="I143" s="68"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="75"/>
-      <c r="B144" s="71"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="78"/>
+      <c r="H143" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="76"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
       <c r="E144" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F144" s="97"/>
-      <c r="G144" s="89"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
+        <v>122</v>
+      </c>
+      <c r="F144" s="70"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="75"/>
-      <c r="B145" s="71"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
+      <c r="A145" s="76"/>
+      <c r="B145" s="73"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="73"/>
       <c r="E145" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="97"/>
-      <c r="G145" s="89"/>
-      <c r="H145" s="69"/>
-      <c r="I145" s="69"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="76"/>
-      <c r="B146" s="72"/>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
       <c r="E146" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F146" s="70"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="68"/>
+      <c r="I146" s="68"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="77"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F147" s="71"/>
+      <c r="G147" s="80"/>
+      <c r="H147" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="F146" s="98"/>
-      <c r="G146" s="90"/>
-      <c r="H146" s="11" t="s">
+      <c r="B149" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H149" s="55" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H148" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
-      <c r="E149" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="63"/>
+      <c r="E150" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="63"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="64"/>
+      <c r="A152" s="63"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="E125:E136"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="F142:G146"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="F138:G140"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="H125:H136"/>
-    <mergeCell ref="D125:D136"/>
-    <mergeCell ref="C125:C136"/>
-    <mergeCell ref="B125:B136"/>
-    <mergeCell ref="A125:A136"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="H107:H113"/>
+    <mergeCell ref="H115:H123"/>
+    <mergeCell ref="G115:G123"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="A115:A123"/>
+    <mergeCell ref="F115:F123"/>
+    <mergeCell ref="E115:E123"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="C115:C123"/>
+    <mergeCell ref="B115:B123"/>
     <mergeCell ref="L64:L74"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3673,21 +3655,70 @@
     <mergeCell ref="E74:E82"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="H106:H112"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G114:G122"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C106:C112"/>
-    <mergeCell ref="D106:D112"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="E114:E122"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="C114:C122"/>
-    <mergeCell ref="B114:B122"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D91:D98"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="B64:B82"/>
+    <mergeCell ref="A64:A82"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D64:D82"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="E126:E137"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="F143:G147"/>
+    <mergeCell ref="H143:H146"/>
+    <mergeCell ref="I143:I146"/>
+    <mergeCell ref="F139:G141"/>
+    <mergeCell ref="D143:D147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="H126:H137"/>
+    <mergeCell ref="D126:D137"/>
+    <mergeCell ref="C126:C137"/>
+    <mergeCell ref="B126:B137"/>
+    <mergeCell ref="A126:A137"/>
+    <mergeCell ref="I126:I131"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD16E3-CC89-4EAC-9094-9B5397464719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA442B-6A55-4790-8A27-DF81DD98E255}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>ath_list(list):运动员列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chief referee(string):裁判长id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,11 +562,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref_group(裁判组）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
+    <t>time(时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_group(裁判组_id）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqParam(object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge_id(string)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,21 +1038,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,6 +1065,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,36 +1077,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,35 +1125,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM153"/>
+  <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1444,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -1477,16 +1493,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1501,10 +1517,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="81"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1533,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="73" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1535,44 +1551,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="73"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="74"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1592,13 +1608,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1612,17 +1628,17 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="67" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
@@ -1630,16 +1646,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="95"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="81"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1648,14 +1664,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1666,8 +1682,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1680,15 +1696,15 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="95"/>
+      <c r="K15" s="80"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1702,7 +1718,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="95"/>
+      <c r="K16" s="80"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1733,75 +1749,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="85" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="73" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="95"/>
+      <c r="K17" s="80"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="95"/>
+      <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="85"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="73"/>
+      <c r="H19" s="74"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="95"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="85" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="74"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="85"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1827,13 +1843,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="81" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1847,19 +1863,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="85" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="83" t="s">
+      <c r="I24" s="81" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1868,86 +1884,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="83"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="83"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="83"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="85" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="81"/>
       <c r="J28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="85"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="83"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="81"/>
       <c r="J29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="81"/>
       <c r="H30" s="4" t="s">
         <v>68</v>
       </c>
@@ -1956,9 +1972,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="81"/>
       <c r="H31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1980,13 +1996,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="81" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2000,19 +2016,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="81" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -2021,97 +2037,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="85" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="83"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
       <c r="J35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="85"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="81"/>
       <c r="J36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="83"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="81"/>
       <c r="J37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="83"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="81"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="81"/>
       <c r="J38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="83"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="81"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="81"/>
       <c r="J39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="83"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="81"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="81"/>
       <c r="J40" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="83"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="81"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="81"/>
       <c r="J41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>68</v>
@@ -2121,9 +2137,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>67</v>
@@ -2146,13 +2162,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="81" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2166,19 +2182,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="83" t="s">
+      <c r="I46" s="81" t="s">
         <v>66</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2187,97 +2203,97 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="85" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="82" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
       <c r="J47" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="85"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
       <c r="J48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
       <c r="J49" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
       <c r="J50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="4" t="s">
         <v>77</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
       <c r="J53" s="4" t="s">
         <v>78</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="83"/>
-      <c r="H54" s="83"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="81"/>
+      <c r="H54" s="81"/>
       <c r="I54" s="1" t="s">
         <v>81</v>
       </c>
@@ -2285,9 +2301,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="83"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="81"/>
       <c r="H55" s="4" t="s">
         <v>68</v>
       </c>
@@ -2296,9 +2312,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="83"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="81"/>
       <c r="H56" s="4" t="s">
         <v>67</v>
       </c>
@@ -2345,443 +2361,450 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="73"/>
+      <c r="C60" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="67"/>
+      <c r="H60" s="70"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
-      <c r="L60" s="95"/>
+      <c r="L60" s="80"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="9"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="67"/>
       <c r="J61" s="6"/>
-      <c r="L61" s="95"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="6"/>
-      <c r="L62" s="95"/>
-    </row>
-    <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
+      <c r="L61" s="80"/>
+    </row>
+    <row r="62" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="6"/>
+      <c r="L63" s="80"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="72" t="s">
-        <v>27</v>
-      </c>
+      <c r="A64" s="89"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
-      <c r="L64" s="95"/>
+      <c r="L64" s="80"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="73"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="75"/>
       <c r="F65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="L65" s="80"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="89"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="6"/>
+      <c r="L66" s="80"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="89"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="6"/>
-      <c r="L65" s="95"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="L66" s="95"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="95"/>
+      <c r="L67" s="80"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="73"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="75"/>
       <c r="F68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="6"/>
+      <c r="L68" s="80"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="89"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="6"/>
+      <c r="L69" s="80"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="89"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="6"/>
-      <c r="L68" s="95"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="6"/>
-      <c r="L69" s="95"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="95"/>
+      <c r="L70" s="80"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="73"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="95"/>
+      <c r="L71" s="80"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="73"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="75"/>
       <c r="F72" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="95"/>
+      <c r="L72" s="80"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="74"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="73" t="s">
+        <v>30</v>
+      </c>
       <c r="F73" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="95"/>
+      <c r="L73" s="80"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="72" t="s">
-        <v>30</v>
-      </c>
+      <c r="A74" s="89"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="74"/>
       <c r="F74" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="95"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="73"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="73"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="91"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="73"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="74"/>
       <c r="F77" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="91"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="73"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="74"/>
       <c r="F78" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A79" s="89"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="39"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H80" s="29"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="3"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="9"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="73"/>
+      <c r="A81" s="89"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="75"/>
       <c r="F81" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
+    <row r="82" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+    <row r="83" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="25"/>
-      <c r="F83" s="5"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-    </row>
-    <row r="84" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="A85" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J86" s="12"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="96"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="9"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="97"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
@@ -2792,13 +2815,25 @@
       <c r="G89" s="14"/>
       <c r="H89" s="17"/>
       <c r="I89" s="20"/>
+      <c r="J89" s="29"/>
+      <c r="L89" s="30"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="14"/>
+      <c r="A90" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G90" s="14"/>
       <c r="H90" s="17"/>
       <c r="I90" s="20"/>
@@ -2806,20 +2841,12 @@
       <c r="L90" s="30"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="78" t="s">
-        <v>47</v>
-      </c>
+      <c r="A91" s="85"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="91"/>
       <c r="E91" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="17"/>
@@ -2828,12 +2855,12 @@
       <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="87"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="79"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="91"/>
       <c r="E92" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="17"/>
@@ -2842,151 +2869,148 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="87"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="4" t="s">
-        <v>56</v>
+      <c r="A93" s="85"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="17"/>
       <c r="I93" s="20"/>
-      <c r="J93" s="29"/>
-      <c r="L93" s="30"/>
+      <c r="J93" s="39"/>
+      <c r="L93" s="37"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="87"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="67" t="s">
+      <c r="A94" s="85"/>
+      <c r="B94" s="94"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G94" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G94" s="14"/>
       <c r="H94" s="17"/>
       <c r="I94" s="20"/>
       <c r="J94" s="39"/>
       <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="87"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="81"/>
+      <c r="A95" s="85"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="71"/>
       <c r="F95" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>94</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G95" s="14"/>
       <c r="H95" s="17"/>
       <c r="I95" s="20"/>
-      <c r="J95" s="39"/>
-      <c r="L95" s="37"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="87"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="81"/>
+      <c r="J95" s="66"/>
+      <c r="L95" s="65"/>
+    </row>
+    <row r="96" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="85"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="94"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="72"/>
       <c r="F96" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G96" s="14"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="66"/>
-      <c r="L96" s="65"/>
-    </row>
-    <row r="97" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="87"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G97" s="14"/>
-      <c r="H97" s="4" t="s">
+      <c r="H96" s="4" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="85"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="92"/>
+    </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="87"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="46"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="L99" s="37"/>
-    </row>
-    <row r="100" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="86" t="s">
+      <c r="A98" s="45"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="46"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="L98" s="37"/>
+    </row>
+    <row r="99" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72" t="s">
+      <c r="B99" s="73"/>
+      <c r="C99" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="72" t="s">
+      <c r="D99" s="73" t="s">
         <v>8</v>
       </c>
+      <c r="E99" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="85"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
       <c r="E100" s="4" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="87"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
+      <c r="A101" s="85"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="87"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" s="72" t="s">
+    <row r="106" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="72" t="s">
+      <c r="D106" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="72"/>
-      <c r="H107" s="67" t="s">
-        <v>114</v>
-      </c>
+      <c r="E106" s="73"/>
+      <c r="H106" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="76"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="H107" s="71"/>
       <c r="I107" s="11" t="s">
         <v>100</v>
       </c>
@@ -2995,12 +3019,12 @@
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="H108" s="81"/>
+      <c r="A108" s="76"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="H108" s="71"/>
       <c r="I108" s="11" t="s">
         <v>101</v>
       </c>
@@ -3009,12 +3033,12 @@
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="82"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="H109" s="81"/>
+      <c r="A109" s="76"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="H109" s="71"/>
       <c r="I109" s="11" t="s">
         <v>102</v>
       </c>
@@ -3023,12 +3047,12 @@
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="82"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="H110" s="81"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="H110" s="71"/>
       <c r="I110" s="11" t="s">
         <v>103</v>
       </c>
@@ -3037,26 +3061,26 @@
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="H111" s="81"/>
+      <c r="A111" s="76"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="H111" s="71"/>
       <c r="I111" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="H112" s="81"/>
+      <c r="A112" s="76"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
+      <c r="H112" s="72"/>
       <c r="I112" s="11" t="s">
         <v>108</v>
       </c>
@@ -3065,49 +3089,51 @@
       <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="82"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J113" s="3"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="3"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="51"/>
+      <c r="L113" s="50"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="47"/>
-      <c r="J114" s="51"/>
-      <c r="L114" s="50"/>
+      <c r="A114" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I114" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72" t="s">
-        <v>115</v>
-      </c>
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
       <c r="I115" s="51" t="s">
         <v>100</v>
       </c>
@@ -3116,14 +3142,14 @@
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="76"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
+      <c r="A116" s="78"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
       <c r="I116" s="51" t="s">
         <v>101</v>
       </c>
@@ -3132,14 +3158,14 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="76"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="73"/>
-      <c r="H117" s="73"/>
+      <c r="A117" s="78"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
       <c r="I117" s="51" t="s">
         <v>102</v>
       </c>
@@ -3148,14 +3174,14 @@
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
-      <c r="H118" s="73"/>
+      <c r="A118" s="78"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
       <c r="I118" s="51" t="s">
         <v>103</v>
       </c>
@@ -3164,86 +3190,80 @@
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="76"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
+      <c r="A119" s="78"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="74"/>
       <c r="I119" s="51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="50"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
+    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="78"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
       <c r="I120" s="51" t="s">
         <v>108</v>
       </c>
       <c r="J120" s="3"/>
-      <c r="K120" s="50"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="76"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="73"/>
-      <c r="I121" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="J121" s="3"/>
+    <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="78"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="K121" s="2"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="76"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-      <c r="I122" s="99" t="s">
-        <v>113</v>
-      </c>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="79"/>
+      <c r="B122" s="79"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
+      <c r="G122" s="75"/>
+      <c r="H122" s="75"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K122" s="2"/>
+      <c r="K122" s="44"/>
       <c r="L122" s="3"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="100"/>
-      <c r="J123" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K123" s="44"/>
-      <c r="L123" s="3"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
+      <c r="L123" s="44"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
@@ -3256,386 +3276,426 @@
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="L125" s="44"/>
+      <c r="A125" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B125" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E125" s="98"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="I125" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="J125" s="61" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="E126" s="69"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="I126" s="67" t="s">
-        <v>133</v>
-      </c>
+      <c r="A126" s="78"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="99"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="74"/>
+      <c r="I126" s="71"/>
       <c r="J126" s="61" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="76"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="70"/>
+      <c r="A127" s="78"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="99"/>
       <c r="F127" s="32"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="81"/>
-      <c r="J127" s="61" t="s">
-        <v>101</v>
+      <c r="H127" s="74"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="70"/>
+      <c r="A128" s="78"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="99"/>
       <c r="F128" s="32"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="73"/>
-      <c r="I128" s="81"/>
-      <c r="J128" s="67" t="s">
-        <v>107</v>
-      </c>
+      <c r="H128" s="74"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="72"/>
       <c r="K128" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="76"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="70"/>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="78"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="99"/>
       <c r="F129" s="32"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="73"/>
-      <c r="I129" s="81"/>
-      <c r="J129" s="68"/>
-      <c r="K129" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="76"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="70"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="78"/>
+      <c r="B130" s="78"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="99"/>
       <c r="F130" s="32"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="73"/>
-      <c r="I130" s="81"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="72"/>
       <c r="J130" s="61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="76"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="70"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="78"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="99"/>
       <c r="F131" s="32"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="73"/>
-      <c r="I131" s="68"/>
-      <c r="J131" s="61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="76"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="73"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="70"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="78"/>
+      <c r="B132" s="78"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="99"/>
       <c r="F132" s="32"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="73"/>
+      <c r="H132" s="74"/>
       <c r="I132" s="61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="76"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="70"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="78"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="99"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="73"/>
+      <c r="H133" s="74"/>
       <c r="I133" s="61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="70"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
+      <c r="B134" s="78"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="99"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="73"/>
+      <c r="H134" s="74"/>
       <c r="I134" s="61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="76"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="70"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="78"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="99"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="73"/>
+      <c r="H135" s="74"/>
       <c r="I135" s="61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="76"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="58"/>
-      <c r="H136" s="73"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="79"/>
+      <c r="B136" s="79"/>
+      <c r="C136" s="75"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="100"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="75"/>
       <c r="I136" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
-      <c r="B137" s="77"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F138" s="56"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="56"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="B139" s="72" t="s">
+      <c r="C138" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F138" s="99"/>
+      <c r="G138" s="91"/>
+      <c r="H138" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="76"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F139" s="99"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="76"/>
+      <c r="B140" s="75"/>
+      <c r="C140" s="75"/>
+      <c r="D140" s="75"/>
+      <c r="E140" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C139" s="72" t="s">
+      <c r="F140" s="100"/>
+      <c r="G140" s="92"/>
+      <c r="H140" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B142" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="72" t="s">
+      <c r="D142" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E142" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F142" s="98"/>
+      <c r="G142" s="90"/>
+      <c r="H142" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="F139" s="70"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="82"/>
-      <c r="B140" s="73"/>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F140" s="70"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="68"/>
-      <c r="I140" s="68"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="82"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="4" t="s">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="78"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F141" s="71"/>
-      <c r="G141" s="80"/>
-      <c r="H141" s="55" t="s">
+      <c r="F143" s="99"/>
+      <c r="G143" s="91"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="71"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="78"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F144" s="99"/>
+      <c r="G144" s="91"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="78"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F145" s="99"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="79"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="75"/>
+      <c r="E146" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F146" s="100"/>
+      <c r="G146" s="92"/>
+      <c r="H146" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B143" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="72" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="72" t="s">
+      <c r="D148" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F143" s="69"/>
-      <c r="G143" s="78"/>
-      <c r="H143" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F144" s="70"/>
-      <c r="G144" s="79"/>
-      <c r="H144" s="81"/>
-      <c r="I144" s="81"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="76"/>
-      <c r="B145" s="73"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="70"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="76"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F146" s="70"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="68"/>
-      <c r="I146" s="68"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F147" s="71"/>
-      <c r="G147" s="80"/>
-      <c r="H147" s="11" t="s">
+      <c r="E148" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H148" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="A149" s="63"/>
       <c r="E149" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H149" s="55" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="63"/>
-      <c r="E150" s="4" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="63"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="64"/>
+      <c r="A152" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="H107:H113"/>
-    <mergeCell ref="H115:H123"/>
-    <mergeCell ref="G115:G123"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="A115:A123"/>
-    <mergeCell ref="F115:F123"/>
-    <mergeCell ref="E115:E123"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="C115:C123"/>
-    <mergeCell ref="B115:B123"/>
-    <mergeCell ref="L64:L74"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="E125:E136"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="F142:G146"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="F138:G140"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="H125:H136"/>
+    <mergeCell ref="D125:D136"/>
+    <mergeCell ref="C125:C136"/>
+    <mergeCell ref="B125:B136"/>
+    <mergeCell ref="A125:A136"/>
+    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="B63:B81"/>
+    <mergeCell ref="A63:A81"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D63:D81"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C63:C81"/>
+    <mergeCell ref="L63:L73"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="L60:L62"/>
-    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="H60:H61"/>
     <mergeCell ref="K12:K19"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
@@ -3649,76 +3709,26 @@
     <mergeCell ref="I34:I41"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E82"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D91:D98"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="E126:E137"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="F143:G147"/>
-    <mergeCell ref="H143:H146"/>
-    <mergeCell ref="I143:I146"/>
-    <mergeCell ref="F139:G141"/>
-    <mergeCell ref="D143:D147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="H126:H137"/>
-    <mergeCell ref="D126:D137"/>
-    <mergeCell ref="C126:C137"/>
-    <mergeCell ref="B126:B137"/>
-    <mergeCell ref="A126:A137"/>
-    <mergeCell ref="I126:I131"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="E73:E81"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="H106:H112"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G114:G122"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="D106:D112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="E114:E122"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="C114:C122"/>
+    <mergeCell ref="B114:B122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD16E3-CC89-4EAC-9094-9B5397464719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82B1C47-F393-40BF-AB9E-8ED76BA3B0F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,14 +192,6 @@
   </si>
   <si>
     <t>itemName(string):项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genderGroup(object):性别分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageGroup(object):年龄分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,6 +563,29 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAthleteList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_name(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_name(string)</t>
+  </si>
+  <si>
+    <t>sex(string):性别分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age(string):年龄分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,21 +1037,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,6 +1070,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,36 +1082,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,34 +1133,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM153"/>
+  <dimension ref="A1:AM155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1455,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -1477,16 +1504,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="72" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1501,10 +1528,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="81"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1544,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1535,44 +1562,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="72"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="75"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="73"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="74"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1592,17 +1619,17 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="89" t="s">
+      <c r="A11" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="97" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1612,17 +1639,17 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="67" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="72" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
@@ -1630,16 +1657,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="95"/>
+      <c r="K12" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="81"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1648,14 +1675,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1666,8 +1693,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1680,19 +1707,19 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="95"/>
+      <c r="K15" s="82"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="83"/>
       <c r="C16" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1702,7 +1729,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="95"/>
+      <c r="K16" s="82"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1736,62 +1763,62 @@
       <c r="A17" s="91"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="84" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="95"/>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="91"/>
       <c r="B18" s="83"/>
       <c r="C18" s="83"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="95"/>
+      <c r="K18" s="82"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="91"/>
       <c r="B19" s="83"/>
       <c r="C19" s="83"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="73"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="95"/>
+      <c r="K19" s="82"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="91"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83"/>
-      <c r="D20" s="85" t="s">
-        <v>57</v>
+      <c r="D20" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="74"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
@@ -1801,9 +1828,9 @@
       <c r="A21" s="91"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83"/>
-      <c r="D21" s="85"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>18</v>
@@ -1827,140 +1854,140 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="D23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="83"/>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="83"/>
       <c r="J25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="83"/>
-      <c r="D26" s="85"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="85"/>
+        <v>54</v>
+      </c>
+      <c r="H26" s="84"/>
       <c r="I26" s="83"/>
       <c r="J26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="85"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="85"/>
+        <v>83</v>
+      </c>
+      <c r="H27" s="84"/>
       <c r="I27" s="83"/>
       <c r="J27" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="83"/>
-      <c r="D28" s="85" t="s">
-        <v>57</v>
+      <c r="D28" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="85"/>
+        <v>67</v>
+      </c>
+      <c r="H28" s="84"/>
       <c r="I28" s="83"/>
       <c r="J28" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="83"/>
-      <c r="D29" s="85"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="85"/>
+        <v>68</v>
+      </c>
+      <c r="H29" s="84"/>
       <c r="I29" s="83"/>
       <c r="J29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="83"/>
       <c r="H30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="83"/>
       <c r="H31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1980,153 +2007,153 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>75</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="83"/>
       <c r="D34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="85" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="H34" s="84" t="s">
+        <v>57</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="83"/>
-      <c r="D35" s="85" t="s">
-        <v>57</v>
+      <c r="D35" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="85"/>
+        <v>67</v>
+      </c>
+      <c r="H35" s="84"/>
       <c r="I35" s="83"/>
       <c r="J35" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="83"/>
-      <c r="D36" s="85"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="85"/>
+        <v>68</v>
+      </c>
+      <c r="H36" s="84"/>
       <c r="I36" s="83"/>
       <c r="J36" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="83"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="85"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="83"/>
       <c r="J37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="83"/>
-      <c r="H38" s="85"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="83"/>
       <c r="J38" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="83"/>
-      <c r="H39" s="85"/>
+      <c r="H39" s="84"/>
       <c r="I39" s="83"/>
       <c r="J39" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="83"/>
-      <c r="H40" s="85"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="83"/>
       <c r="J40" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="83"/>
-      <c r="H41" s="85"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="83"/>
       <c r="J41" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="83"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="83"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2146,161 +2173,161 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>80</v>
+      <c r="A45" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>78</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="83"/>
       <c r="D46" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="85" t="s">
-        <v>57</v>
+      <c r="D47" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H47" s="83"/>
       <c r="I47" s="83"/>
       <c r="J47" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="83"/>
-      <c r="D48" s="85"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H48" s="83"/>
       <c r="I48" s="83"/>
       <c r="J48" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="83"/>
       <c r="H49" s="83"/>
       <c r="I49" s="83"/>
       <c r="J49" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="83"/>
       <c r="H50" s="83"/>
       <c r="I50" s="83"/>
       <c r="J50" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
       <c r="C51" s="83"/>
       <c r="H51" s="83"/>
       <c r="I51" s="83"/>
       <c r="J51" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
       <c r="C52" s="83"/>
       <c r="H52" s="83"/>
       <c r="I52" s="83"/>
       <c r="J52" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="83"/>
       <c r="H53" s="83"/>
       <c r="I53" s="83"/>
       <c r="J53" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="78"/>
       <c r="C54" s="83"/>
       <c r="H54" s="83"/>
       <c r="I54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="83"/>
       <c r="H55" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
       <c r="C56" s="83"/>
       <c r="H56" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -2346,44 +2373,44 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="72"/>
+        <v>130</v>
+      </c>
+      <c r="B60" s="75"/>
       <c r="C60" s="83"/>
-      <c r="D60" s="67"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="67"/>
+      <c r="H60" s="72"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
-      <c r="L60" s="95"/>
+      <c r="L60" s="82"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="92"/>
-      <c r="B61" s="73"/>
+      <c r="B61" s="76"/>
       <c r="C61" s="83"/>
-      <c r="D61" s="81"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="81"/>
+      <c r="H61" s="73"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
-      <c r="L61" s="95"/>
+      <c r="L61" s="82"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="92"/>
-      <c r="B62" s="74"/>
+      <c r="B62" s="77"/>
       <c r="C62" s="83"/>
-      <c r="D62" s="68"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="68"/>
+      <c r="H62" s="74"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="95"/>
+      <c r="L62" s="82"/>
     </row>
     <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2418,7 +2445,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="91" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" s="83"/>
       <c r="C64" s="83" t="s">
@@ -2427,7 +2454,7 @@
       <c r="D64" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="72" t="s">
+      <c r="E64" s="75" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2438,14 +2465,14 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
-      <c r="L64" s="95"/>
+      <c r="L64" s="82"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="91"/>
       <c r="B65" s="83"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
-      <c r="E65" s="73"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2454,14 +2481,14 @@
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="95"/>
+      <c r="L65" s="82"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="91"/>
       <c r="B66" s="83"/>
       <c r="C66" s="83"/>
       <c r="D66" s="83"/>
-      <c r="E66" s="74"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2472,14 +2499,14 @@
         <v>24</v>
       </c>
       <c r="J66" s="6"/>
-      <c r="L66" s="95"/>
+      <c r="L66" s="82"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="91"/>
       <c r="B67" s="83"/>
       <c r="C67" s="83"/>
       <c r="D67" s="83"/>
-      <c r="E67" s="72" t="s">
+      <c r="E67" s="75" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2488,42 +2515,42 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="95"/>
+      <c r="L67" s="82"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="91"/>
       <c r="B68" s="83"/>
       <c r="C68" s="83"/>
       <c r="D68" s="83"/>
-      <c r="E68" s="73"/>
+      <c r="E68" s="76"/>
       <c r="F68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="95"/>
+      <c r="L68" s="82"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="91"/>
       <c r="B69" s="83"/>
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
-      <c r="E69" s="74"/>
+      <c r="E69" s="77"/>
       <c r="F69" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="29"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="95"/>
+      <c r="L69" s="82"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="91"/>
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
       <c r="D70" s="83"/>
-      <c r="E70" s="72" t="s">
+      <c r="E70" s="75" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2532,56 +2559,56 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="95"/>
+      <c r="L70" s="82"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="91"/>
       <c r="B71" s="83"/>
       <c r="C71" s="83"/>
       <c r="D71" s="83"/>
-      <c r="E71" s="73"/>
+      <c r="E71" s="76"/>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="95"/>
+      <c r="L71" s="82"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="91"/>
       <c r="B72" s="83"/>
       <c r="C72" s="83"/>
       <c r="D72" s="83"/>
-      <c r="E72" s="73"/>
+      <c r="E72" s="76"/>
       <c r="F72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="95"/>
+      <c r="L72" s="82"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="91"/>
       <c r="B73" s="83"/>
       <c r="C73" s="83"/>
       <c r="D73" s="83"/>
-      <c r="E73" s="74"/>
+      <c r="E73" s="77"/>
       <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="95"/>
+      <c r="L73" s="82"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="91"/>
       <c r="B74" s="83"/>
       <c r="C74" s="83"/>
       <c r="D74" s="83"/>
-      <c r="E74" s="72" t="s">
+      <c r="E74" s="75" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2590,14 +2617,14 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="95"/>
+      <c r="L74" s="82"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="91"/>
       <c r="B75" s="83"/>
       <c r="C75" s="83"/>
       <c r="D75" s="83"/>
-      <c r="E75" s="73"/>
+      <c r="E75" s="76"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
@@ -2610,7 +2637,7 @@
       <c r="B76" s="83"/>
       <c r="C76" s="83"/>
       <c r="D76" s="83"/>
-      <c r="E76" s="73"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2623,7 +2650,7 @@
       <c r="B77" s="83"/>
       <c r="C77" s="83"/>
       <c r="D77" s="83"/>
-      <c r="E77" s="73"/>
+      <c r="E77" s="76"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
@@ -2636,7 +2663,7 @@
       <c r="B78" s="83"/>
       <c r="C78" s="83"/>
       <c r="D78" s="83"/>
-      <c r="E78" s="73"/>
+      <c r="E78" s="76"/>
       <c r="F78" s="4" t="s">
         <v>38</v>
       </c>
@@ -2649,7 +2676,7 @@
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
       <c r="D79" s="83"/>
-      <c r="E79" s="73"/>
+      <c r="E79" s="76"/>
       <c r="F79" s="4" t="s">
         <v>33</v>
       </c>
@@ -2662,7 +2689,7 @@
       <c r="B80" s="83"/>
       <c r="C80" s="83"/>
       <c r="D80" s="83"/>
-      <c r="E80" s="73"/>
+      <c r="E80" s="76"/>
       <c r="F80" s="29"/>
       <c r="G80" s="39"/>
       <c r="H80" s="29"/>
@@ -2676,7 +2703,7 @@
       <c r="B81" s="83"/>
       <c r="C81" s="83"/>
       <c r="D81" s="83"/>
-      <c r="E81" s="73"/>
+      <c r="E81" s="76"/>
       <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
@@ -2689,7 +2716,7 @@
       <c r="B82" s="83"/>
       <c r="C82" s="83"/>
       <c r="D82" s="83"/>
-      <c r="E82" s="74"/>
+      <c r="E82" s="77"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -2734,107 +2761,105 @@
       <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" s="72" t="s">
+      <c r="A86" s="68"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="104"/>
+      <c r="L86" s="69"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="4" t="s">
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J86" s="12"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="96"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="9"/>
+      <c r="J87" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="97"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="20"/>
+      <c r="A89" s="88"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="67" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="29"/>
-      <c r="L90" s="30"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A91" s="19"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="17"/>
       <c r="I91" s="20"/>
-      <c r="J91" s="29"/>
-      <c r="L91" s="30"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="87"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A92" s="19"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="14"/>
       <c r="G92" s="14"/>
       <c r="H92" s="17"/>
       <c r="I92" s="20"/>
@@ -2842,12 +2867,20 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="87"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="79"/>
+      <c r="A93" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="93" t="s">
+        <v>45</v>
+      </c>
       <c r="E93" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="17"/>
@@ -2857,780 +2890,859 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="87"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>90</v>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="17"/>
       <c r="I94" s="20"/>
-      <c r="J94" s="39"/>
-      <c r="L94" s="37"/>
+      <c r="J94" s="29"/>
+      <c r="L94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="87"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="B95" s="97"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="14"/>
       <c r="H95" s="17"/>
       <c r="I95" s="20"/>
-      <c r="J95" s="39"/>
-      <c r="L95" s="37"/>
+      <c r="J95" s="29"/>
+      <c r="L95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="87"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="81"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="72" t="s">
+        <v>91</v>
+      </c>
       <c r="F96" s="4" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="17"/>
       <c r="I96" s="20"/>
-      <c r="J96" s="66"/>
-      <c r="L96" s="65"/>
-    </row>
-    <row r="97" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J96" s="39"/>
+      <c r="L96" s="37"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="87"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="68"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="94"/>
+      <c r="E97" s="73"/>
       <c r="F97" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G97" s="14"/>
-      <c r="H97" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="17"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="39"/>
+      <c r="L97" s="37"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="87"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="46"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="L99" s="37"/>
-    </row>
-    <row r="100" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="72" t="s">
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="66"/>
+      <c r="L98" s="65"/>
+    </row>
+    <row r="99" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="87"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="87"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="45"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="46"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="L101" s="37"/>
+    </row>
+    <row r="102" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="87"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="87"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" s="72" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="87"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="87"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="72" t="s">
+      <c r="D109" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="72"/>
-      <c r="H107" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J107" s="3"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="82"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="H109" s="81"/>
+      <c r="E109" s="75"/>
+      <c r="H109" s="72" t="s">
+        <v>112</v>
+      </c>
       <c r="I109" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="82"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="H110" s="81"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="H110" s="73"/>
       <c r="I110" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="2"/>
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="H111" s="81"/>
+      <c r="A111" s="78"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="H111" s="73"/>
       <c r="I111" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="2"/>
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="H112" s="81"/>
+      <c r="A112" s="78"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="H112" s="73"/>
       <c r="I112" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="82"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="H113" s="68"/>
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="H113" s="73"/>
       <c r="I113" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="2"/>
       <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="47"/>
-      <c r="J114" s="51"/>
-      <c r="L114" s="50"/>
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="72" t="s">
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="49"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="51"/>
+      <c r="L116" s="50"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="72" t="s">
+      <c r="D117" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="I115" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J115" s="3"/>
-      <c r="K115" s="50"/>
-      <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="76"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
-      <c r="I116" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="J116" s="3"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="3"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="76"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="73"/>
-      <c r="H117" s="73"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="75" t="s">
+        <v>113</v>
+      </c>
       <c r="I117" s="51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="50"/>
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
-      <c r="H118" s="73"/>
+      <c r="A118" s="80"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
       <c r="I118" s="51" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="50"/>
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="76"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
       <c r="I119" s="51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="50"/>
       <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="76"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
       <c r="I120" s="51" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="50"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="76"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="73"/>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="80"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
       <c r="I121" s="51" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J121" s="3"/>
-      <c r="K121" s="2"/>
+      <c r="K121" s="50"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="76"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-      <c r="I122" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K122" s="2"/>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="50"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="100"/>
-      <c r="J123" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K123" s="44"/>
+    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="76"/>
+      <c r="I123" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J123" s="3"/>
+      <c r="K123" s="2"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="L124" s="44"/>
+    <row r="124" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K124" s="2"/>
+      <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="L125" s="44"/>
+      <c r="A125" s="81"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K125" s="44"/>
+      <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="75" t="s">
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="L126" s="44"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="L127" s="44"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E128" s="101"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="I128" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="J128" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B126" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="E126" s="69"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="I126" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="J126" s="61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="76"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="81"/>
-      <c r="J127" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="70"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="58"/>
-      <c r="H128" s="73"/>
-      <c r="I128" s="81"/>
-      <c r="J128" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="76"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="70"/>
+      <c r="A129" s="80"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="102"/>
       <c r="F129" s="32"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="73"/>
-      <c r="I129" s="81"/>
-      <c r="J129" s="68"/>
-      <c r="K129" s="3" t="s">
-        <v>106</v>
+      <c r="H129" s="76"/>
+      <c r="I129" s="73"/>
+      <c r="J129" s="61" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="76"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="70"/>
+      <c r="A130" s="80"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="102"/>
       <c r="F130" s="32"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="73"/>
-      <c r="I130" s="81"/>
-      <c r="J130" s="61" t="s">
-        <v>111</v>
+      <c r="H130" s="76"/>
+      <c r="I130" s="73"/>
+      <c r="J130" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="76"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="73"/>
-      <c r="E131" s="70"/>
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="102"/>
       <c r="F131" s="32"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="73"/>
-      <c r="I131" s="68"/>
-      <c r="J131" s="61" t="s">
-        <v>110</v>
+      <c r="H131" s="76"/>
+      <c r="I131" s="73"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="76"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="73"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="70"/>
+      <c r="A132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="102"/>
       <c r="F132" s="32"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="73"/>
-      <c r="I132" s="61" t="s">
+      <c r="H132" s="76"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="76"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="70"/>
+      <c r="A133" s="80"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="102"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="73"/>
-      <c r="I133" s="61" t="s">
+      <c r="H133" s="76"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="61" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="70"/>
+      <c r="A134" s="80"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="102"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="73"/>
+      <c r="H134" s="76"/>
       <c r="I134" s="61" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="76"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="70"/>
+      <c r="A135" s="80"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="102"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="73"/>
+      <c r="H135" s="76"/>
       <c r="I135" s="61" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="76"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="70"/>
+      <c r="A136" s="80"/>
+      <c r="B136" s="80"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="102"/>
       <c r="F136" s="32"/>
       <c r="G136" s="58"/>
-      <c r="H136" s="73"/>
+      <c r="H136" s="76"/>
       <c r="I136" s="61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
-      <c r="B137" s="77"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="74"/>
+      <c r="A137" s="80"/>
+      <c r="B137" s="80"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="102"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="76"/>
       <c r="I137" s="61" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F138" s="56"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
+      <c r="A138" s="80"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="102"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="76"/>
+      <c r="I138" s="61" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B139" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" s="72" t="s">
+      <c r="A139" s="81"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="103"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F140" s="56"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F139" s="70"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="82"/>
-      <c r="B140" s="73"/>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F140" s="70"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="68"/>
-      <c r="I140" s="68"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="82"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
+      <c r="D141" s="75" t="s">
+        <v>51</v>
+      </c>
       <c r="E141" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F141" s="71"/>
-      <c r="G141" s="80"/>
-      <c r="H141" s="55" t="s">
+      <c r="F141" s="102"/>
+      <c r="G141" s="94"/>
+      <c r="H141" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="78"/>
+      <c r="B142" s="76"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F142" s="102"/>
+      <c r="G142" s="94"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="78"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F143" s="103"/>
+      <c r="G143" s="95"/>
+      <c r="H143" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="75" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F145" s="101"/>
+      <c r="G145" s="93"/>
+      <c r="H145" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="80"/>
+      <c r="B146" s="76"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="76"/>
+      <c r="E146" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F146" s="102"/>
+      <c r="G146" s="94"/>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="80"/>
+      <c r="B147" s="76"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F147" s="102"/>
+      <c r="G147" s="94"/>
+      <c r="H147" s="73"/>
+      <c r="I147" s="73"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="80"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F148" s="102"/>
+      <c r="G148" s="94"/>
+      <c r="H148" s="74"/>
+      <c r="I148" s="74"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="81"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B143" s="72" t="s">
+      <c r="F149" s="103"/>
+      <c r="G149" s="95"/>
+      <c r="H149" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="72" t="s">
+      <c r="B151" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F143" s="69"/>
-      <c r="G143" s="78"/>
-      <c r="H143" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F144" s="70"/>
-      <c r="G144" s="79"/>
-      <c r="H144" s="81"/>
-      <c r="I144" s="81"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="76"/>
-      <c r="B145" s="73"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="70"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="76"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F146" s="70"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="68"/>
-      <c r="I146" s="68"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F147" s="71"/>
-      <c r="G147" s="80"/>
-      <c r="H147" s="11" t="s">
+      <c r="D151" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H151" s="55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H149" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
-      <c r="E150" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="63"/>
+      <c r="E152" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="64"/>
+      <c r="A153" s="63"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="63"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="H107:H113"/>
-    <mergeCell ref="H115:H123"/>
-    <mergeCell ref="G115:G123"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="A115:A123"/>
-    <mergeCell ref="F115:F123"/>
-    <mergeCell ref="E115:E123"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="C115:C123"/>
-    <mergeCell ref="B115:B123"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="E128:E139"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="F145:G149"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="I145:I148"/>
+    <mergeCell ref="F141:G143"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="H128:H139"/>
+    <mergeCell ref="D128:D139"/>
+    <mergeCell ref="C128:C139"/>
+    <mergeCell ref="B128:B139"/>
+    <mergeCell ref="A128:A139"/>
+    <mergeCell ref="I128:I133"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="B64:B82"/>
+    <mergeCell ref="A64:A82"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D64:D82"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C64:C82"/>
     <mergeCell ref="L64:L74"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3655,70 +3767,21 @@
     <mergeCell ref="E74:E82"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D91:D98"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="E126:E137"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="F143:G147"/>
-    <mergeCell ref="H143:H146"/>
-    <mergeCell ref="I143:I146"/>
-    <mergeCell ref="F139:G141"/>
-    <mergeCell ref="D143:D147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="H126:H137"/>
-    <mergeCell ref="D126:D137"/>
-    <mergeCell ref="C126:C137"/>
-    <mergeCell ref="B126:B137"/>
-    <mergeCell ref="A126:A137"/>
-    <mergeCell ref="I126:I131"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="H109:H115"/>
+    <mergeCell ref="H117:H125"/>
+    <mergeCell ref="G117:G125"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="D109:D115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="B117:B125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82B1C47-F393-40BF-AB9E-8ED76BA3B0F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA7394-C027-4608-B4FE-588F27DBABB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="154">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,49 @@
   </si>
   <si>
     <t>age(string):年龄分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqParam(object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_master::string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_list(list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(object):</t>
+  </si>
+  <si>
+    <t>list(list).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +688,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -834,10 +885,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,114 +1098,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1431,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM155"/>
+  <dimension ref="A1:AM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1504,16 +1575,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1528,10 +1599,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="73"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1544,16 +1615,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="76"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="74"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1562,44 +1633,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="76"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="77"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1622,10 +1693,10 @@
       <c r="A11" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="95" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1640,9 +1711,9 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="99"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="72" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1657,16 +1728,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="82"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="99"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1675,14 +1746,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1693,8 +1764,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1707,15 +1778,15 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="82"/>
+      <c r="K15" s="101"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1729,7 +1800,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="82"/>
+      <c r="K16" s="101"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1760,75 +1831,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="91" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="82"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="76"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="82"/>
+      <c r="K18" s="101"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="76"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="82"/>
+      <c r="K19" s="101"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="91" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="77"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1854,13 +1925,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1874,19 +1945,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84" t="s">
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="91" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="83" t="s">
+      <c r="I24" s="89" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1895,86 +1966,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="83"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="89"/>
       <c r="J25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="83"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="89"/>
       <c r="J26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="83"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="89"/>
       <c r="J27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84" t="s">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="91" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="89"/>
       <c r="J28" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="83"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="83"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
       <c r="H30" s="4" t="s">
         <v>66</v>
       </c>
@@ -1983,9 +2054,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="83"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
       <c r="H31" s="4" t="s">
         <v>65</v>
       </c>
@@ -2007,13 +2078,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="89" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2027,19 +2098,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="89" t="s">
         <v>64</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -2048,97 +2119,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84" t="s">
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="91" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="83"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="89"/>
       <c r="J35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="83"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="83"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="89"/>
       <c r="J37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="83"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="89"/>
       <c r="J38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="83"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="89"/>
       <c r="J39" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="83"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="89"/>
       <c r="J40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="83"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="83"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="89"/>
       <c r="J41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="83"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>66</v>
@@ -2148,9 +2219,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="83"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>65</v>
@@ -2173,13 +2244,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="89" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2193,19 +2264,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="83"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="83" t="s">
+      <c r="I46" s="89" t="s">
         <v>64</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2214,107 +2285,107 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="84" t="s">
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="91" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
       <c r="J47" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="84"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
       <c r="J48" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
       <c r="J49" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
       <c r="J50" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
       <c r="J51" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
       <c r="J52" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
       <c r="J53" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="83"/>
-      <c r="H54" s="83"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="89"/>
+      <c r="H54" s="89"/>
       <c r="I54" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="83"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
       <c r="H55" s="4" t="s">
         <v>66</v>
       </c>
@@ -2322,10 +2393,10 @@
       <c r="J55" s="4"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="83"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="88"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
       <c r="H56" s="4" t="s">
         <v>65</v>
       </c>
@@ -2333,7 +2404,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -2346,7 +2417,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -2359,7 +2430,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="25"/>
       <c r="C59" s="16"/>
@@ -2371,245 +2442,267 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="5"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="5"/>
-      <c r="L60" s="82"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="6"/>
+      <c r="H60" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L60" s="101"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="98"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="73"/>
+      <c r="H61" s="87"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="6"/>
-      <c r="L61" s="82"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="83"/>
+      <c r="J61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L61" s="101"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="98"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="74"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="107" t="s">
+        <v>147</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="74"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="82"/>
-    </row>
-    <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="L62" s="101"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="108"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
+      <c r="D63" s="109"/>
+      <c r="E63" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="32"/>
+      <c r="L63" s="70"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="108"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="32"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="32"/>
+      <c r="L64" s="70"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="108"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="32"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="32"/>
+      <c r="L65" s="70"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="71"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="32"/>
+      <c r="L66" s="70"/>
+    </row>
+    <row r="67" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83" t="s">
+      <c r="B68" s="89"/>
+      <c r="C68" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D68" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="75" t="s">
+      <c r="E68" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="6"/>
-      <c r="L64" s="82"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="6"/>
-      <c r="L65" s="82"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="L66" s="82"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="6"/>
-      <c r="L67" s="82"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="82"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="77"/>
+      <c r="L68" s="101"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="97"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="79"/>
       <c r="F69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="6"/>
+      <c r="L69" s="101"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="97"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="6"/>
-      <c r="L69" s="82"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="H70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="L70" s="101"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="97"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="6"/>
-      <c r="L70" s="82"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="82"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="76"/>
+      <c r="L71" s="101"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="97"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="82"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="77"/>
+      <c r="L72" s="101"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="97"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="80"/>
       <c r="F73" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="82"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="75" t="s">
-        <v>30</v>
+      <c r="L73" s="101"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="97"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="78" t="s">
+        <v>29</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>31</v>
@@ -2617,1133 +2710,1142 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="82"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="76"/>
+      <c r="L74" s="101"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="97"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="79"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="76"/>
+      <c r="L75" s="101"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="97"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="79"/>
       <c r="F76" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="91"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="76"/>
+      <c r="L76" s="101"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="97"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="80"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="91"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="76"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="6"/>
+      <c r="L77" s="101"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="97"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="78" t="s">
+        <v>30</v>
+      </c>
       <c r="F78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="76"/>
+        <v>31</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="6"/>
+      <c r="L78" s="101"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="97"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="79"/>
       <c r="F79" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" s="97"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="76"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="77"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="97"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="97"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="104"/>
-      <c r="L86" s="69"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="86" t="s">
+      <c r="A86" s="97"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="40"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="68"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="72"/>
+      <c r="L90" s="69"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="75" t="s">
+      <c r="B91" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C91" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="75" t="s">
+      <c r="D91" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="4" t="s">
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J91" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="87"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="67" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="93"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="L88" s="69"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="88"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="6" t="s">
+      <c r="L92" s="69"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="102"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="67" t="s">
+      <c r="G93" s="5"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="67" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="89"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="7" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="103"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="20"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="29"/>
-      <c r="L92" s="30"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="29"/>
-      <c r="L93" s="30"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="87"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="29"/>
-      <c r="L94" s="30"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="87"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A95" s="19"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="17"/>
       <c r="I95" s="20"/>
-      <c r="J95" s="29"/>
-      <c r="L95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="87"/>
-      <c r="B96" s="97"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A96" s="19"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="17"/>
       <c r="I96" s="20"/>
-      <c r="J96" s="39"/>
-      <c r="L96" s="37"/>
+      <c r="J96" s="29"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="87"/>
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="A97" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" s="14"/>
       <c r="H97" s="17"/>
       <c r="I97" s="20"/>
-      <c r="J97" s="39"/>
-      <c r="L97" s="37"/>
+      <c r="J97" s="29"/>
+      <c r="L97" s="30"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="87"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="4" t="s">
-        <v>136</v>
+      <c r="A98" s="93"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="17"/>
       <c r="I98" s="20"/>
-      <c r="J98" s="66"/>
-      <c r="L98" s="65"/>
-    </row>
-    <row r="99" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="87"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="4" t="s">
-        <v>135</v>
+      <c r="J98" s="29"/>
+      <c r="L98" s="30"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="93"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G99" s="14"/>
-      <c r="H99" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H99" s="17"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="29"/>
+      <c r="L99" s="30"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="87"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="A100" s="93"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="39"/>
+      <c r="L100" s="37"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="46"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
+      <c r="A101" s="93"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H101" s="17"/>
+      <c r="I101" s="20"/>
       <c r="J101" s="39"/>
       <c r="L101" s="37"/>
     </row>
-    <row r="102" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="86" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="93"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="66"/>
+      <c r="L102" s="65"/>
+    </row>
+    <row r="103" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="93"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="93"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="45"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="46"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="L105" s="37"/>
+    </row>
+    <row r="106" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="75" t="s">
+      <c r="B106" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C102" s="75" t="s">
+      <c r="C106" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="75" t="s">
+      <c r="D106" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="87"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="4" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="93"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="87"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="4" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="93"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="78" t="s">
+    <row r="113" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B113" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C113" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D113" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="75"/>
-      <c r="H109" s="72" t="s">
+      <c r="E113" s="78"/>
+      <c r="H113" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I113" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="J109" s="3"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J110" s="3"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="H111" s="73"/>
-      <c r="I111" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J111" s="3"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="H112" s="73"/>
-      <c r="I112" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J112" s="3"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="2"/>
       <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="H114" s="73"/>
+      <c r="A114" s="88"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="H114" s="87"/>
       <c r="I114" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="2"/>
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="H115" s="74"/>
+      <c r="A115" s="88"/>
+      <c r="B115" s="88"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="H115" s="87"/>
       <c r="I115" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="2"/>
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="51"/>
-      <c r="L116" s="50"/>
+      <c r="A116" s="88"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="H116" s="87"/>
+      <c r="I116" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="79" t="s">
+      <c r="A117" s="88"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="79"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
+      <c r="H117" s="87"/>
+      <c r="I117" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="88"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="79"/>
+      <c r="H118" s="87"/>
+      <c r="I118" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="88"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="49"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="51"/>
+      <c r="L120" s="50"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B121" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="75" t="s">
+      <c r="C121" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D121" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="75" t="s">
+      <c r="E121" s="78"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I117" s="51" t="s">
+      <c r="I121" s="51" t="s">
         <v>98</v>
-      </c>
-      <c r="J117" s="3"/>
-      <c r="K117" s="50"/>
-      <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="80"/>
-      <c r="B118" s="80"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="J118" s="3"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
-      <c r="B119" s="80"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J119" s="3"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="80"/>
-      <c r="B120" s="80"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
-      <c r="I120" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="J120" s="3"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="80"/>
-      <c r="B121" s="80"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="51" t="s">
-        <v>102</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="50"/>
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="80"/>
-      <c r="B122" s="80"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
+      <c r="A122" s="82"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="79"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="79"/>
       <c r="I122" s="51" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="50"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="76"/>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="82"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="79"/>
       <c r="I123" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J123" s="3"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="79"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79"/>
+      <c r="I124" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="82"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="79"/>
+      <c r="I125" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" s="50"/>
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="79"/>
+      <c r="I126" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="82"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="79"/>
+      <c r="I127" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J123" s="3"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="3"/>
-    </row>
-    <row r="124" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="80"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="76"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
-      <c r="I124" s="70" t="s">
+      <c r="J127" s="3"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="82"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="79"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="79"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="79"/>
+      <c r="H128" s="79"/>
+      <c r="I128" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="3"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="81"/>
-      <c r="B125" s="81"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="71"/>
-      <c r="J125" s="3" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="83"/>
+      <c r="B129" s="83"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="80"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="106"/>
+      <c r="J129" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K125" s="44"/>
-      <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="L126" s="44"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="43"/>
-      <c r="H127" s="43"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="L127" s="44"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="79" t="s">
+      <c r="K129" s="44"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43"/>
+      <c r="L130" s="44"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
+      <c r="L131" s="44"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B128" s="79" t="s">
+      <c r="B132" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C128" s="75" t="s">
+      <c r="C132" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="75" t="s">
+      <c r="D132" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="E128" s="101"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="75" t="s">
+      <c r="E132" s="75"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="I128" s="72" t="s">
+      <c r="I132" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="J128" s="61" t="s">
+      <c r="J132" s="61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="80"/>
-      <c r="B129" s="80"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="102"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="80"/>
-      <c r="B130" s="80"/>
-      <c r="C130" s="76"/>
-      <c r="D130" s="76"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="58"/>
-      <c r="H130" s="76"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="80"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="76"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="102"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="76"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="74"/>
-      <c r="K131" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="80"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="76"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="102"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="58"/>
-      <c r="H132" s="76"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="80"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="102"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="82"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="76"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="76"/>
-      <c r="I133" s="74"/>
+      <c r="H133" s="79"/>
+      <c r="I133" s="87"/>
       <c r="J133" s="61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
-      <c r="B134" s="80"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="102"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="82"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="76"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="76"/>
-      <c r="I134" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="80"/>
-      <c r="B135" s="80"/>
-      <c r="C135" s="76"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="102"/>
+      <c r="H134" s="79"/>
+      <c r="I134" s="87"/>
+      <c r="J134" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="82"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="76"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="76"/>
-      <c r="I135" s="61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="80"/>
-      <c r="B136" s="80"/>
-      <c r="C136" s="76"/>
-      <c r="D136" s="76"/>
-      <c r="E136" s="102"/>
+      <c r="H135" s="79"/>
+      <c r="I135" s="87"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="82"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="79"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="76"/>
       <c r="F136" s="32"/>
       <c r="G136" s="58"/>
-      <c r="H136" s="76"/>
-      <c r="I136" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
-      <c r="B137" s="80"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="76"/>
-      <c r="E137" s="102"/>
+      <c r="H136" s="79"/>
+      <c r="I136" s="87"/>
+      <c r="J136" s="61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="82"/>
+      <c r="B137" s="82"/>
+      <c r="C137" s="79"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="76"/>
       <c r="F137" s="32"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="76"/>
-      <c r="I137" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="80"/>
-      <c r="B138" s="80"/>
-      <c r="C138" s="76"/>
-      <c r="D138" s="76"/>
-      <c r="E138" s="102"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="82"/>
+      <c r="B138" s="82"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="76"/>
       <c r="F138" s="32"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="76"/>
+      <c r="H138" s="79"/>
       <c r="I138" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="82"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="82"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="79"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="82"/>
+      <c r="B141" s="82"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="79"/>
+      <c r="I141" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="82"/>
+      <c r="B142" s="82"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="81"/>
-      <c r="B139" s="81"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="103"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="59"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="61" t="s">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="83"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="80"/>
+      <c r="I143" s="61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F140" s="56"/>
-      <c r="G140" s="57"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="78" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F144" s="56"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="75" t="s">
+      <c r="B145" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C141" s="75" t="s">
+      <c r="C145" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F141" s="102"/>
-      <c r="G141" s="94"/>
-      <c r="H141" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I141" s="72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="78"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F142" s="102"/>
-      <c r="G142" s="94"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F143" s="103"/>
-      <c r="G143" s="95"/>
-      <c r="H143" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="B145" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C145" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="75" t="s">
+      <c r="D145" s="78" t="s">
         <v>51</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F145" s="101"/>
-      <c r="G145" s="93"/>
-      <c r="H145" s="72" t="s">
+      <c r="F145" s="76"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="I145" s="72" t="s">
+      <c r="I145" s="73" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="80"/>
-      <c r="B146" s="76"/>
-      <c r="C146" s="76"/>
-      <c r="D146" s="76"/>
+      <c r="A146" s="88"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="79"/>
       <c r="E146" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F146" s="102"/>
-      <c r="G146" s="94"/>
-      <c r="H146" s="73"/>
-      <c r="I146" s="73"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="80"/>
-      <c r="B147" s="76"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
+      <c r="A147" s="88"/>
+      <c r="B147" s="80"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="80"/>
       <c r="E147" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" s="77"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F149" s="75"/>
+      <c r="G149" s="84"/>
+      <c r="H149" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="82"/>
+      <c r="B150" s="79"/>
+      <c r="C150" s="79"/>
+      <c r="D150" s="79"/>
+      <c r="E150" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F150" s="76"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="87"/>
+      <c r="I150" s="87"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="82"/>
+      <c r="B151" s="79"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F147" s="102"/>
-      <c r="G147" s="94"/>
-      <c r="H147" s="73"/>
-      <c r="I147" s="73"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
-      <c r="B148" s="76"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="76"/>
-      <c r="E148" s="4" t="s">
+      <c r="F151" s="76"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="87"/>
+      <c r="I151" s="87"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="82"/>
+      <c r="B152" s="79"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F148" s="102"/>
-      <c r="G148" s="94"/>
-      <c r="H148" s="74"/>
-      <c r="I148" s="74"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="81"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="4" t="s">
+      <c r="F152" s="76"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="83"/>
+      <c r="B153" s="80"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="80"/>
+      <c r="E153" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F149" s="103"/>
-      <c r="G149" s="95"/>
-      <c r="H149" s="11" t="s">
+      <c r="F153" s="77"/>
+      <c r="G153" s="86"/>
+      <c r="H153" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="62" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D155" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E155" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H151" s="55" t="s">
+      <c r="H155" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-      <c r="E152" s="4" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="63"/>
+      <c r="E156" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="64"/>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="63"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="63"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="E128:E139"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="F145:G149"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="I145:I148"/>
-    <mergeCell ref="F141:G143"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="H128:H139"/>
-    <mergeCell ref="D128:D139"/>
-    <mergeCell ref="C128:C139"/>
-    <mergeCell ref="B128:B139"/>
-    <mergeCell ref="A128:A139"/>
-    <mergeCell ref="I128:I133"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
-    <mergeCell ref="L64:L74"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="H113:H119"/>
+    <mergeCell ref="H121:H129"/>
+    <mergeCell ref="G121:G129"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="C113:C119"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="F121:F129"/>
+    <mergeCell ref="E121:E129"/>
+    <mergeCell ref="D121:D129"/>
+    <mergeCell ref="C121:C129"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="L68:L78"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="L60:L62"/>
@@ -3761,30 +3863,83 @@
     <mergeCell ref="I34:I41"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E82"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E78:E86"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="H109:H115"/>
-    <mergeCell ref="H117:H125"/>
-    <mergeCell ref="G117:G125"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="D109:D115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="F117:F125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C68:C86"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="B68:B86"/>
+    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D68:D86"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="E132:E143"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="F149:G153"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="I149:I152"/>
+    <mergeCell ref="F145:G147"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="H132:H143"/>
+    <mergeCell ref="D132:D143"/>
+    <mergeCell ref="C132:C143"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="A132:A143"/>
+    <mergeCell ref="I132:I137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E62" r:id="rId1" xr:uid="{D15E31F3-9D54-4CB5-B003-F866DA7F155C}"/>
+    <hyperlink ref="F65" r:id="rId2" xr:uid="{8E2F1B58-4E40-48A5-BE01-E4C118183716}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA7394-C027-4608-B4FE-588F27DBABB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C656C0-803D-42CF-9908-B5A9767C79A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
   <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,34 @@
   </si>
   <si>
     <t>account:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取裁判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetReferee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqParam(object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resData(list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_ref</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,21 +1135,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,6 +1174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,36 +1186,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,47 +1237,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1504,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="B132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158:H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1575,16 +1606,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1599,10 +1630,10 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="87"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1615,16 +1646,16 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="74"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="83" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1633,44 +1664,44 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="78" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="79"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="79"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="80"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1690,13 +1721,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="105" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1710,10 +1741,10 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="73" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1728,16 +1759,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="101" t="s">
+      <c r="K12" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="90"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="87"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1746,14 +1777,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="87"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1795,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1778,15 +1809,15 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="101"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1800,7 +1831,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="101"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1831,75 +1862,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="91" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="78" t="s">
+      <c r="H17" s="83" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="101"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="79"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="101"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="79"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="101"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="91" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="80"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1925,13 +1956,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="91" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1945,19 +1976,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="91" t="s">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="91" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1966,86 +1997,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="91"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="89"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="91"/>
       <c r="J25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="91"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="89"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="91"/>
       <c r="J26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="91"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="89"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="91" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="89"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="91"/>
       <c r="J28" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="91"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="89"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="91"/>
       <c r="H30" s="4" t="s">
         <v>66</v>
       </c>
@@ -2054,9 +2085,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="91"/>
       <c r="H31" s="4" t="s">
         <v>65</v>
       </c>
@@ -2078,13 +2109,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="91" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2098,19 +2129,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="91" t="s">
+      <c r="H34" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="89" t="s">
+      <c r="I34" s="91" t="s">
         <v>64</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -2119,97 +2150,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="91" t="s">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="91"/>
-      <c r="I35" s="89"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="91"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="91"/>
       <c r="J36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="89"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="91"/>
       <c r="J37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="89"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="91"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="91"/>
       <c r="J38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="89"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="91"/>
       <c r="J39" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="89"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="91"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="91"/>
       <c r="J40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="89"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="91"/>
       <c r="J41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>66</v>
@@ -2219,9 +2250,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>65</v>
@@ -2244,13 +2275,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="91" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2264,19 +2295,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="89" t="s">
+      <c r="H46" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="89" t="s">
+      <c r="I46" s="91" t="s">
         <v>64</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2285,97 +2316,97 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="91" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
       <c r="J47" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="91"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
       <c r="J48" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
       <c r="J49" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
       <c r="J50" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
       <c r="J51" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
       <c r="J52" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
       <c r="J53" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="H54" s="89"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="91"/>
+      <c r="H54" s="91"/>
       <c r="I54" s="1" t="s">
         <v>79</v>
       </c>
@@ -2383,9 +2414,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="91"/>
       <c r="H55" s="4" t="s">
         <v>66</v>
       </c>
@@ -2394,9 +2425,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="91"/>
       <c r="H56" s="4" t="s">
         <v>65</v>
       </c>
@@ -2443,14 +2474,14 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="89" t="s">
+      <c r="B60" s="83"/>
+      <c r="C60" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="80" t="s">
         <v>144</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -2458,7 +2489,7 @@
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="80" t="s">
         <v>151</v>
       </c>
       <c r="I60" s="12" t="s">
@@ -2467,98 +2498,98 @@
       <c r="J60" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L60" s="101"/>
+      <c r="L60" s="90"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="87"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="87"/>
+      <c r="H61" s="81"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="L61" s="101"/>
+      <c r="L61" s="90"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="107" t="s">
+      <c r="A62" s="100"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="74" t="s">
         <v>147</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="74"/>
+      <c r="H62" s="82"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="101"/>
+      <c r="L62" s="90"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="71"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="110" t="s">
+      <c r="D63" s="76"/>
+      <c r="E63" s="77" t="s">
         <v>149</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>150</v>
       </c>
       <c r="G63" s="32"/>
-      <c r="H63" s="109"/>
+      <c r="H63" s="76"/>
       <c r="I63" s="33"/>
       <c r="J63" s="32"/>
       <c r="L63" s="70"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="71"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="110"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="6" t="s">
         <v>146</v>
       </c>
       <c r="G64" s="32"/>
-      <c r="H64" s="109"/>
+      <c r="H64" s="76"/>
       <c r="I64" s="33"/>
       <c r="J64" s="32"/>
       <c r="L64" s="70"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="71"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="110"/>
-      <c r="F65" s="107" t="s">
+      <c r="D65" s="76"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="74" t="s">
         <v>147</v>
       </c>
       <c r="G65" s="32"/>
-      <c r="H65" s="109"/>
+      <c r="H65" s="76"/>
       <c r="I65" s="33"/>
       <c r="J65" s="32"/>
       <c r="L65" s="70"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="75" t="s">
         <v>148</v>
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="110"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
-      <c r="H66" s="109"/>
+      <c r="H66" s="76"/>
       <c r="I66" s="33"/>
       <c r="J66" s="32"/>
       <c r="L66" s="70"/>
@@ -2595,17 +2626,17 @@
       <c r="AG67" s="3"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89" t="s">
+      <c r="B68" s="91"/>
+      <c r="C68" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="89" t="s">
+      <c r="D68" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="78" t="s">
+      <c r="E68" s="83" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -2616,14 +2647,14 @@
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="101"/>
+      <c r="L68" s="90"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="79"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="84"/>
       <c r="F69" s="4" t="s">
         <v>32</v>
       </c>
@@ -2632,14 +2663,14 @@
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="101"/>
+      <c r="L69" s="90"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="97"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="80"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="85"/>
       <c r="F70" s="4" t="s">
         <v>33</v>
       </c>
@@ -2650,14 +2681,14 @@
         <v>24</v>
       </c>
       <c r="J70" s="6"/>
-      <c r="L70" s="101"/>
+      <c r="L70" s="90"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="97"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="78" t="s">
+      <c r="A71" s="99"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="83" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -2666,42 +2697,42 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="101"/>
+      <c r="L71" s="90"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="79"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="101"/>
+      <c r="L72" s="90"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="80"/>
+      <c r="A73" s="99"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="85"/>
       <c r="F73" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="29"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="101"/>
+      <c r="L73" s="90"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="78" t="s">
+      <c r="A74" s="99"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="83" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2710,56 +2741,56 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="101"/>
+      <c r="L74" s="90"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="79"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="84"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="6"/>
-      <c r="L75" s="101"/>
+      <c r="L75" s="90"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="79"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="84"/>
       <c r="F76" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="6"/>
-      <c r="L76" s="101"/>
+      <c r="L76" s="90"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="80"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="85"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="6"/>
-      <c r="L77" s="101"/>
+      <c r="L77" s="90"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="78" t="s">
+      <c r="A78" s="99"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="83" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -2768,14 +2799,14 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="6"/>
-      <c r="L78" s="101"/>
+      <c r="L78" s="90"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="97"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="79"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="84"/>
       <c r="F79" s="4" t="s">
         <v>32</v>
       </c>
@@ -2784,11 +2815,11 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="97"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="79"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="84"/>
       <c r="F80" s="4" t="s">
         <v>37</v>
       </c>
@@ -2797,11 +2828,11 @@
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="97"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="79"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="84"/>
       <c r="F81" s="4" t="s">
         <v>34</v>
       </c>
@@ -2810,11 +2841,11 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="79"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="84"/>
       <c r="F82" s="4" t="s">
         <v>38</v>
       </c>
@@ -2823,11 +2854,11 @@
       <c r="J82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="97"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="79"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="4" t="s">
         <v>33</v>
       </c>
@@ -2836,11 +2867,11 @@
       <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="79"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="84"/>
       <c r="F84" s="29"/>
       <c r="G84" s="39"/>
       <c r="H84" s="29"/>
@@ -2850,11 +2881,11 @@
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="79"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="84"/>
       <c r="F85" s="4" t="s">
         <v>35</v>
       </c>
@@ -2863,11 +2894,11 @@
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="80"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="4" t="s">
         <v>36</v>
       </c>
@@ -2925,16 +2956,16 @@
       <c r="L90" s="69"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="78" t="s">
+      <c r="D91" s="83" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -2953,10 +2984,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="93"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="79"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
       <c r="G92" s="34"/>
@@ -2968,10 +2999,10 @@
       <c r="L92" s="69"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="102"/>
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="6" t="s">
         <v>142</v>
       </c>
@@ -2983,10 +3014,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="103"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="80"/>
+      <c r="A94" s="97"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
       <c r="E94" s="7" t="s">
         <v>141</v>
       </c>
@@ -3018,16 +3049,16 @@
       <c r="L96" s="30"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="92" t="s">
+      <c r="A97" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="94" t="s">
+      <c r="B97" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="84" t="s">
+      <c r="D97" s="101" t="s">
         <v>45</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -3040,10 +3071,10 @@
       <c r="L97" s="30"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="93"/>
-      <c r="B98" s="95"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="85"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="102"/>
       <c r="E98" s="4" t="s">
         <v>53</v>
       </c>
@@ -3054,10 +3085,10 @@
       <c r="L98" s="30"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="93"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="85"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="102"/>
       <c r="E99" s="4" t="s">
         <v>54</v>
       </c>
@@ -3068,11 +3099,11 @@
       <c r="L99" s="30"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="93"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="73" t="s">
+      <c r="A100" s="95"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="80" t="s">
         <v>91</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -3085,11 +3116,11 @@
       <c r="L100" s="37"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="93"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="87"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="81"/>
       <c r="F101" s="4" t="s">
         <v>89</v>
       </c>
@@ -3102,11 +3133,11 @@
       <c r="L101" s="37"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="93"/>
-      <c r="B102" s="95"/>
-      <c r="C102" s="95"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="4" t="s">
         <v>136</v>
       </c>
@@ -3117,11 +3148,11 @@
       <c r="L102" s="65"/>
     </row>
     <row r="103" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="93"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="74"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="82"/>
       <c r="F103" s="4" t="s">
         <v>135</v>
       </c>
@@ -3131,10 +3162,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="93"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="86"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="106"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="103"/>
       <c r="E104" s="4" t="s">
         <v>90</v>
       </c>
@@ -3150,16 +3181,16 @@
       <c r="L105" s="37"/>
     </row>
     <row r="106" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="92" t="s">
+      <c r="A106" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="78" t="s">
+      <c r="B106" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="78" t="s">
+      <c r="C106" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="78" t="s">
+      <c r="D106" s="83" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -3167,38 +3198,38 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="93"/>
-      <c r="B107" s="79"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="79"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="84"/>
       <c r="E107" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="93"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="80"/>
+      <c r="A108" s="95"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
       <c r="E108" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="88" t="s">
+      <c r="A113" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="88" t="s">
+      <c r="B113" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="78" t="s">
+      <c r="C113" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="78" t="s">
+      <c r="D113" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="78"/>
-      <c r="H113" s="73" t="s">
+      <c r="E113" s="83"/>
+      <c r="H113" s="80" t="s">
         <v>112</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -3209,12 +3240,12 @@
       <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="88"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="79"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="H114" s="87"/>
+      <c r="A114" s="86"/>
+      <c r="B114" s="86"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="84"/>
+      <c r="H114" s="81"/>
       <c r="I114" s="11" t="s">
         <v>99</v>
       </c>
@@ -3223,12 +3254,12 @@
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="88"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="79"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="H115" s="87"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="84"/>
+      <c r="D115" s="84"/>
+      <c r="E115" s="84"/>
+      <c r="H115" s="81"/>
       <c r="I115" s="11" t="s">
         <v>100</v>
       </c>
@@ -3237,12 +3268,12 @@
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="88"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="H116" s="87"/>
+      <c r="A116" s="86"/>
+      <c r="B116" s="86"/>
+      <c r="C116" s="84"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
+      <c r="H116" s="81"/>
       <c r="I116" s="11" t="s">
         <v>101</v>
       </c>
@@ -3251,12 +3282,12 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="88"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="79"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="H117" s="87"/>
+      <c r="A117" s="86"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="84"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="H117" s="81"/>
       <c r="I117" s="11" t="s">
         <v>102</v>
       </c>
@@ -3265,12 +3296,12 @@
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="88"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="79"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79"/>
-      <c r="H118" s="87"/>
+      <c r="A118" s="86"/>
+      <c r="B118" s="86"/>
+      <c r="C118" s="84"/>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
+      <c r="H118" s="81"/>
       <c r="I118" s="11" t="s">
         <v>106</v>
       </c>
@@ -3279,12 +3310,12 @@
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="88"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="80"/>
-      <c r="D119" s="80"/>
-      <c r="E119" s="80"/>
-      <c r="H119" s="74"/>
+      <c r="A119" s="86"/>
+      <c r="B119" s="86"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="H119" s="82"/>
       <c r="I119" s="11" t="s">
         <v>107</v>
       </c>
@@ -3304,22 +3335,22 @@
       <c r="L120" s="50"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="81" t="s">
+      <c r="A121" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="78" t="s">
+      <c r="C121" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="78" t="s">
+      <c r="D121" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="78" t="s">
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83" t="s">
         <v>113</v>
       </c>
       <c r="I121" s="51" t="s">
@@ -3330,14 +3361,14 @@
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="82"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
+      <c r="A122" s="88"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="84"/>
+      <c r="E122" s="84"/>
+      <c r="F122" s="84"/>
+      <c r="G122" s="84"/>
+      <c r="H122" s="84"/>
       <c r="I122" s="51" t="s">
         <v>99</v>
       </c>
@@ -3346,14 +3377,14 @@
       <c r="L122" s="3"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="82"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
+      <c r="A123" s="88"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
+      <c r="H123" s="84"/>
       <c r="I123" s="51" t="s">
         <v>100</v>
       </c>
@@ -3362,14 +3393,14 @@
       <c r="L123" s="3"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="82"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="79"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79"/>
+      <c r="A124" s="88"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="84"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="84"/>
+      <c r="H124" s="84"/>
       <c r="I124" s="51" t="s">
         <v>101</v>
       </c>
@@ -3378,14 +3409,14 @@
       <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="82"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="79"/>
-      <c r="D125" s="79"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
+      <c r="A125" s="88"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="84"/>
+      <c r="H125" s="84"/>
       <c r="I125" s="51" t="s">
         <v>102</v>
       </c>
@@ -3394,14 +3425,14 @@
       <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="82"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="79"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
+      <c r="A126" s="88"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="84"/>
+      <c r="D126" s="84"/>
+      <c r="E126" s="84"/>
+      <c r="F126" s="84"/>
+      <c r="G126" s="84"/>
+      <c r="H126" s="84"/>
       <c r="I126" s="51" t="s">
         <v>106</v>
       </c>
@@ -3410,14 +3441,14 @@
       <c r="L126" s="3"/>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="82"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="79"/>
+      <c r="A127" s="88"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="84"/>
+      <c r="D127" s="84"/>
+      <c r="E127" s="84"/>
+      <c r="F127" s="84"/>
+      <c r="G127" s="84"/>
+      <c r="H127" s="84"/>
       <c r="I127" s="51" t="s">
         <v>107</v>
       </c>
@@ -3426,15 +3457,15 @@
       <c r="L127" s="3"/>
     </row>
     <row r="128" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="82"/>
-      <c r="B128" s="82"/>
-      <c r="C128" s="79"/>
-      <c r="D128" s="79"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="79"/>
-      <c r="G128" s="79"/>
-      <c r="H128" s="79"/>
-      <c r="I128" s="105" t="s">
+      <c r="A128" s="88"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="84"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="84"/>
+      <c r="G128" s="84"/>
+      <c r="H128" s="84"/>
+      <c r="I128" s="78" t="s">
         <v>111</v>
       </c>
       <c r="J128" s="3" t="s">
@@ -3444,15 +3475,15 @@
       <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="83"/>
-      <c r="B129" s="83"/>
-      <c r="C129" s="80"/>
-      <c r="D129" s="80"/>
-      <c r="E129" s="80"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="80"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="106"/>
+      <c r="A129" s="89"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="79"/>
       <c r="J129" s="3" t="s">
         <v>104</v>
       </c>
@@ -3480,25 +3511,25 @@
       <c r="L131" s="44"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="81" t="s">
+      <c r="A132" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B132" s="81" t="s">
+      <c r="B132" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="C132" s="78" t="s">
+      <c r="C132" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="78" t="s">
+      <c r="D132" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="E132" s="75"/>
+      <c r="E132" s="109"/>
       <c r="F132" s="34"/>
       <c r="G132" s="57"/>
-      <c r="H132" s="78" t="s">
+      <c r="H132" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="I132" s="73" t="s">
+      <c r="I132" s="80" t="s">
         <v>131</v>
       </c>
       <c r="J132" s="61" t="s">
@@ -3506,30 +3537,30 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="82"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="79"/>
-      <c r="D133" s="79"/>
-      <c r="E133" s="76"/>
+      <c r="A133" s="88"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="84"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="110"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="79"/>
-      <c r="I133" s="87"/>
+      <c r="H133" s="84"/>
+      <c r="I133" s="81"/>
       <c r="J133" s="61" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="82"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="76"/>
+      <c r="A134" s="88"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="84"/>
+      <c r="D134" s="84"/>
+      <c r="E134" s="110"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="79"/>
-      <c r="I134" s="87"/>
-      <c r="J134" s="73" t="s">
+      <c r="H134" s="84"/>
+      <c r="I134" s="81"/>
+      <c r="J134" s="80" t="s">
         <v>105</v>
       </c>
       <c r="K134" s="3" t="s">
@@ -3537,122 +3568,122 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="82"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="76"/>
+      <c r="A135" s="88"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="84"/>
+      <c r="D135" s="84"/>
+      <c r="E135" s="110"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="87"/>
-      <c r="J135" s="74"/>
+      <c r="H135" s="84"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="82"/>
       <c r="K135" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="82"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="79"/>
-      <c r="D136" s="79"/>
-      <c r="E136" s="76"/>
+      <c r="A136" s="88"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="84"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="110"/>
       <c r="F136" s="32"/>
       <c r="G136" s="58"/>
-      <c r="H136" s="79"/>
-      <c r="I136" s="87"/>
+      <c r="H136" s="84"/>
+      <c r="I136" s="81"/>
       <c r="J136" s="61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="82"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="79"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="76"/>
+      <c r="A137" s="88"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="84"/>
+      <c r="D137" s="84"/>
+      <c r="E137" s="110"/>
       <c r="F137" s="32"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="74"/>
+      <c r="H137" s="84"/>
+      <c r="I137" s="82"/>
       <c r="J137" s="61" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="82"/>
-      <c r="B138" s="82"/>
-      <c r="C138" s="79"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="76"/>
+      <c r="A138" s="88"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="84"/>
+      <c r="D138" s="84"/>
+      <c r="E138" s="110"/>
       <c r="F138" s="32"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="79"/>
+      <c r="H138" s="84"/>
       <c r="I138" s="61" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="82"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="79"/>
-      <c r="D139" s="79"/>
-      <c r="E139" s="76"/>
+      <c r="A139" s="88"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="110"/>
       <c r="F139" s="32"/>
       <c r="G139" s="58"/>
-      <c r="H139" s="79"/>
+      <c r="H139" s="84"/>
       <c r="I139" s="61" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="82"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="79"/>
-      <c r="D140" s="79"/>
-      <c r="E140" s="76"/>
+      <c r="A140" s="88"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="84"/>
+      <c r="D140" s="84"/>
+      <c r="E140" s="110"/>
       <c r="F140" s="32"/>
       <c r="G140" s="58"/>
-      <c r="H140" s="79"/>
+      <c r="H140" s="84"/>
       <c r="I140" s="61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="82"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="79"/>
-      <c r="D141" s="79"/>
-      <c r="E141" s="76"/>
+      <c r="A141" s="88"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="84"/>
+      <c r="D141" s="84"/>
+      <c r="E141" s="110"/>
       <c r="F141" s="32"/>
       <c r="G141" s="58"/>
-      <c r="H141" s="79"/>
+      <c r="H141" s="84"/>
       <c r="I141" s="61" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="82"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="79"/>
-      <c r="D142" s="79"/>
-      <c r="E142" s="76"/>
+      <c r="A142" s="88"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="84"/>
+      <c r="D142" s="84"/>
+      <c r="E142" s="110"/>
       <c r="F142" s="32"/>
       <c r="G142" s="58"/>
-      <c r="H142" s="79"/>
+      <c r="H142" s="84"/>
       <c r="I142" s="61" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="83"/>
-      <c r="B143" s="83"/>
-      <c r="C143" s="80"/>
-      <c r="D143" s="80"/>
-      <c r="E143" s="77"/>
+      <c r="A143" s="89"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="111"/>
       <c r="F143" s="25"/>
       <c r="G143" s="59"/>
-      <c r="H143" s="80"/>
+      <c r="H143" s="85"/>
       <c r="I143" s="61" t="s">
         <v>110</v>
       </c>
@@ -3664,131 +3695,131 @@
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="88" t="s">
+      <c r="A145" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="78" t="s">
+      <c r="B145" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C145" s="78" t="s">
+      <c r="C145" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="78" t="s">
+      <c r="D145" s="83" t="s">
         <v>51</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F145" s="76"/>
-      <c r="G145" s="85"/>
-      <c r="H145" s="73" t="s">
+      <c r="F145" s="110"/>
+      <c r="G145" s="102"/>
+      <c r="H145" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I145" s="73" t="s">
+      <c r="I145" s="80" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="88"/>
-      <c r="B146" s="79"/>
-      <c r="C146" s="79"/>
-      <c r="D146" s="79"/>
+      <c r="A146" s="86"/>
+      <c r="B146" s="84"/>
+      <c r="C146" s="84"/>
+      <c r="D146" s="84"/>
       <c r="E146" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F146" s="76"/>
-      <c r="G146" s="85"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
+      <c r="F146" s="110"/>
+      <c r="G146" s="102"/>
+      <c r="H146" s="82"/>
+      <c r="I146" s="82"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="88"/>
-      <c r="B147" s="80"/>
-      <c r="C147" s="80"/>
-      <c r="D147" s="80"/>
+      <c r="A147" s="86"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
       <c r="E147" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F147" s="77"/>
-      <c r="G147" s="86"/>
+      <c r="F147" s="111"/>
+      <c r="G147" s="103"/>
       <c r="H147" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="81" t="s">
+      <c r="A149" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="B149" s="78" t="s">
+      <c r="B149" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C149" s="78" t="s">
+      <c r="C149" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D149" s="78" t="s">
+      <c r="D149" s="83" t="s">
         <v>51</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F149" s="75"/>
-      <c r="G149" s="84"/>
-      <c r="H149" s="73" t="s">
+      <c r="F149" s="109"/>
+      <c r="G149" s="101"/>
+      <c r="H149" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I149" s="73" t="s">
+      <c r="I149" s="80" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="82"/>
-      <c r="B150" s="79"/>
-      <c r="C150" s="79"/>
-      <c r="D150" s="79"/>
+      <c r="A150" s="88"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="84"/>
+      <c r="D150" s="84"/>
       <c r="E150" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F150" s="76"/>
-      <c r="G150" s="85"/>
-      <c r="H150" s="87"/>
-      <c r="I150" s="87"/>
+      <c r="F150" s="110"/>
+      <c r="G150" s="102"/>
+      <c r="H150" s="81"/>
+      <c r="I150" s="81"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="82"/>
-      <c r="B151" s="79"/>
-      <c r="C151" s="79"/>
-      <c r="D151" s="79"/>
+      <c r="A151" s="88"/>
+      <c r="B151" s="84"/>
+      <c r="C151" s="84"/>
+      <c r="D151" s="84"/>
       <c r="E151" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F151" s="76"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="87"/>
-      <c r="I151" s="87"/>
+      <c r="F151" s="110"/>
+      <c r="G151" s="102"/>
+      <c r="H151" s="81"/>
+      <c r="I151" s="81"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="82"/>
-      <c r="B152" s="79"/>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
+      <c r="A152" s="88"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="84"/>
+      <c r="D152" s="84"/>
       <c r="E152" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F152" s="76"/>
-      <c r="G152" s="85"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
+      <c r="F152" s="110"/>
+      <c r="G152" s="102"/>
+      <c r="H152" s="82"/>
+      <c r="I152" s="82"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="83"/>
-      <c r="B153" s="80"/>
-      <c r="C153" s="80"/>
-      <c r="D153" s="80"/>
+      <c r="A153" s="89"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
       <c r="E153" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F153" s="77"/>
-      <c r="G153" s="86"/>
+      <c r="F153" s="111"/>
+      <c r="G153" s="103"/>
       <c r="H153" s="11" t="s">
         <v>9</v>
       </c>
@@ -3823,28 +3854,99 @@
       <c r="A157" s="63"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="63"/>
+      <c r="A158" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H158" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="64"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="H113:H119"/>
-    <mergeCell ref="H121:H129"/>
-    <mergeCell ref="G121:G129"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="C113:C119"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="E113:E119"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="F121:F129"/>
-    <mergeCell ref="E121:E129"/>
-    <mergeCell ref="D121:D129"/>
-    <mergeCell ref="C121:C129"/>
-    <mergeCell ref="B121:B129"/>
+  <mergeCells count="104">
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="E132:E143"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="F149:G153"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="I149:I152"/>
+    <mergeCell ref="F145:G147"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="H132:H143"/>
+    <mergeCell ref="D132:D143"/>
+    <mergeCell ref="C132:C143"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="A132:A143"/>
+    <mergeCell ref="I132:I137"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="B68:B86"/>
+    <mergeCell ref="A68:A86"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D68:D86"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C68:C86"/>
     <mergeCell ref="L68:L78"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3869,70 +3971,21 @@
     <mergeCell ref="E78:E86"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C68:C86"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D97:D104"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="B68:B86"/>
-    <mergeCell ref="A68:A86"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D68:D86"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="E132:E143"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="F149:G153"/>
-    <mergeCell ref="H149:H152"/>
-    <mergeCell ref="I149:I152"/>
-    <mergeCell ref="F145:G147"/>
-    <mergeCell ref="D149:D153"/>
-    <mergeCell ref="C149:C153"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="H132:H143"/>
-    <mergeCell ref="D132:D143"/>
-    <mergeCell ref="C132:C143"/>
-    <mergeCell ref="B132:B143"/>
-    <mergeCell ref="A132:A143"/>
-    <mergeCell ref="I132:I137"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="H113:H119"/>
+    <mergeCell ref="H121:H129"/>
+    <mergeCell ref="G121:G129"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="C113:C119"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="F121:F129"/>
+    <mergeCell ref="E121:E129"/>
+    <mergeCell ref="D121:D129"/>
+    <mergeCell ref="C121:C129"/>
+    <mergeCell ref="B121:B129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Developdocument/接口文档.xlsx
+++ b/Developdocument/接口文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82B1C47-F393-40BF-AB9E-8ED76BA3B0F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41346FF4-0DF5-4EAD-83C4-5DF63F14B599}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,109 +1046,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1507,13 +1507,13 @@
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1530,8 +1530,8 @@
     <row r="5" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1546,14 +1546,14 @@
     <row r="6" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="76" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1564,14 +1564,14 @@
     <row r="7" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="76"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1580,12 +1580,12 @@
     <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1594,12 +1594,12 @@
     <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1619,13 +1619,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="93" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1639,10 +1639,10 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="72" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="71" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1657,16 +1657,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="82"/>
+      <c r="L12" s="99"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
@@ -1675,14 +1675,14 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1693,8 +1693,8 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -1707,15 +1707,15 @@
       <c r="H15" s="34"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="82"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="82"/>
+      <c r="K16" s="99"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1760,75 +1760,75 @@
       <c r="AM16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="89" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="76" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="82"/>
+      <c r="K17" s="99"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="76"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="82"/>
+      <c r="K18" s="99"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="76"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="82"/>
+      <c r="K19" s="99"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="77"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1854,13 +1854,13 @@
       <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="87" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1874,19 +1874,19 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84" t="s">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="89" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="83" t="s">
+      <c r="I24" s="87" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -1895,86 +1895,86 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="83"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="87"/>
       <c r="J25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="83"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="83"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="87"/>
       <c r="J27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="87"/>
       <c r="J28" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="83"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="83"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
       <c r="H30" s="4" t="s">
         <v>66</v>
       </c>
@@ -1983,9 +1983,9 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="83"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
       <c r="H31" s="4" t="s">
         <v>65</v>
       </c>
@@ -2007,13 +2007,13 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="87" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2027,19 +2027,19 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="87" t="s">
         <v>64</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -2048,97 +2048,97 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84" t="s">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="83"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="87"/>
       <c r="J35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="89"/>
       <c r="E36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="87"/>
       <c r="J36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="83"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
       <c r="D37" s="4"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="83"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="87"/>
       <c r="J37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="83"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="83"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="83"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="87"/>
       <c r="J40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="83"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="83"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="87"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="87"/>
       <c r="J41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="83"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="87"/>
       <c r="D42" s="13"/>
       <c r="H42" s="4" t="s">
         <v>66</v>
@@ -2148,9 +2148,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="83"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="13"/>
       <c r="H43" s="4" t="s">
         <v>65</v>
@@ -2173,13 +2173,13 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="87" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -2193,19 +2193,19 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="83"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="87"/>
       <c r="D46" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="83" t="s">
+      <c r="I46" s="87" t="s">
         <v>64</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -2214,97 +2214,97 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="84" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
       <c r="J47" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="84"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="89"/>
       <c r="E48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
       <c r="J48" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
       <c r="J49" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
       <c r="J50" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
       <c r="J51" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
       <c r="J52" s="4" t="s">
         <v>63</v>
       </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
       <c r="J53" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="83"/>
-      <c r="H54" s="83"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
+      <c r="H54" s="87"/>
       <c r="I54" s="1" t="s">
         <v>79</v>
       </c>
@@ -2312,9 +2312,9 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="83"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="87"/>
       <c r="H55" s="4" t="s">
         <v>66</v>
       </c>
@@ -2323,9 +2323,9 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="83"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="87"/>
       <c r="H56" s="4" t="s">
         <v>65</v>
       </c>
@@ -2372,45 +2372,45 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
+      <c r="A60" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="72"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="71"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="72"/>
+      <c r="H60" s="71"/>
       <c r="I60" s="12"/>
       <c r="J60" s="5"/>
-      <c r="L60" s="82"/>
+      <c r="L60" s="99"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="73"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="73"/>
+      <c r="H61" s="85"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
-      <c r="L61" s="82"/>
+      <c r="L61" s="99"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="74"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="74"/>
+      <c r="H62" s="72"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="L62" s="82"/>
+      <c r="L62" s="99"/>
     </row>
     <row r="63" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2444,17 +2444,17 @@
       <c r="AG63" s="3"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83" t="s">
+      <c r="B64" s="87"/>
+      <c r="C64" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="75" t="s">
+      <c r="E64" s="76" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
-      <c r="L64" s="82"/>
+      <c r="L64" s="99"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="76"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="77"/>
       <c r="F65" s="4" t="s">
         <v>32</v>
       </c>
@@ -2481,14 +2481,14 @@
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="6"/>
-      <c r="L65" s="82"/>
+      <c r="L65" s="99"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="77"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="78"/>
       <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2499,14 +2499,14 @@
         <v>24</v>
       </c>
       <c r="J66" s="6"/>
-      <c r="L66" s="82"/>
+      <c r="L66" s="99"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="75" t="s">
+      <c r="A67" s="95"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="76" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -2515,42 +2515,42 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="82"/>
+      <c r="L67" s="99"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="76"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="77"/>
       <c r="F68" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="82"/>
+      <c r="L68" s="99"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="77"/>
+      <c r="A69" s="95"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="78"/>
       <c r="F69" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="29"/>
       <c r="J69" s="6"/>
-      <c r="L69" s="82"/>
+      <c r="L69" s="99"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="75" t="s">
+      <c r="A70" s="95"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="76" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -2559,56 +2559,56 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="L70" s="82"/>
+      <c r="L70" s="99"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="76"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="77"/>
       <c r="F71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="6"/>
-      <c r="L71" s="82"/>
+      <c r="L71" s="99"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="76"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="77"/>
       <c r="F72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="6"/>
-      <c r="L72" s="82"/>
+      <c r="L72" s="99"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="77"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="78"/>
       <c r="F73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="6"/>
-      <c r="L73" s="82"/>
+      <c r="L73" s="99"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="75" t="s">
+      <c r="A74" s="95"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="76" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2617,14 +2617,14 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="6"/>
-      <c r="L74" s="82"/>
+      <c r="L74" s="99"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="76"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="77"/>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
@@ -2633,11 +2633,11 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="76"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="77"/>
       <c r="F76" s="4" t="s">
         <v>37</v>
       </c>
@@ -2646,11 +2646,11 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="91"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="76"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="77"/>
       <c r="F77" s="4" t="s">
         <v>34</v>
       </c>
@@ -2659,11 +2659,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="91"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="76"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="77"/>
       <c r="F78" s="4" t="s">
         <v>38</v>
       </c>
@@ -2672,11 +2672,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="76"/>
+      <c r="A79" s="95"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="77"/>
       <c r="F79" s="4" t="s">
         <v>33</v>
       </c>
@@ -2685,11 +2685,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="83"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="76"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="77"/>
       <c r="F80" s="29"/>
       <c r="G80" s="39"/>
       <c r="H80" s="29"/>
@@ -2699,11 +2699,11 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="76"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="77"/>
       <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
@@ -2712,11 +2712,11 @@
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="77"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -2764,26 +2764,26 @@
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
       <c r="C86" s="68"/>
-      <c r="D86" s="104"/>
+      <c r="D86" s="70"/>
       <c r="E86" s="34"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
-      <c r="J86" s="104"/>
+      <c r="J86" s="70"/>
       <c r="L86" s="69"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="86" t="s">
+      <c r="A87" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="75" t="s">
+      <c r="B87" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="75" t="s">
+      <c r="D87" s="76" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="5" t="s">
@@ -2802,10 +2802,10 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="87"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
       <c r="E88" s="6"/>
       <c r="F88" s="14"/>
       <c r="G88" s="34"/>
@@ -2817,10 +2817,10 @@
       <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="88"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
       <c r="E89" s="6" t="s">
         <v>142</v>
       </c>
@@ -2832,10 +2832,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="89"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
+      <c r="A90" s="101"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
       <c r="E90" s="7" t="s">
         <v>141</v>
       </c>
@@ -2867,16 +2867,16 @@
       <c r="L92" s="30"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="86" t="s">
+      <c r="A93" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="96" t="s">
+      <c r="B93" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="96" t="s">
+      <c r="C93" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="93" t="s">
+      <c r="D93" s="82" t="s">
         <v>45</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -2889,10 +2889,10 @@
       <c r="L93" s="30"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="87"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="94"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="83"/>
       <c r="E94" s="4" t="s">
         <v>53</v>
       </c>
@@ -2903,10 +2903,10 @@
       <c r="L94" s="30"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="87"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="94"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="4" t="s">
         <v>54</v>
       </c>
@@ -2917,11 +2917,11 @@
       <c r="L95" s="30"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="87"/>
-      <c r="B96" s="97"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="72" t="s">
+      <c r="A96" s="91"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="71" t="s">
         <v>91</v>
       </c>
       <c r="F96" s="4" t="s">
@@ -2934,11 +2934,11 @@
       <c r="L96" s="37"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="87"/>
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="73"/>
+      <c r="A97" s="91"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="85"/>
       <c r="F97" s="4" t="s">
         <v>89</v>
       </c>
@@ -2951,11 +2951,11 @@
       <c r="L97" s="37"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="87"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="73"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="85"/>
       <c r="F98" s="4" t="s">
         <v>136</v>
       </c>
@@ -2966,11 +2966,11 @@
       <c r="L98" s="65"/>
     </row>
     <row r="99" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="87"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="74"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="72"/>
       <c r="F99" s="4" t="s">
         <v>135</v>
       </c>
@@ -2980,10 +2980,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="87"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="95"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="84"/>
       <c r="E100" s="4" t="s">
         <v>90</v>
       </c>
@@ -2999,16 +2999,16 @@
       <c r="L101" s="37"/>
     </row>
     <row r="102" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="86" t="s">
+      <c r="A102" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="75" t="s">
+      <c r="B102" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C102" s="75" t="s">
+      <c r="C102" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="75" t="s">
+      <c r="D102" s="76" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -3016,38 +3016,38 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="87"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
       <c r="E103" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="87"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
+      <c r="A104" s="91"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
       <c r="E104" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="75"/>
-      <c r="H109" s="72" t="s">
+      <c r="E109" s="76"/>
+      <c r="H109" s="71" t="s">
         <v>112</v>
       </c>
       <c r="I109" s="11" t="s">
@@ -3058,12 +3058,12 @@
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="H110" s="73"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="H110" s="85"/>
       <c r="I110" s="11" t="s">
         <v>99</v>
       </c>
@@ -3072,12 +3072,12 @@
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="H111" s="73"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="H111" s="85"/>
       <c r="I111" s="11" t="s">
         <v>100</v>
       </c>
@@ -3086,12 +3086,12 @@
       <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="H112" s="73"/>
+      <c r="A112" s="86"/>
+      <c r="B112" s="86"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="H112" s="85"/>
       <c r="I112" s="11" t="s">
         <v>101</v>
       </c>
@@ -3100,12 +3100,12 @@
       <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="H113" s="73"/>
+      <c r="A113" s="86"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="H113" s="85"/>
       <c r="I113" s="11" t="s">
         <v>102</v>
       </c>
@@ -3114,12 +3114,12 @@
       <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="H114" s="73"/>
+      <c r="A114" s="86"/>
+      <c r="B114" s="86"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="H114" s="85"/>
       <c r="I114" s="11" t="s">
         <v>106</v>
       </c>
@@ -3128,12 +3128,12 @@
       <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="H115" s="74"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
+      <c r="H115" s="72"/>
       <c r="I115" s="11" t="s">
         <v>107</v>
       </c>
@@ -3159,16 +3159,16 @@
       <c r="B117" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="75" t="s">
+      <c r="C117" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D117" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="75" t="s">
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76" t="s">
         <v>113</v>
       </c>
       <c r="I117" s="51" t="s">
@@ -3181,12 +3181,12 @@
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="80"/>
       <c r="B118" s="80"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
       <c r="I118" s="51" t="s">
         <v>99</v>
       </c>
@@ -3197,12 +3197,12 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="80"/>
       <c r="B119" s="80"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="77"/>
       <c r="I119" s="51" t="s">
         <v>100</v>
       </c>
@@ -3213,12 +3213,12 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="80"/>
       <c r="B120" s="80"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
       <c r="I120" s="51" t="s">
         <v>101</v>
       </c>
@@ -3229,12 +3229,12 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="80"/>
       <c r="B121" s="80"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
       <c r="I121" s="51" t="s">
         <v>102</v>
       </c>
@@ -3245,12 +3245,12 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="80"/>
       <c r="B122" s="80"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
       <c r="I122" s="51" t="s">
         <v>106</v>
       </c>
@@ -3261,12 +3261,12 @@
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="80"/>
       <c r="B123" s="80"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="76"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
       <c r="I123" s="51" t="s">
         <v>107</v>
       </c>
@@ -3277,13 +3277,13 @@
     <row r="124" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="80"/>
       <c r="B124" s="80"/>
-      <c r="C124" s="76"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
-      <c r="I124" s="70" t="s">
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="103" t="s">
         <v>111</v>
       </c>
       <c r="J124" s="3" t="s">
@@ -3295,13 +3295,13 @@
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="81"/>
       <c r="B125" s="81"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="71"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="104"/>
       <c r="J125" s="3" t="s">
         <v>104</v>
       </c>
@@ -3335,19 +3335,19 @@
       <c r="B128" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C128" s="75" t="s">
+      <c r="C128" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="75" t="s">
+      <c r="D128" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E128" s="101"/>
+      <c r="E128" s="73"/>
       <c r="F128" s="34"/>
       <c r="G128" s="57"/>
-      <c r="H128" s="75" t="s">
+      <c r="H128" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="I128" s="72" t="s">
+      <c r="I128" s="71" t="s">
         <v>131</v>
       </c>
       <c r="J128" s="61" t="s">
@@ -3357,13 +3357,13 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="B129" s="80"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="102"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="74"/>
       <c r="F129" s="32"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="73"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="85"/>
       <c r="J129" s="61" t="s">
         <v>99</v>
       </c>
@@ -3371,14 +3371,14 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="80"/>
       <c r="B130" s="80"/>
-      <c r="C130" s="76"/>
-      <c r="D130" s="76"/>
-      <c r="E130" s="102"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="74"/>
       <c r="F130" s="32"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="76"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="72" t="s">
+      <c r="H130" s="77"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="71" t="s">
         <v>105</v>
       </c>
       <c r="K130" s="3" t="s">
@@ -3388,14 +3388,14 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="80"/>
       <c r="B131" s="80"/>
-      <c r="C131" s="76"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="102"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="74"/>
       <c r="F131" s="32"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="76"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="74"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="85"/>
+      <c r="J131" s="72"/>
       <c r="K131" s="3" t="s">
         <v>104</v>
       </c>
@@ -3403,13 +3403,13 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="80"/>
       <c r="B132" s="80"/>
-      <c r="C132" s="76"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="102"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="74"/>
       <c r="F132" s="32"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="76"/>
-      <c r="I132" s="73"/>
+      <c r="H132" s="77"/>
+      <c r="I132" s="85"/>
       <c r="J132" s="61" t="s">
         <v>109</v>
       </c>
@@ -3417,13 +3417,13 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
       <c r="B133" s="80"/>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="102"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="74"/>
       <c r="F133" s="32"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="76"/>
-      <c r="I133" s="74"/>
+      <c r="H133" s="77"/>
+      <c r="I133" s="72"/>
       <c r="J133" s="61" t="s">
         <v>108</v>
       </c>
@@ -3431,12 +3431,12 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="80"/>
       <c r="B134" s="80"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="102"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="74"/>
       <c r="F134" s="32"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="76"/>
+      <c r="H134" s="77"/>
       <c r="I134" s="61" t="s">
         <v>107</v>
       </c>
@@ -3444,12 +3444,12 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="80"/>
       <c r="B135" s="80"/>
-      <c r="C135" s="76"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="102"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="74"/>
       <c r="F135" s="32"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="76"/>
+      <c r="H135" s="77"/>
       <c r="I135" s="61" t="s">
         <v>106</v>
       </c>
@@ -3457,12 +3457,12 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="80"/>
       <c r="B136" s="80"/>
-      <c r="C136" s="76"/>
-      <c r="D136" s="76"/>
-      <c r="E136" s="102"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="74"/>
       <c r="F136" s="32"/>
       <c r="G136" s="58"/>
-      <c r="H136" s="76"/>
+      <c r="H136" s="77"/>
       <c r="I136" s="61" t="s">
         <v>102</v>
       </c>
@@ -3470,12 +3470,12 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="80"/>
       <c r="B137" s="80"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="76"/>
-      <c r="E137" s="102"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="74"/>
       <c r="F137" s="32"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="76"/>
+      <c r="H137" s="77"/>
       <c r="I137" s="61" t="s">
         <v>101</v>
       </c>
@@ -3483,12 +3483,12 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="80"/>
       <c r="B138" s="80"/>
-      <c r="C138" s="76"/>
-      <c r="D138" s="76"/>
-      <c r="E138" s="102"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="74"/>
       <c r="F138" s="32"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="76"/>
+      <c r="H138" s="77"/>
       <c r="I138" s="61" t="s">
         <v>100</v>
       </c>
@@ -3496,12 +3496,12 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="81"/>
       <c r="B139" s="81"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="103"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="75"/>
       <c r="F139" s="25"/>
       <c r="G139" s="59"/>
-      <c r="H139" s="77"/>
+      <c r="H139" s="78"/>
       <c r="I139" s="61" t="s">
         <v>110</v>
       </c>
@@ -3513,53 +3513,53 @@
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="78" t="s">
+      <c r="A141" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="75" t="s">
+      <c r="B141" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C141" s="75" t="s">
+      <c r="C141" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="75" t="s">
+      <c r="D141" s="76" t="s">
         <v>51</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F141" s="102"/>
-      <c r="G141" s="94"/>
-      <c r="H141" s="72" t="s">
+      <c r="F141" s="74"/>
+      <c r="G141" s="83"/>
+      <c r="H141" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I141" s="72" t="s">
+      <c r="I141" s="71" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="78"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
+      <c r="A142" s="86"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
       <c r="E142" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F142" s="102"/>
-      <c r="G142" s="94"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
+      <c r="F142" s="74"/>
+      <c r="G142" s="83"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
+      <c r="A143" s="86"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
       <c r="E143" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F143" s="103"/>
-      <c r="G143" s="95"/>
+      <c r="F143" s="75"/>
+      <c r="G143" s="84"/>
       <c r="H143" s="55" t="s">
         <v>9</v>
       </c>
@@ -3568,76 +3568,76 @@
       <c r="A145" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="B145" s="75" t="s">
+      <c r="B145" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="75" t="s">
+      <c r="C145" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="75" t="s">
+      <c r="D145" s="76" t="s">
         <v>51</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F145" s="101"/>
-      <c r="G145" s="93"/>
-      <c r="H145" s="72" t="s">
+      <c r="F145" s="73"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I145" s="72" t="s">
+      <c r="I145" s="71" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="80"/>
-      <c r="B146" s="76"/>
-      <c r="C146" s="76"/>
-      <c r="D146" s="76"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
       <c r="E146" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F146" s="102"/>
-      <c r="G146" s="94"/>
-      <c r="H146" s="73"/>
-      <c r="I146" s="73"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="83"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="80"/>
-      <c r="B147" s="76"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
       <c r="E147" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F147" s="102"/>
-      <c r="G147" s="94"/>
-      <c r="H147" s="73"/>
-      <c r="I147" s="73"/>
+      <c r="F147" s="74"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="80"/>
-      <c r="B148" s="76"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="76"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
       <c r="E148" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F148" s="102"/>
-      <c r="G148" s="94"/>
-      <c r="H148" s="74"/>
-      <c r="I148" s="74"/>
+      <c r="F148" s="74"/>
+      <c r="G148" s="83"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="81"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
+      <c r="B149" s="78"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
       <c r="E149" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F149" s="103"/>
-      <c r="G149" s="95"/>
+      <c r="F149" s="75"/>
+      <c r="G149" s="84"/>
       <c r="H149" s="11" t="s">
         <v>9</v>
       </c>
@@ -3679,70 +3679,21 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="E128:E139"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="F145:G149"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="I145:I148"/>
-    <mergeCell ref="F141:G143"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="H128:H139"/>
-    <mergeCell ref="D128:D139"/>
-    <mergeCell ref="C128:C139"/>
-    <mergeCell ref="B128:B139"/>
-    <mergeCell ref="A128:A139"/>
-    <mergeCell ref="I128:I133"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="B64:B82"/>
-    <mergeCell ref="A64:A82"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="D64:D82"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="H109:H115"/>
+    <mergeCell ref="H117:H125"/>
+    <mergeCell ref="G117:G125"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="D109:D115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="B117:B125"/>
     <mergeCell ref="L64:L74"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B60:B62"/>
@@ -3767,21 +3718,70 @@
     <mergeCell ref="E74:E82"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="H109:H115"/>
-    <mergeCell ref="H117:H125"/>
-    <mergeCell ref="G117:G125"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="D109:D115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="F117:F125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="C64:C82"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="B64:B82"/>
+    <mergeCell ref="A64:A82"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="D64:D82"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="E128:E139"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="F145:G149"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="I145:I148"/>
+    <mergeCell ref="F141:G143"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="H128:H139"/>
+    <mergeCell ref="D128:D139"/>
+    <mergeCell ref="C128:C139"/>
+    <mergeCell ref="B128:B139"/>
+    <mergeCell ref="A128:A139"/>
+    <mergeCell ref="I128:I133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
